--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
   <si>
     <t>id</t>
   </si>
@@ -119,19 +119,40 @@
     <t>游戏</t>
   </si>
   <si>
+    <t>Game</t>
+  </si>
+  <si>
     <t>游戏设置</t>
   </si>
   <si>
     <t>画面</t>
   </si>
   <si>
+    <t>Display</t>
+  </si>
+  <si>
     <t>音频</t>
   </si>
   <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>语言</t>
+  </si>
+  <si>
+    <t>Language</t>
+  </si>
+  <si>
     <t>音乐音量</t>
   </si>
   <si>
+    <t>Music Volume</t>
+  </si>
+  <si>
     <t>音效音量</t>
+  </si>
+  <si>
+    <t>Sound Volume</t>
   </si>
 </sst>
 </file>
@@ -1099,10 +1120,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D145"/>
+  <dimension ref="A1:D146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1294,8 +1315,11 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1303,10 +1327,13 @@
         <v>40002</v>
       </c>
       <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
         <v>31</v>
-      </c>
-      <c r="D16" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="17" customFormat="1" spans="1:4">
@@ -1314,35 +1341,57 @@
         <v>40003</v>
       </c>
       <c r="B17" t="s">
-        <v>32</v>
+        <v>34</v>
+      </c>
+      <c r="C17" t="s">
+        <v>35</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="18" customFormat="1" spans="1:4">
       <c r="A18">
-        <v>43001</v>
+        <v>41001</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>37</v>
       </c>
       <c r="D18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
+        <v>43001</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
         <v>43002</v>
       </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="58" ht="12" customHeight="1"/>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="59" ht="12" customHeight="1"/>
     <row r="60" ht="12" customHeight="1"/>
     <row r="61" ht="12" customHeight="1"/>
@@ -1377,9 +1426,10 @@
     <row r="90" ht="12" customHeight="1"/>
     <row r="91" ht="12" customHeight="1"/>
     <row r="92" ht="12" customHeight="1"/>
-    <row r="93" customHeight="1"/>
-    <row r="144" ht="12" customHeight="1"/>
+    <row r="93" ht="12" customHeight="1"/>
+    <row r="94" customHeight="1"/>
     <row r="145" ht="12" customHeight="1"/>
+    <row r="146" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16875" windowHeight="13365"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
   <si>
     <t>id</t>
   </si>
@@ -137,10 +137,25 @@
     <t>Audio</t>
   </si>
   <si>
+    <t>已开启</t>
+  </si>
+  <si>
+    <t>已关闭</t>
+  </si>
+  <si>
     <t>语言</t>
   </si>
   <si>
     <t>Language</t>
+  </si>
+  <si>
+    <t>屏幕分辨率</t>
+  </si>
+  <si>
+    <t>锁定帧数</t>
+  </si>
+  <si>
+    <t>帧数</t>
   </si>
   <si>
     <t>音乐音量</t>
@@ -1120,10 +1135,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D146"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B17" sqref="B16:B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1352,51 +1367,101 @@
     </row>
     <row r="18" customFormat="1" spans="1:4">
       <c r="A18">
-        <v>41001</v>
+        <v>40998</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
       <c r="D18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" customFormat="1" spans="1:4">
       <c r="A19">
-        <v>43001</v>
+        <v>40999</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" customFormat="1" spans="1:4">
       <c r="A20">
-        <v>43002</v>
+        <v>41001</v>
       </c>
       <c r="B20" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="59" ht="12" customHeight="1"/>
-    <row r="60" ht="12" customHeight="1"/>
-    <row r="61" ht="12" customHeight="1"/>
-    <row r="62" ht="12" customHeight="1"/>
-    <row r="63" ht="12" customHeight="1"/>
+    <row r="21" customFormat="1" spans="1:4">
+      <c r="A21">
+        <v>42001</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" customFormat="1" spans="1:4">
+      <c r="A22">
+        <v>42002</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+      <c r="D22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:4">
+      <c r="A23">
+        <v>42003</v>
+      </c>
+      <c r="B23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>43001</v>
+      </c>
+      <c r="B24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
+        <v>43002</v>
+      </c>
+      <c r="B25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+    </row>
     <row r="64" ht="12" customHeight="1"/>
     <row r="65" ht="12" customHeight="1"/>
     <row r="66" ht="12" customHeight="1"/>
@@ -1427,9 +1492,14 @@
     <row r="91" ht="12" customHeight="1"/>
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
-    <row r="94" customHeight="1"/>
-    <row r="145" ht="12" customHeight="1"/>
-    <row r="146" ht="12" customHeight="1"/>
+    <row r="94" ht="12" customHeight="1"/>
+    <row r="95" ht="12" customHeight="1"/>
+    <row r="96" ht="12" customHeight="1"/>
+    <row r="97" ht="12" customHeight="1"/>
+    <row r="98" ht="12" customHeight="1"/>
+    <row r="99" customHeight="1"/>
+    <row r="150" ht="12" customHeight="1"/>
+    <row r="151" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
   <si>
     <t>id</t>
   </si>
@@ -68,6 +68,51 @@
     <t>标题</t>
   </si>
   <si>
+    <t>美术</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>界面</t>
+  </si>
+  <si>
+    <t>UI</t>
+  </si>
+  <si>
+    <t>策划</t>
+  </si>
+  <si>
+    <t>Designer</t>
+  </si>
+  <si>
+    <t>程序</t>
+  </si>
+  <si>
+    <t>Program</t>
+  </si>
+  <si>
+    <t>开始游戏</t>
+  </si>
+  <si>
+    <t>Start Game</t>
+  </si>
+  <si>
+    <t>游戏开始</t>
+  </si>
+  <si>
+    <t>游戏设置</t>
+  </si>
+  <si>
+    <t>Game Setting</t>
+  </si>
+  <si>
+    <t>退出游戏</t>
+  </si>
+  <si>
+    <t>Exit Game</t>
+  </si>
+  <si>
     <t>单次</t>
   </si>
   <si>
@@ -120,9 +165,6 @@
   </si>
   <si>
     <t>Game</t>
-  </si>
-  <si>
-    <t>游戏设置</t>
   </si>
   <si>
     <t>画面</t>
@@ -1135,10 +1177,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D151"/>
+  <dimension ref="A1:D158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B16:B17"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1204,271 +1246,350 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:3">
       <c r="A5">
-        <v>10001</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:3">
       <c r="A6">
-        <v>10002</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" t="s">
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8">
         <v>14</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7">
-        <v>10003</v>
-      </c>
-      <c r="B7" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8">
-        <v>10004</v>
-      </c>
       <c r="B8" t="s">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
+        <v>19</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
-        <v>10005</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
-        <v>20001</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
-        <v>20002</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>30001</v>
+        <v>10001</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>30002</v>
+        <v>10002</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>30003</v>
+        <v>10003</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>40001</v>
+        <v>10004</v>
       </c>
       <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
         <v>29</v>
-      </c>
-      <c r="C15" t="s">
-        <v>30</v>
-      </c>
-      <c r="D15" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>40002</v>
+        <v>10005</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="17" customFormat="1" spans="1:4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
-        <v>40003</v>
+        <v>20001</v>
       </c>
       <c r="B17" t="s">
         <v>34</v>
       </c>
-      <c r="C17" t="s">
+      <c r="D17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" customFormat="1" spans="1:4">
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
-        <v>40998</v>
+        <v>20002</v>
       </c>
       <c r="B18" t="s">
         <v>36</v>
       </c>
       <c r="D18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" customFormat="1" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
-        <v>40999</v>
+        <v>30001</v>
       </c>
       <c r="B19" t="s">
         <v>37</v>
       </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
       <c r="D19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" customFormat="1" spans="1:4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20">
+        <v>30002</v>
+      </c>
+      <c r="B20" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>30003</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>40001</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>40002</v>
+      </c>
+      <c r="B23" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" spans="1:4">
+      <c r="A24">
+        <v>40003</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" spans="1:4">
+      <c r="A25">
+        <v>40998</v>
+      </c>
+      <c r="B25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" customFormat="1" spans="1:4">
+      <c r="A26">
+        <v>40999</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:4">
+      <c r="A27">
         <v>41001</v>
       </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" customFormat="1" spans="1:4">
-      <c r="A21">
+      <c r="B27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C27" t="s">
+        <v>53</v>
+      </c>
+      <c r="D27" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" spans="1:4">
+      <c r="A28">
         <v>42001</v>
       </c>
-      <c r="B21" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:4">
-      <c r="A22">
+      <c r="B28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" spans="1:4">
+      <c r="A29">
         <v>42002</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="D22" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:4">
-      <c r="A23">
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" customFormat="1" spans="1:4">
+      <c r="A30">
         <v>42003</v>
       </c>
-      <c r="B23" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
+      <c r="B30" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
         <v>43001</v>
       </c>
-      <c r="B24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" t="s">
-        <v>44</v>
-      </c>
-      <c r="D24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="B31" t="s">
+        <v>57</v>
+      </c>
+      <c r="C31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>43002</v>
       </c>
-      <c r="B25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" t="s">
-        <v>46</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="64" ht="12" customHeight="1"/>
-    <row r="65" ht="12" customHeight="1"/>
-    <row r="66" ht="12" customHeight="1"/>
-    <row r="67" ht="12" customHeight="1"/>
-    <row r="68" ht="12" customHeight="1"/>
-    <row r="69" ht="12" customHeight="1"/>
-    <row r="70" ht="12" customHeight="1"/>
+      <c r="B32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C32" t="s">
+        <v>60</v>
+      </c>
+      <c r="D32" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="71" ht="12" customHeight="1"/>
     <row r="72" ht="12" customHeight="1"/>
     <row r="73" ht="12" customHeight="1"/>
@@ -1497,9 +1618,16 @@
     <row r="96" ht="12" customHeight="1"/>
     <row r="97" ht="12" customHeight="1"/>
     <row r="98" ht="12" customHeight="1"/>
-    <row r="99" customHeight="1"/>
-    <row r="150" ht="12" customHeight="1"/>
-    <row r="151" ht="12" customHeight="1"/>
+    <row r="99" ht="12" customHeight="1"/>
+    <row r="100" ht="12" customHeight="1"/>
+    <row r="101" ht="12" customHeight="1"/>
+    <row r="102" ht="12" customHeight="1"/>
+    <row r="103" ht="12" customHeight="1"/>
+    <row r="104" ht="12" customHeight="1"/>
+    <row r="105" ht="12" customHeight="1"/>
+    <row r="106" customHeight="1"/>
+    <row r="157" ht="12" customHeight="1"/>
+    <row r="158" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
   <si>
     <t>id</t>
   </si>
@@ -111,6 +111,21 @@
   </si>
   <si>
     <t>Exit Game</t>
+  </si>
+  <si>
+    <t>进入游戏</t>
+  </si>
+  <si>
+    <t>Enter Game</t>
+  </si>
+  <si>
+    <t>游戏加载</t>
+  </si>
+  <si>
+    <t>创建魔王</t>
+  </si>
+  <si>
+    <t>Create Demon King</t>
   </si>
   <si>
     <t>单次</t>
@@ -1177,10 +1192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D158"/>
+  <dimension ref="A1:D160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1334,112 +1349,112 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
-        <v>10001</v>
+        <v>201</v>
       </c>
       <c r="B12" t="s">
         <v>28</v>
       </c>
+      <c r="C12" t="s">
+        <v>29</v>
+      </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
-        <v>10002</v>
+        <v>202</v>
       </c>
       <c r="B13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
         <v>30</v>
-      </c>
-      <c r="D13" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D15" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D16" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>20001</v>
+        <v>10004</v>
       </c>
       <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" t="s">
         <v>34</v>
-      </c>
-      <c r="D17" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>20002</v>
+        <v>10005</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
-      </c>
-      <c r="C19" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>30002</v>
+        <v>20002</v>
       </c>
       <c r="B20" t="s">
+        <v>41</v>
+      </c>
+      <c r="D20" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>30003</v>
+        <v>30001</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
@@ -1448,57 +1463,60 @@
         <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22">
-        <v>40001</v>
+        <v>30002</v>
       </c>
       <c r="B22" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D22" t="s">
         <v>44</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
-        <v>40002</v>
+        <v>30003</v>
       </c>
       <c r="B23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
-        <v>40003</v>
+        <v>40001</v>
       </c>
       <c r="B24" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25" customFormat="1" spans="1:4">
+    <row r="25" spans="1:4">
       <c r="A25">
-        <v>40998</v>
+        <v>40002</v>
       </c>
       <c r="B25" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+      <c r="C25" t="s">
+        <v>52</v>
       </c>
       <c r="D25" t="s">
         <v>24</v>
@@ -1506,10 +1524,13 @@
     </row>
     <row r="26" customFormat="1" spans="1:4">
       <c r="A26">
-        <v>40999</v>
+        <v>40003</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>53</v>
+      </c>
+      <c r="C26" t="s">
+        <v>54</v>
       </c>
       <c r="D26" t="s">
         <v>24</v>
@@ -1517,13 +1538,10 @@
     </row>
     <row r="27" customFormat="1" spans="1:4">
       <c r="A27">
-        <v>41001</v>
+        <v>40998</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
         <v>24</v>
@@ -1531,10 +1549,10 @@
     </row>
     <row r="28" customFormat="1" spans="1:4">
       <c r="A28">
-        <v>42001</v>
+        <v>40999</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D28" t="s">
         <v>24</v>
@@ -1542,10 +1560,13 @@
     </row>
     <row r="29" customFormat="1" spans="1:4">
       <c r="A29">
-        <v>42002</v>
+        <v>41001</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
+      </c>
+      <c r="C29" t="s">
+        <v>58</v>
       </c>
       <c r="D29" t="s">
         <v>24</v>
@@ -1553,45 +1574,65 @@
     </row>
     <row r="30" customFormat="1" spans="1:4">
       <c r="A30">
-        <v>42003</v>
+        <v>42001</v>
       </c>
       <c r="B30" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D30" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" customFormat="1" spans="1:4">
       <c r="A31">
-        <v>43001</v>
+        <v>42002</v>
       </c>
       <c r="B31" t="s">
-        <v>57</v>
-      </c>
-      <c r="C31" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D31" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" customFormat="1" spans="1:4">
       <c r="A32">
-        <v>43002</v>
+        <v>42003</v>
       </c>
       <c r="B32" t="s">
-        <v>59</v>
-      </c>
-      <c r="C32" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D32" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="71" ht="12" customHeight="1"/>
-    <row r="72" ht="12" customHeight="1"/>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>43001</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>43002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>64</v>
+      </c>
+      <c r="C34" t="s">
+        <v>65</v>
+      </c>
+      <c r="D34" t="s">
+        <v>24</v>
+      </c>
+    </row>
     <row r="73" ht="12" customHeight="1"/>
     <row r="74" ht="12" customHeight="1"/>
     <row r="75" ht="12" customHeight="1"/>
@@ -1625,9 +1666,11 @@
     <row r="103" ht="12" customHeight="1"/>
     <row r="104" ht="12" customHeight="1"/>
     <row r="105" ht="12" customHeight="1"/>
-    <row r="106" customHeight="1"/>
-    <row r="157" ht="12" customHeight="1"/>
-    <row r="158" ht="12" customHeight="1"/>
+    <row r="106" ht="12" customHeight="1"/>
+    <row r="107" ht="12" customHeight="1"/>
+    <row r="108" customHeight="1"/>
+    <row r="159" ht="12" customHeight="1"/>
+    <row r="160" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
   <si>
     <t>id</t>
   </si>
@@ -126,6 +126,66 @@
   </si>
   <si>
     <t>Create Demon King</t>
+  </si>
+  <si>
+    <t>确认创建</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>游戏创建</t>
+  </si>
+  <si>
+    <t>输入名字...</t>
+  </si>
+  <si>
+    <t>Input Name...</t>
+  </si>
+  <si>
+    <t>物种</t>
+  </si>
+  <si>
+    <t>Species</t>
+  </si>
+  <si>
+    <t>头</t>
+  </si>
+  <si>
+    <t>Head</t>
+  </si>
+  <si>
+    <t>枚举</t>
+  </si>
+  <si>
+    <t>帽子</t>
+  </si>
+  <si>
+    <t>Hat</t>
+  </si>
+  <si>
+    <t>发型</t>
+  </si>
+  <si>
+    <t>Hair</t>
+  </si>
+  <si>
+    <t>身体</t>
+  </si>
+  <si>
+    <t>Body</t>
+  </si>
+  <si>
+    <t>眼睛</t>
+  </si>
+  <si>
+    <t>Eye</t>
+  </si>
+  <si>
+    <t>嘴巴</t>
+  </si>
+  <si>
+    <t>Mouth</t>
   </si>
   <si>
     <t>单次</t>
@@ -1192,10 +1252,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D160"/>
+  <dimension ref="A1:D169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1319,7 +1379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:3">
       <c r="A10">
         <v>102</v>
       </c>
@@ -1329,11 +1389,8 @@
       <c r="C10" t="s">
         <v>25</v>
       </c>
-      <c r="D10" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+    </row>
+    <row r="11" spans="1:3">
       <c r="A11">
         <v>103</v>
       </c>
@@ -1342,9 +1399,6 @@
       </c>
       <c r="C11" t="s">
         <v>27</v>
-      </c>
-      <c r="D11" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1361,7 +1415,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:3">
       <c r="A13">
         <v>202</v>
       </c>
@@ -1371,277 +1425,319 @@
       <c r="C13" t="s">
         <v>32</v>
       </c>
-      <c r="D13" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
-        <v>10001</v>
+        <v>301</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
       <c r="D14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
       <c r="A15">
-        <v>10002</v>
+        <v>302</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
       <c r="A16">
-        <v>10003</v>
+        <v>303</v>
       </c>
       <c r="B16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>10004</v>
+        <v>1001</v>
       </c>
       <c r="B17" t="s">
-        <v>37</v>
+        <v>40</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18">
-        <v>10005</v>
+        <v>1002</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19">
-        <v>20001</v>
+        <v>1003</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>45</v>
+      </c>
+      <c r="C19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20">
-        <v>20002</v>
+        <v>1004</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21">
-        <v>30001</v>
+        <v>1005</v>
       </c>
       <c r="B21" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22">
-        <v>30002</v>
+        <v>1006</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C22" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
     </row>
     <row r="23" spans="1:4">
       <c r="A23">
+        <v>10001</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>10002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25">
+        <v>10003</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26">
+        <v>10004</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27">
+        <v>10005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28">
+        <v>20001</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="D28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29">
+        <v>20002</v>
+      </c>
+      <c r="B29" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30">
+        <v>30001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31">
+        <v>30002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32">
         <v>30003</v>
       </c>
-      <c r="B23" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" t="s">
-        <v>48</v>
-      </c>
-      <c r="D23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>40001</v>
-      </c>
-      <c r="B24" t="s">
-        <v>49</v>
-      </c>
-      <c r="C24" t="s">
-        <v>50</v>
-      </c>
-      <c r="D24" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>40002</v>
-      </c>
-      <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" customFormat="1" spans="1:4">
-      <c r="A26">
-        <v>40003</v>
-      </c>
-      <c r="B26" t="s">
-        <v>53</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:4">
-      <c r="A27">
-        <v>40998</v>
-      </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" customFormat="1" spans="1:4">
-      <c r="A28">
-        <v>40999</v>
-      </c>
-      <c r="B28" t="s">
-        <v>56</v>
-      </c>
-      <c r="D28" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="29" customFormat="1" spans="1:4">
-      <c r="A29">
-        <v>41001</v>
-      </c>
-      <c r="B29" t="s">
-        <v>57</v>
-      </c>
-      <c r="C29" t="s">
-        <v>58</v>
-      </c>
-      <c r="D29" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" customFormat="1" spans="1:4">
-      <c r="A30">
-        <v>42001</v>
-      </c>
-      <c r="B30" t="s">
-        <v>59</v>
-      </c>
-      <c r="D30" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="31" customFormat="1" spans="1:4">
-      <c r="A31">
-        <v>42002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>60</v>
-      </c>
-      <c r="D31" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="32" customFormat="1" spans="1:4">
-      <c r="A32">
-        <v>42003</v>
-      </c>
       <c r="B32" t="s">
-        <v>61</v>
-      </c>
-      <c r="D32" t="s">
-        <v>24</v>
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>43001</v>
+        <v>40001</v>
       </c>
       <c r="B33" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="C33" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:3">
       <c r="A34">
+        <v>40002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>71</v>
+      </c>
+      <c r="C34" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" customFormat="1" spans="1:3">
+      <c r="A35">
+        <v>40003</v>
+      </c>
+      <c r="B35" t="s">
+        <v>73</v>
+      </c>
+      <c r="C35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" customFormat="1" spans="1:2">
+      <c r="A36">
+        <v>40998</v>
+      </c>
+      <c r="B36" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:2">
+      <c r="A37">
+        <v>40999</v>
+      </c>
+      <c r="B37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:3">
+      <c r="A38">
+        <v>41001</v>
+      </c>
+      <c r="B38" t="s">
+        <v>77</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="39" customFormat="1" spans="1:2">
+      <c r="A39">
+        <v>42001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:2">
+      <c r="A40">
+        <v>42002</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:2">
+      <c r="A41">
+        <v>42003</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42">
+        <v>43001</v>
+      </c>
+      <c r="B42" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43">
         <v>43002</v>
       </c>
-      <c r="B34" t="s">
-        <v>64</v>
-      </c>
-      <c r="C34" t="s">
-        <v>65</v>
-      </c>
-      <c r="D34" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="73" ht="12" customHeight="1"/>
-    <row r="74" ht="12" customHeight="1"/>
-    <row r="75" ht="12" customHeight="1"/>
-    <row r="76" ht="12" customHeight="1"/>
-    <row r="77" ht="12" customHeight="1"/>
-    <row r="78" ht="12" customHeight="1"/>
-    <row r="79" ht="12" customHeight="1"/>
-    <row r="80" ht="12" customHeight="1"/>
-    <row r="81" ht="12" customHeight="1"/>
+      <c r="B43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
+    </row>
     <row r="82" ht="12" customHeight="1"/>
     <row r="83" ht="12" customHeight="1"/>
     <row r="84" ht="12" customHeight="1"/>
@@ -1668,9 +1764,18 @@
     <row r="105" ht="12" customHeight="1"/>
     <row r="106" ht="12" customHeight="1"/>
     <row r="107" ht="12" customHeight="1"/>
-    <row r="108" customHeight="1"/>
-    <row r="159" ht="12" customHeight="1"/>
-    <row r="160" ht="12" customHeight="1"/>
+    <row r="108" ht="12" customHeight="1"/>
+    <row r="109" ht="12" customHeight="1"/>
+    <row r="110" ht="12" customHeight="1"/>
+    <row r="111" ht="12" customHeight="1"/>
+    <row r="112" ht="12" customHeight="1"/>
+    <row r="113" ht="12" customHeight="1"/>
+    <row r="114" ht="12" customHeight="1"/>
+    <row r="115" ht="12" customHeight="1"/>
+    <row r="116" ht="12" customHeight="1"/>
+    <row r="117" customHeight="1"/>
+    <row r="168" ht="12" customHeight="1"/>
+    <row r="169" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
   <si>
     <t>id</t>
   </si>
@@ -149,6 +149,12 @@
     <t>Species</t>
   </si>
   <si>
+    <t>是否创建{0}魔王</t>
+  </si>
+  <si>
+    <t>还未输入魔王名字</t>
+  </si>
+  <si>
     <t>头</t>
   </si>
   <si>
@@ -285,6 +291,21 @@
   </si>
   <si>
     <t>Sound Volume</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>Confirm</t>
+  </si>
+  <si>
+    <t>弹窗</t>
+  </si>
+  <si>
+    <t>取消</t>
+  </si>
+  <si>
+    <t>Cancel</t>
   </si>
 </sst>
 </file>
@@ -1252,10 +1273,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D169"/>
+  <dimension ref="A1:D171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1462,105 +1483,105 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:2">
       <c r="A17">
-        <v>1001</v>
+        <v>304</v>
       </c>
       <c r="B17" t="s">
         <v>40</v>
       </c>
-      <c r="C17" t="s">
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18">
+        <v>305</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>1001</v>
+      </c>
+      <c r="B19" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18">
-        <v>1002</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="C19" t="s">
         <v>43</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" t="s">
         <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19">
-        <v>1003</v>
-      </c>
-      <c r="B19" t="s">
-        <v>45</v>
-      </c>
-      <c r="C19" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B20" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
+        <v>1004</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23">
+        <v>1005</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24">
         <v>1006</v>
       </c>
-      <c r="B22" t="s">
-        <v>51</v>
-      </c>
-      <c r="C22" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
+      <c r="B24" t="s">
+        <v>53</v>
+      </c>
+      <c r="C24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25">
         <v>10001</v>
       </c>
-      <c r="B23" t="s">
-        <v>53</v>
-      </c>
-      <c r="D23" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>10002</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>10003</v>
-      </c>
-      <c r="B25" t="s">
+      <c r="D25" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26">
-        <v>10004</v>
+        <v>10002</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
@@ -1568,178 +1589,217 @@
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>10005</v>
+        <v>10003</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:2">
       <c r="A28">
-        <v>20001</v>
+        <v>10004</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
       </c>
-      <c r="D28" t="s">
-        <v>60</v>
-      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>20002</v>
+        <v>10005</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
+        <v>20001</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="D30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
+        <v>20002</v>
+      </c>
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>30001</v>
       </c>
-      <c r="B30" t="s">
-        <v>62</v>
-      </c>
-      <c r="C30" t="s">
-        <v>63</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="B32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31">
+      <c r="C32" t="s">
+        <v>65</v>
+      </c>
+      <c r="D32" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33">
         <v>30002</v>
       </c>
-      <c r="B31" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32">
-        <v>30003</v>
-      </c>
-      <c r="B32" t="s">
+      <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33">
-        <v>40001</v>
-      </c>
-      <c r="B33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C33" t="s">
-        <v>70</v>
-      </c>
-      <c r="D33" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>30003</v>
+      </c>
+      <c r="B34" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
+        <v>40001</v>
+      </c>
+      <c r="B35" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36">
         <v>40002</v>
       </c>
-      <c r="B34" t="s">
-        <v>71</v>
-      </c>
-      <c r="C34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:3">
-      <c r="A35">
+      <c r="B36" t="s">
+        <v>73</v>
+      </c>
+      <c r="C36" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" customFormat="1" spans="1:3">
+      <c r="A37">
         <v>40003</v>
       </c>
-      <c r="B35" t="s">
-        <v>73</v>
-      </c>
-      <c r="C35" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:2">
-      <c r="A36">
+      <c r="B37" t="s">
+        <v>75</v>
+      </c>
+      <c r="C37" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:2">
+      <c r="A38">
         <v>40998</v>
-      </c>
-      <c r="B36" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:2">
-      <c r="A37">
-        <v>40999</v>
-      </c>
-      <c r="B37" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:3">
-      <c r="A38">
-        <v>41001</v>
       </c>
       <c r="B38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39">
-        <v>42001</v>
+        <v>40999</v>
       </c>
       <c r="B39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:3">
+      <c r="A40">
+        <v>41001</v>
+      </c>
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:2">
-      <c r="A40">
-        <v>42002</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41">
-        <v>42003</v>
+        <v>42001</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" customFormat="1" spans="1:2">
       <c r="A42">
-        <v>43001</v>
+        <v>42002</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
       </c>
-      <c r="C42" t="s">
+    </row>
+    <row r="43" customFormat="1" spans="1:2">
+      <c r="A43">
+        <v>42003</v>
+      </c>
+      <c r="B43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43">
+    <row r="44" spans="1:3">
+      <c r="A44">
+        <v>43001</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45">
         <v>43002</v>
       </c>
-      <c r="B43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C43" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="82" ht="12" customHeight="1"/>
-    <row r="83" ht="12" customHeight="1"/>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>1000001</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47">
+        <v>1000002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="84" ht="12" customHeight="1"/>
     <row r="85" ht="12" customHeight="1"/>
     <row r="86" ht="12" customHeight="1"/>
@@ -1773,9 +1833,11 @@
     <row r="114" ht="12" customHeight="1"/>
     <row r="115" ht="12" customHeight="1"/>
     <row r="116" ht="12" customHeight="1"/>
-    <row r="117" customHeight="1"/>
-    <row r="168" ht="12" customHeight="1"/>
-    <row r="169" ht="12" customHeight="1"/>
+    <row r="117" ht="12" customHeight="1"/>
+    <row r="118" ht="12" customHeight="1"/>
+    <row r="119" customHeight="1"/>
+    <row r="170" ht="12" customHeight="1"/>
+    <row r="171" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
   <si>
     <t>id</t>
   </si>
@@ -122,12 +122,15 @@
     <t>游戏加载</t>
   </si>
   <si>
-    <t>创建魔王</t>
+    <t>生成魔王</t>
   </si>
   <si>
     <t>Create Demon King</t>
   </si>
   <si>
+    <t>是否湮灭{0}魔王</t>
+  </si>
+  <si>
     <t>确认创建</t>
   </si>
   <si>
@@ -149,7 +152,7 @@
     <t>Species</t>
   </si>
   <si>
-    <t>是否创建{0}魔王</t>
+    <t>是否生成{0}魔王</t>
   </si>
   <si>
     <t>还未输入魔王名字</t>
@@ -1273,10 +1276,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1447,149 +1450,149 @@
         <v>32</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:2">
       <c r="A14">
-        <v>301</v>
+        <v>203</v>
       </c>
       <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C14" t="s">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>301</v>
+      </c>
+      <c r="B15" t="s">
         <v>34</v>
       </c>
-      <c r="D14" t="s">
+      <c r="C15" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15">
-        <v>302</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="D15" t="s">
         <v>36</v>
-      </c>
-      <c r="C15" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16">
+        <v>302</v>
+      </c>
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17">
         <v>303</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>304</v>
-      </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B18" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:2">
       <c r="A19">
-        <v>1001</v>
+        <v>305</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
-      <c r="C19" t="s">
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>1001</v>
+      </c>
+      <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="D19" t="s">
+      <c r="C20" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20">
-        <v>1002</v>
-      </c>
-      <c r="B20" t="s">
+      <c r="D20" t="s">
         <v>45</v>
-      </c>
-      <c r="C20" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
         <v>47</v>
-      </c>
-      <c r="C21" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
         <v>49</v>
-      </c>
-      <c r="C22" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
         <v>51</v>
-      </c>
-      <c r="C23" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
+        <v>1005</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25">
         <v>1006</v>
       </c>
-      <c r="B24" t="s">
-        <v>53</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="B25" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26">
         <v>10001</v>
       </c>
-      <c r="B25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" t="s">
+      <c r="B26" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>10002</v>
-      </c>
-      <c r="B26" t="s">
+      <c r="D26" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:2">
       <c r="A27">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -1597,7 +1600,7 @@
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -1605,141 +1608,141 @@
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:2">
       <c r="A30">
-        <v>20001</v>
+        <v>10005</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
       </c>
-      <c r="D30" t="s">
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31">
+        <v>20001</v>
+      </c>
+      <c r="B31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
+      <c r="D31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>20002</v>
-      </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
-        <v>30001</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
-      <c r="C32" t="s">
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
+        <v>30001</v>
+      </c>
+      <c r="B33" t="s">
         <v>65</v>
       </c>
-      <c r="D32" t="s">
+      <c r="C33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33">
-        <v>30002</v>
-      </c>
-      <c r="B33" t="s">
+      <c r="D33" t="s">
         <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34">
+        <v>30002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35">
         <v>30003</v>
       </c>
-      <c r="B34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="B35" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
         <v>40001</v>
       </c>
-      <c r="B35" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
+        <v>73</v>
+      </c>
+      <c r="D36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
+    <row r="37" spans="1:3">
+      <c r="A37">
         <v>40002</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="B37" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:3">
-      <c r="A37">
+      <c r="C37" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:3">
+      <c r="A38">
         <v>40003</v>
       </c>
-      <c r="B37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:2">
-      <c r="A38">
-        <v>40998</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="39" customFormat="1" spans="1:2">
       <c r="A39">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:3">
+    <row r="40" customFormat="1" spans="1:2">
       <c r="A40">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B40" t="s">
         <v>79</v>
       </c>
-      <c r="C40" t="s">
+    </row>
+    <row r="41" customFormat="1" spans="1:3">
+      <c r="A41">
+        <v>41001</v>
+      </c>
+      <c r="B41" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:2">
-      <c r="A41">
-        <v>42001</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
@@ -1747,60 +1750,67 @@
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B43" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" customFormat="1" spans="1:2">
       <c r="A44">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B44" t="s">
         <v>84</v>
       </c>
-      <c r="C44" t="s">
-        <v>85</v>
-      </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45">
+        <v>43001</v>
+      </c>
+      <c r="B45" t="s">
+        <v>85</v>
+      </c>
+      <c r="C45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46">
         <v>43002</v>
       </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="B46" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
+      <c r="C46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
         <v>1000001</v>
       </c>
-      <c r="B46" t="s">
-        <v>88</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="D46" t="s">
+      <c r="C47" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="47" spans="1:3">
-      <c r="A47">
+      <c r="D47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48">
         <v>1000002</v>
       </c>
-      <c r="B47" t="s">
-        <v>91</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="84" ht="12" customHeight="1"/>
+      <c r="C48" t="s">
+        <v>93</v>
+      </c>
+    </row>
     <row r="85" ht="12" customHeight="1"/>
     <row r="86" ht="12" customHeight="1"/>
     <row r="87" ht="12" customHeight="1"/>
@@ -1835,9 +1845,10 @@
     <row r="116" ht="12" customHeight="1"/>
     <row r="117" ht="12" customHeight="1"/>
     <row r="118" ht="12" customHeight="1"/>
-    <row r="119" customHeight="1"/>
-    <row r="170" ht="12" customHeight="1"/>
+    <row r="119" ht="12" customHeight="1"/>
+    <row r="120" customHeight="1"/>
     <row r="171" ht="12" customHeight="1"/>
+    <row r="172" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
   <si>
     <t>id</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>还未输入魔王名字</t>
+  </si>
+  <si>
+    <t>是否开启{0}的征服之旅？</t>
+  </si>
+  <si>
+    <t>基地传送</t>
   </si>
   <si>
     <t>头</t>
@@ -1276,10 +1282,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D172"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1512,32 +1518,32 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>1001</v>
+        <v>401</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
       </c>
-      <c r="C20" t="s">
+      <c r="D20" t="s">
         <v>44</v>
       </c>
-      <c r="D20" t="s">
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>1001</v>
+      </c>
+      <c r="B21" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21">
-        <v>1002</v>
-      </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>46</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B22" t="s">
         <v>48</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -1559,7 +1565,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -1579,96 +1585,96 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:3">
       <c r="A26">
-        <v>10001</v>
+        <v>1006</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
       </c>
-      <c r="D26" t="s">
+      <c r="C26" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:4">
       <c r="A27">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
+      <c r="D27" t="s">
+        <v>59</v>
+      </c>
     </row>
     <row r="28" spans="1:2">
       <c r="A28">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
+        <v>10004</v>
+      </c>
+      <c r="B30" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31">
         <v>10005</v>
       </c>
-      <c r="B30" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
+      <c r="B31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32">
         <v>20001</v>
-      </c>
-      <c r="B31" t="s">
-        <v>62</v>
-      </c>
-      <c r="D31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>20002</v>
       </c>
       <c r="B32" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33">
+        <v>20002</v>
+      </c>
+      <c r="B33" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
         <v>30001</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C33" t="s">
-        <v>66</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34">
-        <v>30002</v>
-      </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>68</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D34" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
@@ -1677,9 +1683,9 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:3">
       <c r="A36">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1687,13 +1693,10 @@
       <c r="C36" t="s">
         <v>73</v>
       </c>
-      <c r="D36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -1701,10 +1704,13 @@
       <c r="C37" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:3">
+      <c r="D37" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
       <c r="A38">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
@@ -1713,71 +1719,71 @@
         <v>77</v>
       </c>
     </row>
-    <row r="39" customFormat="1" spans="1:2">
+    <row r="39" customFormat="1" spans="1:3">
       <c r="A39">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
       </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="40" customFormat="1" spans="1:2">
       <c r="A40">
+        <v>40998</v>
+      </c>
+      <c r="B40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:2">
+      <c r="A41">
         <v>40999</v>
       </c>
-      <c r="B40" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:3">
-      <c r="A41">
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:3">
+      <c r="A42">
         <v>41001</v>
-      </c>
-      <c r="B41" t="s">
-        <v>80</v>
-      </c>
-      <c r="C41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:2">
-      <c r="A42">
-        <v>42001</v>
       </c>
       <c r="B42" t="s">
         <v>82</v>
       </c>
+      <c r="C42" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="43" customFormat="1" spans="1:2">
       <c r="A43">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B43" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44">
+        <v>42002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:2">
+      <c r="A45">
         <v>42003</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3">
-      <c r="A45">
-        <v>43001</v>
-      </c>
       <c r="B45" t="s">
-        <v>85</v>
-      </c>
-      <c r="C45" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B46" t="s">
         <v>87</v>
@@ -1786,9 +1792,9 @@
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:3">
       <c r="A47">
-        <v>1000001</v>
+        <v>43002</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
@@ -1796,22 +1802,32 @@
       <c r="C47" t="s">
         <v>90</v>
       </c>
-      <c r="D47" t="s">
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
+        <v>1000001</v>
+      </c>
+      <c r="B48" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="48" spans="1:3">
-      <c r="A48">
+      <c r="C48" t="s">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
         <v>1000002</v>
       </c>
-      <c r="B48" t="s">
-        <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="85" ht="12" customHeight="1"/>
+      <c r="B49" t="s">
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
     <row r="86" ht="12" customHeight="1"/>
     <row r="87" ht="12" customHeight="1"/>
     <row r="88" ht="12" customHeight="1"/>
@@ -1846,9 +1862,10 @@
     <row r="117" ht="12" customHeight="1"/>
     <row r="118" ht="12" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
-    <row r="120" customHeight="1"/>
-    <row r="171" ht="12" customHeight="1"/>
+    <row r="120" ht="12" customHeight="1"/>
+    <row r="121" customHeight="1"/>
     <row r="172" ht="12" customHeight="1"/>
+    <row r="173" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
   <si>
     <t>id</t>
   </si>
@@ -162,6 +162,12 @@
   </si>
   <si>
     <t>基地传送</t>
+  </si>
+  <si>
+    <t>是否退出当前征服之旅，并回到基地？（退出之后会损失所有进度）</t>
+  </si>
+  <si>
+    <t>游戏地图</t>
   </si>
   <si>
     <t>头</t>
@@ -1282,15 +1288,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D173"/>
+  <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="2" max="2" width="65.5" customWidth="1"/>
     <col min="3" max="3" width="42.875" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
@@ -1529,32 +1535,32 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21">
-        <v>1001</v>
+        <v>501</v>
       </c>
       <c r="B21" t="s">
         <v>45</v>
       </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
         <v>46</v>
       </c>
-      <c r="D21" t="s">
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>1001</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22">
-        <v>1002</v>
-      </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>48</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B23" t="s">
         <v>50</v>
@@ -1565,7 +1571,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B24" t="s">
         <v>52</v>
@@ -1576,7 +1582,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
@@ -1587,7 +1593,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B26" t="s">
         <v>56</v>
@@ -1596,96 +1602,96 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:3">
       <c r="A27">
-        <v>10001</v>
+        <v>1006</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
       </c>
-      <c r="D27" t="s">
+      <c r="C27" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:4">
       <c r="A28">
-        <v>10002</v>
+        <v>10001</v>
       </c>
       <c r="B28" t="s">
         <v>60</v>
       </c>
+      <c r="D28" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="29" spans="1:2">
       <c r="A29">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B30" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
+        <v>10004</v>
+      </c>
+      <c r="B31" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32">
         <v>10005</v>
       </c>
-      <c r="B31" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32">
+      <c r="B32" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33">
         <v>20001</v>
-      </c>
-      <c r="B32" t="s">
-        <v>64</v>
-      </c>
-      <c r="D32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>20002</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34">
+        <v>20002</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>30001</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" t="s">
+      <c r="B35" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35">
-        <v>30002</v>
-      </c>
-      <c r="B35" t="s">
+      <c r="C35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D35" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
@@ -1694,9 +1700,9 @@
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:3">
       <c r="A37">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -1704,13 +1710,10 @@
       <c r="C37" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B38" t="s">
         <v>76</v>
@@ -1718,10 +1721,13 @@
       <c r="C38" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="39" customFormat="1" spans="1:3">
+      <c r="D38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
       <c r="A39">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -1730,71 +1736,71 @@
         <v>79</v>
       </c>
     </row>
-    <row r="40" customFormat="1" spans="1:2">
+    <row r="40" customFormat="1" spans="1:3">
       <c r="A40">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
       </c>
+      <c r="C40" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="41" customFormat="1" spans="1:2">
       <c r="A41">
+        <v>40998</v>
+      </c>
+      <c r="B41" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:2">
+      <c r="A42">
         <v>40999</v>
       </c>
-      <c r="B41" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:3">
-      <c r="A42">
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:3">
+      <c r="A43">
         <v>41001</v>
-      </c>
-      <c r="B42" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:2">
-      <c r="A43">
-        <v>42001</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
+      <c r="C43" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="44" customFormat="1" spans="1:2">
       <c r="A44">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45">
+        <v>42002</v>
+      </c>
+      <c r="B45" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:2">
+      <c r="A46">
         <v>42003</v>
       </c>
-      <c r="B45" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3">
-      <c r="A46">
-        <v>43001</v>
-      </c>
       <c r="B46" t="s">
-        <v>87</v>
-      </c>
-      <c r="C46" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
@@ -1803,9 +1809,9 @@
         <v>90</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:3">
       <c r="A48">
-        <v>1000001</v>
+        <v>43002</v>
       </c>
       <c r="B48" t="s">
         <v>91</v>
@@ -1813,22 +1819,32 @@
       <c r="C48" t="s">
         <v>92</v>
       </c>
-      <c r="D48" t="s">
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>1000001</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="49" spans="1:3">
-      <c r="A49">
+      <c r="C49" t="s">
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
         <v>1000002</v>
       </c>
-      <c r="B49" t="s">
-        <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="86" ht="12" customHeight="1"/>
+      <c r="B50" t="s">
+        <v>96</v>
+      </c>
+      <c r="C50" t="s">
+        <v>97</v>
+      </c>
+    </row>
     <row r="87" ht="12" customHeight="1"/>
     <row r="88" ht="12" customHeight="1"/>
     <row r="89" ht="12" customHeight="1"/>
@@ -1863,9 +1879,10 @@
     <row r="118" ht="12" customHeight="1"/>
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
-    <row r="121" customHeight="1"/>
-    <row r="172" ht="12" customHeight="1"/>
+    <row r="121" ht="12" customHeight="1"/>
+    <row r="122" customHeight="1"/>
     <row r="173" ht="12" customHeight="1"/>
+    <row r="174" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
   <si>
     <t>id</t>
   </si>
@@ -321,6 +321,18 @@
   </si>
   <si>
     <t>Cancel</t>
+  </si>
+  <si>
+    <t>世界名字</t>
+  </si>
+  <si>
+    <t>popup-地图</t>
+  </si>
+  <si>
+    <t>难度</t>
+  </si>
+  <si>
+    <t>关卡数</t>
   </si>
 </sst>
 </file>
@@ -1291,7 +1303,7 @@
   <dimension ref="A1:D174"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="K25" sqref="K25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1843,6 +1855,33 @@
       </c>
       <c r="C50" t="s">
         <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
+        <v>2000001</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="D51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52">
+        <v>2000002</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53">
+        <v>2000003</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="87" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
   <si>
     <t>id</t>
   </si>
@@ -168,6 +168,9 @@
   </si>
   <si>
     <t>游戏地图</t>
+  </si>
+  <si>
+    <t>是否前往？</t>
   </si>
   <si>
     <t>头</t>
@@ -1300,10 +1303,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D174"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K25" sqref="K25"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1556,97 +1559,100 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" customFormat="1" spans="1:4">
       <c r="A22">
-        <v>1001</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>1001</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-      <c r="D22" t="s">
+      <c r="C23" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23">
-        <v>1002</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
         <v>50</v>
-      </c>
-      <c r="C23" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B24" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27">
+        <v>1005</v>
+      </c>
+      <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28">
         <v>1006</v>
       </c>
-      <c r="B27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="B28" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29">
         <v>10001</v>
       </c>
-      <c r="B28" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" t="s">
+      <c r="B29" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>10002</v>
-      </c>
-      <c r="B29" t="s">
+      <c r="D29" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:2">
       <c r="A30">
-        <v>10003</v>
+        <v>10002</v>
       </c>
       <c r="B30" t="s">
         <v>63</v>
@@ -1654,7 +1660,7 @@
     </row>
     <row r="31" spans="1:2">
       <c r="A31">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B31" t="s">
         <v>64</v>
@@ -1662,141 +1668,141 @@
     </row>
     <row r="32" spans="1:2">
       <c r="A32">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B32" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:2">
       <c r="A33">
-        <v>20001</v>
+        <v>10005</v>
       </c>
       <c r="B33" t="s">
         <v>66</v>
       </c>
-      <c r="D33" t="s">
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34">
+        <v>20001</v>
+      </c>
+      <c r="B34" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35">
         <v>20002</v>
-      </c>
-      <c r="B34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35">
-        <v>30001</v>
       </c>
       <c r="B35" t="s">
         <v>69</v>
       </c>
-      <c r="C35" t="s">
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>30001</v>
+      </c>
+      <c r="B36" t="s">
         <v>70</v>
       </c>
-      <c r="D35" t="s">
+      <c r="C36" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
-      <c r="A36">
-        <v>30002</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D36" t="s">
         <v>72</v>
-      </c>
-      <c r="C36" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37">
+        <v>30002</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38">
         <v>30003</v>
       </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
+      <c r="C38" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39">
         <v>40001</v>
       </c>
-      <c r="B38" t="s">
-        <v>76</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="B39" t="s">
         <v>77</v>
       </c>
-      <c r="D38" t="s">
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
-      <c r="A39">
+    <row r="40" spans="1:3">
+      <c r="A40">
         <v>40002</v>
       </c>
-      <c r="B39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:3">
-      <c r="A40">
+      <c r="C40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:3">
+      <c r="A41">
         <v>40003</v>
       </c>
-      <c r="B40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="B41" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:2">
-      <c r="A41">
-        <v>40998</v>
-      </c>
-      <c r="B41" t="s">
+      <c r="C41" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:2">
       <c r="A42">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B42" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="43" customFormat="1" spans="1:3">
+    <row r="43" customFormat="1" spans="1:2">
       <c r="A43">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B43" t="s">
         <v>84</v>
       </c>
-      <c r="C43" t="s">
+    </row>
+    <row r="44" customFormat="1" spans="1:3">
+      <c r="A44">
+        <v>41001</v>
+      </c>
+      <c r="B44" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:2">
-      <c r="A44">
-        <v>42001</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:2">
       <c r="A45">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B45" t="s">
         <v>87</v>
@@ -1804,87 +1810,94 @@
     </row>
     <row r="46" customFormat="1" spans="1:2">
       <c r="A46">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B46" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" customFormat="1" spans="1:2">
       <c r="A47">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B47" t="s">
         <v>89</v>
       </c>
-      <c r="C47" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48">
+        <v>43001</v>
+      </c>
+      <c r="B48" t="s">
+        <v>90</v>
+      </c>
+      <c r="C48" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
         <v>43002</v>
       </c>
-      <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="B49" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49">
+      <c r="C49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
         <v>1000001</v>
       </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="B50" t="s">
         <v>94</v>
       </c>
-      <c r="D49" t="s">
+      <c r="C50" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="50" spans="1:3">
-      <c r="A50">
+      <c r="D50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51">
         <v>1000002</v>
       </c>
-      <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="B51" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51">
+      <c r="C51" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52">
         <v>2000001</v>
       </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="B52" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>2000002</v>
-      </c>
-      <c r="B52" t="s">
+      <c r="D52" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="53" spans="1:2">
       <c r="A53">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B53" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="87" ht="12" customHeight="1"/>
+    <row r="54" spans="1:2">
+      <c r="A54">
+        <v>2000003</v>
+      </c>
+      <c r="B54" t="s">
+        <v>102</v>
+      </c>
+    </row>
     <row r="88" ht="12" customHeight="1"/>
     <row r="89" ht="12" customHeight="1"/>
     <row r="90" ht="12" customHeight="1"/>
@@ -1919,9 +1932,10 @@
     <row r="119" ht="12" customHeight="1"/>
     <row r="120" ht="12" customHeight="1"/>
     <row r="121" ht="12" customHeight="1"/>
-    <row r="122" customHeight="1"/>
-    <row r="173" ht="12" customHeight="1"/>
+    <row r="122" ht="12" customHeight="1"/>
+    <row r="123" customHeight="1"/>
     <row r="174" ht="12" customHeight="1"/>
+    <row r="175" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -74,6 +74,9 @@
     <t>Art</t>
   </si>
   <si>
+    <t>|</t>
+  </si>
+  <si>
     <t>界面</t>
   </si>
   <si>
@@ -309,6 +312,33 @@
   </si>
   <si>
     <t>Sound Volume</t>
+  </si>
+  <si>
+    <t>伤害</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>战斗结算界面</t>
+  </si>
+  <si>
+    <t>击杀</t>
+  </si>
+  <si>
+    <t>Kill</t>
+  </si>
+  <si>
+    <t>经验</t>
+  </si>
+  <si>
+    <t>EXP</t>
+  </si>
+  <si>
+    <t>承伤</t>
+  </si>
+  <si>
+    <t>Sustain</t>
   </si>
   <si>
     <t>确认</t>
@@ -1303,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D175"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1372,7 +1402,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>11</v>
       </c>
@@ -1382,38 +1412,50 @@
       <c r="C5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>19</v>
+      </c>
+      <c r="D7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="D8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1421,35 +1463,41 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1457,32 +1505,38 @@
         <v>201</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>202</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14">
         <v>203</v>
       </c>
       <c r="B14" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1490,51 +1544,63 @@
         <v>301</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D15" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16">
         <v>302</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17">
         <v>303</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C17" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18">
         <v>304</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19">
         <v>305</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>43</v>
+      </c>
+      <c r="D19" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -1542,10 +1608,10 @@
         <v>401</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -1553,10 +1619,10 @@
         <v>501</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="1" spans="1:4">
@@ -1564,10 +1630,10 @@
         <v>502</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
     </row>
     <row r="23" spans="1:4">
@@ -1575,68 +1641,83 @@
         <v>1001</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24">
         <v>1002</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
+        <v>53</v>
+      </c>
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25">
         <v>1003</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26">
         <v>1004</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
+        <v>57</v>
+      </c>
+      <c r="D26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27">
         <v>1005</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
+        <v>59</v>
+      </c>
+      <c r="D27" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28">
         <v>1006</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>61</v>
+      </c>
+      <c r="D28" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -1644,42 +1725,54 @@
         <v>10001</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30">
         <v>10002</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>64</v>
+      </c>
+      <c r="D30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31">
         <v>10003</v>
       </c>
       <c r="B31" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32">
         <v>10004</v>
       </c>
       <c r="B32" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>66</v>
+      </c>
+      <c r="D32" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33">
         <v>10005</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>67</v>
+      </c>
+      <c r="D33" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1687,18 +1780,21 @@
         <v>20001</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35">
         <v>20002</v>
       </c>
       <c r="B35" t="s">
-        <v>69</v>
+        <v>70</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -1706,35 +1802,41 @@
         <v>30001</v>
       </c>
       <c r="B36" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37">
         <v>30002</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
+        <v>75</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38">
         <v>30003</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="D38" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
@@ -1742,166 +1844,251 @@
         <v>40001</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40">
         <v>40002</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:3">
+        <v>81</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
       <c r="A41">
         <v>40003</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:2">
+        <v>83</v>
+      </c>
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:4">
       <c r="A42">
         <v>40998</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:2">
+        <v>84</v>
+      </c>
+      <c r="D42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" customFormat="1" spans="1:4">
       <c r="A43">
         <v>40999</v>
       </c>
       <c r="B43" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:3">
+        <v>85</v>
+      </c>
+      <c r="D43" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:4">
       <c r="A44">
         <v>41001</v>
       </c>
       <c r="B44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:2">
+        <v>87</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
         <v>42001</v>
       </c>
       <c r="B45" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:2">
+        <v>88</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
         <v>42002</v>
       </c>
       <c r="B46" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:2">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" customFormat="1" spans="1:4">
       <c r="A47">
         <v>42003</v>
       </c>
       <c r="B47" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3">
+        <v>90</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48">
         <v>43001</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3">
+        <v>92</v>
+      </c>
+      <c r="D48" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49">
         <v>43002</v>
       </c>
       <c r="B49" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C49" t="s">
-        <v>93</v>
+        <v>94</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>1000001</v>
+        <v>50001</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51">
-        <v>1000002</v>
+        <v>50002</v>
       </c>
       <c r="B51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>98</v>
+        <v>99</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
+        <v>50003</v>
+      </c>
+      <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
+        <v>101</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53">
+        <v>50004</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54">
+        <v>1000001</v>
+      </c>
+      <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55">
+        <v>1000002</v>
+      </c>
+      <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
+        <v>108</v>
+      </c>
+      <c r="D55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56">
         <v>2000001</v>
       </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="D52" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
+      <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57">
         <v>2000002</v>
       </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
+      <c r="B57" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58">
         <v>2000003</v>
       </c>
-      <c r="B54" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="88" ht="12" customHeight="1"/>
-    <row r="89" ht="12" customHeight="1"/>
-    <row r="90" ht="12" customHeight="1"/>
-    <row r="91" ht="12" customHeight="1"/>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
@@ -1933,9 +2120,13 @@
     <row r="120" ht="12" customHeight="1"/>
     <row r="121" ht="12" customHeight="1"/>
     <row r="122" ht="12" customHeight="1"/>
-    <row r="123" customHeight="1"/>
-    <row r="174" ht="12" customHeight="1"/>
-    <row r="175" ht="12" customHeight="1"/>
+    <row r="123" ht="12" customHeight="1"/>
+    <row r="124" ht="12" customHeight="1"/>
+    <row r="125" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
+    <row r="127" customHeight="1"/>
+    <row r="178" ht="12" customHeight="1"/>
+    <row r="179" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
   <si>
     <t>id</t>
   </si>
@@ -215,13 +215,10 @@
     <t>Mouth</t>
   </si>
   <si>
-    <t>单次</t>
+    <t>购买</t>
   </si>
   <si>
     <t>抽卡</t>
-  </si>
-  <si>
-    <t>十次</t>
   </si>
   <si>
     <t>下一个</t>
@@ -1333,10 +1330,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D178"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1733,7 +1730,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>10002</v>
+        <v>10003</v>
       </c>
       <c r="B30" t="s">
         <v>64</v>
@@ -1744,7 +1741,7 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>10003</v>
+        <v>10004</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -1755,7 +1752,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>10004</v>
+        <v>10005</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
@@ -1766,60 +1763,63 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>10005</v>
+        <v>20001</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>68</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D34" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>20002</v>
+        <v>30001</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
+      <c r="C35" t="s">
+        <v>71</v>
+      </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>30001</v>
+        <v>30002</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>30002</v>
+        <v>30003</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1827,41 +1827,41 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>30003</v>
+        <v>40001</v>
       </c>
       <c r="B38" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>40001</v>
+        <v>40002</v>
       </c>
       <c r="B39" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:4">
       <c r="A40">
-        <v>40002</v>
+        <v>40003</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -1869,12 +1869,9 @@
     </row>
     <row r="41" customFormat="1" spans="1:4">
       <c r="A41">
-        <v>40003</v>
+        <v>40998</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
         <v>83</v>
       </c>
       <c r="D41" t="s">
@@ -1883,7 +1880,7 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42">
-        <v>40998</v>
+        <v>40999</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
@@ -1894,23 +1891,23 @@
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43">
-        <v>40999</v>
+        <v>41001</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
+      <c r="C43" t="s">
+        <v>86</v>
+      </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:4">
       <c r="A44">
-        <v>41001</v>
+        <v>42001</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44" t="s">
@@ -1919,7 +1916,7 @@
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
-        <v>42001</v>
+        <v>42002</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -1930,7 +1927,7 @@
     </row>
     <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -1939,26 +1936,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" customFormat="1" spans="1:4">
+    <row r="47" spans="1:4">
       <c r="A47">
-        <v>42003</v>
+        <v>43001</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
       </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>43001</v>
+        <v>43002</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C48" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -1966,41 +1966,41 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>43002</v>
+        <v>50001</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>50001</v>
+        <v>50002</v>
       </c>
       <c r="B50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C50" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50002</v>
+        <v>50003</v>
       </c>
       <c r="B51" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2008,13 +2008,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>50003</v>
+        <v>50004</v>
       </c>
       <c r="B52" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C52" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2022,73 +2022,60 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>50004</v>
+        <v>1000001</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>105</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>1000001</v>
+        <v>1000002</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C54" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>1000002</v>
+        <v>2000001</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
-      </c>
-      <c r="C55" t="s">
         <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56">
-        <v>2000001</v>
+        <v>2000002</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="D56" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:2">
       <c r="A57">
-        <v>2000002</v>
+        <v>2000003</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2000003</v>
-      </c>
-      <c r="B58" t="s">
-        <v>112</v>
-      </c>
-    </row>
+    <row r="91" ht="12" customHeight="1"/>
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
@@ -2123,10 +2110,9 @@
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
-    <row r="126" ht="12" customHeight="1"/>
-    <row r="127" customHeight="1"/>
+    <row r="126" customHeight="1"/>
+    <row r="177" ht="12" customHeight="1"/>
     <row r="178" ht="12" customHeight="1"/>
-    <row r="179" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
   <si>
     <t>id</t>
   </si>
@@ -363,6 +363,12 @@
   </si>
   <si>
     <t>关卡数</t>
+  </si>
+  <si>
+    <t>没有足够的魔晶</t>
+  </si>
+  <si>
+    <t>Toast</t>
   </si>
 </sst>
 </file>
@@ -1332,8 +1338,8 @@
   <sheetPr/>
   <dimension ref="A1:D178"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C50" sqref="C50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2059,20 +2065,37 @@
         <v>109</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
+    <row r="56" spans="1:4">
       <c r="A56">
         <v>2000002</v>
       </c>
       <c r="B56" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="D56" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
         <v>2000003</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
+      </c>
+      <c r="D57" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58">
+        <v>3000001</v>
+      </c>
+      <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="91" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>孕育</t>
+  </si>
+  <si>
+    <t>魔物</t>
   </si>
   <si>
     <t>稀</t>
@@ -1336,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D178"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C50" sqref="C50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1789,43 +1792,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" customFormat="1" spans="1:4">
       <c r="A35">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B35" t="s">
         <v>70</v>
       </c>
-      <c r="C35" t="s">
-        <v>71</v>
-      </c>
       <c r="D35" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B36" t="s">
+        <v>71</v>
+      </c>
+      <c r="C36" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" t="s">
         <v>73</v>
-      </c>
-      <c r="C36" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B37" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" t="s">
         <v>75</v>
-      </c>
-      <c r="C37" t="s">
-        <v>76</v>
       </c>
       <c r="D37" t="s">
         <v>15</v>
@@ -1833,41 +1833,41 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>40001</v>
+        <v>30003</v>
       </c>
       <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
-        <v>78</v>
-      </c>
       <c r="D38" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
+        <v>40001</v>
+      </c>
+      <c r="B39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" t="s">
+        <v>79</v>
+      </c>
+      <c r="D39" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
         <v>40002</v>
       </c>
-      <c r="B39" t="s">
-        <v>79</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="B40" t="s">
         <v>80</v>
       </c>
-      <c r="D39" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:4">
-      <c r="A40">
-        <v>40003</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C40" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -1875,9 +1875,12 @@
     </row>
     <row r="41" customFormat="1" spans="1:4">
       <c r="A41">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
       </c>
       <c r="D41" t="s">
@@ -1886,7 +1889,7 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
@@ -1897,23 +1900,23 @@
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B43" t="s">
         <v>85</v>
       </c>
-      <c r="C43" t="s">
-        <v>86</v>
-      </c>
       <c r="D43" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="44" customFormat="1" spans="1:4">
       <c r="A44">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B44" t="s">
+        <v>86</v>
+      </c>
+      <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44" t="s">
@@ -1922,7 +1925,7 @@
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
@@ -1933,7 +1936,7 @@
     </row>
     <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B46" t="s">
         <v>89</v>
@@ -1942,29 +1945,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" customFormat="1" spans="1:4">
       <c r="A47">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B47" t="s">
         <v>90</v>
       </c>
-      <c r="C47" t="s">
-        <v>91</v>
-      </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B48" t="s">
+        <v>91</v>
+      </c>
+      <c r="C48" t="s">
         <v>92</v>
-      </c>
-      <c r="C48" t="s">
-        <v>93</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -1972,41 +1972,41 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B49" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" t="s">
         <v>94</v>
       </c>
-      <c r="C49" t="s">
-        <v>95</v>
-      </c>
       <c r="D49" t="s">
-        <v>96</v>
+        <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+      <c r="D50" t="s">
         <v>97</v>
-      </c>
-      <c r="C50" t="s">
-        <v>98</v>
-      </c>
-      <c r="D50" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>100</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2014,13 +2014,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C52" t="s">
         <v>101</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2028,57 +2028,60 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>1000001</v>
+        <v>50004</v>
       </c>
       <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
-        <v>104</v>
-      </c>
       <c r="D53" t="s">
-        <v>105</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B54" t="s">
+        <v>104</v>
+      </c>
+      <c r="C54" t="s">
+        <v>105</v>
+      </c>
+      <c r="D54" t="s">
         <v>106</v>
-      </c>
-      <c r="C54" t="s">
-        <v>107</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B55" t="s">
+        <v>107</v>
+      </c>
+      <c r="C55" t="s">
         <v>108</v>
       </c>
       <c r="D55" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B56" t="s">
+        <v>109</v>
+      </c>
+      <c r="D56" t="s">
         <v>110</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
@@ -2089,16 +2092,26 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="B58" t="s">
         <v>112</v>
       </c>
       <c r="D58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59">
+        <v>3000001</v>
+      </c>
+      <c r="B59" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="91" ht="12" customHeight="1"/>
+      <c r="D59" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="92" ht="12" customHeight="1"/>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
@@ -2133,9 +2146,10 @@
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
-    <row r="126" customHeight="1"/>
-    <row r="177" ht="12" customHeight="1"/>
+    <row r="126" ht="12" customHeight="1"/>
+    <row r="127" customHeight="1"/>
     <row r="178" ht="12" customHeight="1"/>
+    <row r="179" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="14265" windowHeight="14010"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
   <si>
     <t>id</t>
   </si>
@@ -261,6 +261,12 @@
   </si>
   <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>名</t>
+  </si>
+  <si>
+    <t>N</t>
   </si>
   <si>
     <t>游戏</t>
@@ -1339,10 +1345,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D179"/>
+  <dimension ref="A1:D180"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1847,7 +1853,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="B39" t="s">
         <v>78</v>
@@ -1856,12 +1862,12 @@
         <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B40" t="s">
         <v>80</v>
@@ -1870,12 +1876,12 @@
         <v>81</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B41" t="s">
         <v>82</v>
@@ -1889,21 +1895,24 @@
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B42" t="s">
         <v>84</v>
       </c>
+      <c r="C42" t="s">
+        <v>85</v>
+      </c>
       <c r="D42" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -1911,12 +1920,9 @@
     </row>
     <row r="44" customFormat="1" spans="1:4">
       <c r="A44">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B44" t="s">
-        <v>86</v>
-      </c>
-      <c r="C44" t="s">
         <v>87</v>
       </c>
       <c r="D44" t="s">
@@ -1925,21 +1931,24 @@
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
+      <c r="C45" t="s">
+        <v>89</v>
+      </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -1947,23 +1956,20 @@
     </row>
     <row r="47" customFormat="1" spans="1:4">
       <c r="A47">
+        <v>42002</v>
+      </c>
+      <c r="B47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" customFormat="1" spans="1:4">
+      <c r="A48">
         <v>42003</v>
       </c>
-      <c r="B47" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48">
-        <v>43001</v>
-      </c>
       <c r="B48" t="s">
-        <v>91</v>
-      </c>
-      <c r="C48" t="s">
         <v>92</v>
       </c>
       <c r="D48" t="s">
@@ -1972,7 +1978,7 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B49" t="s">
         <v>93</v>
@@ -1986,7 +1992,7 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B50" t="s">
         <v>95</v>
@@ -1995,26 +2001,26 @@
         <v>96</v>
       </c>
       <c r="D50" t="s">
-        <v>97</v>
+        <v>15</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="C51" t="s">
         <v>98</v>
       </c>
-      <c r="C51" t="s">
+      <c r="D51" t="s">
         <v>99</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
@@ -2028,7 +2034,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B53" t="s">
         <v>102</v>
@@ -2042,7 +2048,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>1000001</v>
+        <v>50004</v>
       </c>
       <c r="B54" t="s">
         <v>104</v>
@@ -2051,51 +2057,54 @@
         <v>105</v>
       </c>
       <c r="D54" t="s">
-        <v>106</v>
+        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
         <v>107</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>108</v>
-      </c>
-      <c r="D55" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B56" t="s">
         <v>109</v>
       </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2103,16 +2112,26 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
+        <v>2000003</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+      <c r="D59" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60">
         <v>3000001</v>
       </c>
-      <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="92" ht="12" customHeight="1"/>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+      <c r="D60" t="s">
+        <v>116</v>
+      </c>
+    </row>
     <row r="93" ht="12" customHeight="1"/>
     <row r="94" ht="12" customHeight="1"/>
     <row r="95" ht="12" customHeight="1"/>
@@ -2147,9 +2166,10 @@
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
-    <row r="127" customHeight="1"/>
-    <row r="178" ht="12" customHeight="1"/>
+    <row r="127" ht="12" customHeight="1"/>
+    <row r="128" customHeight="1"/>
     <row r="179" ht="12" customHeight="1"/>
+    <row r="180" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="14265" windowHeight="14010"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
   <si>
     <t>id</t>
   </si>
@@ -345,6 +345,18 @@
   </si>
   <si>
     <t>Sustain</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>生物献祭</t>
+  </si>
+  <si>
+    <t>还未选择献祭生物！</t>
+  </si>
+  <si>
+    <t>献祭生物数量达到上限！</t>
   </si>
   <si>
     <t>确认</t>
@@ -1345,10 +1357,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D180"/>
+  <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2062,27 +2074,21 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>1000001</v>
+        <v>60001</v>
       </c>
       <c r="B55" t="s">
         <v>106</v>
       </c>
-      <c r="C55" t="s">
+      <c r="D55" t="s">
         <v>107</v>
-      </c>
-      <c r="D55" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>1000002</v>
+        <v>61001</v>
       </c>
       <c r="B56" t="s">
-        <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2090,31 +2096,37 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>2000001</v>
+        <v>61002</v>
       </c>
       <c r="B57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>2000002</v>
+        <v>1000001</v>
       </c>
       <c r="B58" t="s">
-        <v>113</v>
+        <v>110</v>
+      </c>
+      <c r="C58" t="s">
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>2000003</v>
+        <v>1000002</v>
       </c>
       <c r="B59" t="s">
+        <v>113</v>
+      </c>
+      <c r="C59" t="s">
         <v>114</v>
       </c>
       <c r="D59" t="s">
@@ -2123,7 +2135,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -2132,9 +2144,39 @@
         <v>116</v>
       </c>
     </row>
-    <row r="93" ht="12" customHeight="1"/>
-    <row r="94" ht="12" customHeight="1"/>
-    <row r="95" ht="12" customHeight="1"/>
+    <row r="61" spans="1:4">
+      <c r="A61">
+        <v>2000002</v>
+      </c>
+      <c r="B61" t="s">
+        <v>117</v>
+      </c>
+      <c r="D61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62">
+        <v>2000003</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+      <c r="D62" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63">
+        <v>3000001</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="D63" t="s">
+        <v>120</v>
+      </c>
+    </row>
     <row r="96" ht="12" customHeight="1"/>
     <row r="97" ht="12" customHeight="1"/>
     <row r="98" ht="12" customHeight="1"/>
@@ -2167,9 +2209,12 @@
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
-    <row r="128" customHeight="1"/>
-    <row r="179" ht="12" customHeight="1"/>
-    <row r="180" ht="12" customHeight="1"/>
+    <row r="128" ht="12" customHeight="1"/>
+    <row r="129" ht="12" customHeight="1"/>
+    <row r="130" ht="12" customHeight="1"/>
+    <row r="131" customHeight="1"/>
+    <row r="182" ht="12" customHeight="1"/>
+    <row r="183" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
   <si>
     <t>id</t>
   </si>
@@ -353,10 +353,16 @@
     <t>生物献祭</t>
   </si>
   <si>
+    <t>成功率</t>
+  </si>
+  <si>
     <t>还未选择献祭生物！</t>
   </si>
   <si>
     <t>献祭生物数量达到上限！</t>
+  </si>
+  <si>
+    <t>是否开始献祭？当前成功率{0}</t>
   </si>
   <si>
     <t>确认</t>
@@ -1357,10 +1363,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D183"/>
+  <dimension ref="A1:D185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2085,7 +2091,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B56" t="s">
         <v>108</v>
@@ -2096,7 +2102,7 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -2107,27 +2113,21 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>1000001</v>
+        <v>61002</v>
       </c>
       <c r="B58" t="s">
         <v>110</v>
       </c>
-      <c r="C58" t="s">
-        <v>111</v>
-      </c>
       <c r="D58" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>1000002</v>
+        <v>62001</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
-      </c>
-      <c r="C59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2135,21 +2135,27 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>2000002</v>
+        <v>1000002</v>
       </c>
       <c r="B61" t="s">
-        <v>117</v>
+        <v>115</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -2157,28 +2163,48 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
         <v>118</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>3000001</v>
+        <v>2000002</v>
       </c>
       <c r="B63" t="s">
         <v>119</v>
       </c>
       <c r="D63" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64">
+        <v>2000003</v>
+      </c>
+      <c r="B64" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="96" ht="12" customHeight="1"/>
-    <row r="97" ht="12" customHeight="1"/>
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65">
+        <v>3000001</v>
+      </c>
+      <c r="B65" t="s">
+        <v>121</v>
+      </c>
+      <c r="D65" t="s">
+        <v>122</v>
+      </c>
+    </row>
     <row r="98" ht="12" customHeight="1"/>
     <row r="99" ht="12" customHeight="1"/>
     <row r="100" ht="12" customHeight="1"/>
@@ -2212,9 +2238,11 @@
     <row r="128" ht="12" customHeight="1"/>
     <row r="129" ht="12" customHeight="1"/>
     <row r="130" ht="12" customHeight="1"/>
-    <row r="131" customHeight="1"/>
-    <row r="182" ht="12" customHeight="1"/>
-    <row r="183" ht="12" customHeight="1"/>
+    <row r="131" ht="12" customHeight="1"/>
+    <row r="132" ht="12" customHeight="1"/>
+    <row r="133" customHeight="1"/>
+    <row r="184" ht="12" customHeight="1"/>
+    <row r="185" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
   <si>
     <t>id</t>
   </si>
@@ -240,6 +240,9 @@
   </si>
   <si>
     <t>魔物</t>
+  </si>
+  <si>
+    <t>商店</t>
   </si>
   <si>
     <t>稀</t>
@@ -1363,10 +1366,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D185"/>
+  <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1827,43 +1830,40 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" customFormat="1" spans="1:4">
       <c r="A36">
-        <v>30001</v>
+        <v>20004</v>
       </c>
       <c r="B36" t="s">
         <v>71</v>
       </c>
-      <c r="C36" t="s">
-        <v>72</v>
-      </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B37" t="s">
+        <v>72</v>
+      </c>
+      <c r="C37" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" t="s">
         <v>74</v>
-      </c>
-      <c r="C37" t="s">
-        <v>75</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B38" t="s">
+        <v>75</v>
+      </c>
+      <c r="C38" t="s">
         <v>76</v>
-      </c>
-      <c r="C38" t="s">
-        <v>77</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1871,13 +1871,13 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
         <v>78</v>
-      </c>
-      <c r="C39" t="s">
-        <v>79</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -1885,41 +1885,41 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="B40" t="s">
+        <v>79</v>
+      </c>
+      <c r="C40" t="s">
         <v>80</v>
       </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
+        <v>40001</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D41" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
         <v>40002</v>
       </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="B42" t="s">
         <v>83</v>
       </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:4">
-      <c r="A42">
-        <v>40003</v>
-      </c>
-      <c r="B42" t="s">
+      <c r="C42" t="s">
         <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -1927,9 +1927,12 @@
     </row>
     <row r="43" customFormat="1" spans="1:4">
       <c r="A43">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C43" t="s">
         <v>86</v>
       </c>
       <c r="D43" t="s">
@@ -1938,7 +1941,7 @@
     </row>
     <row r="44" customFormat="1" spans="1:4">
       <c r="A44">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B44" t="s">
         <v>87</v>
@@ -1949,23 +1952,23 @@
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B45" t="s">
         <v>88</v>
       </c>
-      <c r="C45" t="s">
-        <v>89</v>
-      </c>
       <c r="D45" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" t="s">
         <v>90</v>
       </c>
       <c r="D46" t="s">
@@ -1974,7 +1977,7 @@
     </row>
     <row r="47" customFormat="1" spans="1:4">
       <c r="A47">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B47" t="s">
         <v>91</v>
@@ -1985,7 +1988,7 @@
     </row>
     <row r="48" customFormat="1" spans="1:4">
       <c r="A48">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B48" t="s">
         <v>92</v>
@@ -1994,29 +1997,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" customFormat="1" spans="1:4">
       <c r="A49">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="C49" t="s">
-        <v>94</v>
-      </c>
       <c r="D49" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B50" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" t="s">
         <v>95</v>
-      </c>
-      <c r="C50" t="s">
-        <v>96</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2024,41 +2024,41 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B51" t="s">
+        <v>96</v>
+      </c>
+      <c r="C51" t="s">
         <v>97</v>
       </c>
-      <c r="C51" t="s">
-        <v>98</v>
-      </c>
       <c r="D51" t="s">
-        <v>99</v>
+        <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>101</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
         <v>102</v>
-      </c>
-      <c r="C53" t="s">
-        <v>103</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2066,13 +2066,13 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
         <v>104</v>
-      </c>
-      <c r="C54" t="s">
-        <v>105</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2080,29 +2080,32 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>60001</v>
+        <v>50004</v>
       </c>
       <c r="B55" t="s">
+        <v>105</v>
+      </c>
+      <c r="C55" t="s">
         <v>106</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B56" t="s">
+        <v>107</v>
+      </c>
+      <c r="D56" t="s">
         <v>108</v>
-      </c>
-      <c r="D56" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B57" t="s">
         <v>109</v>
@@ -2113,7 +2116,7 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B58" t="s">
         <v>110</v>
@@ -2124,7 +2127,7 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B59" t="s">
         <v>111</v>
@@ -2135,57 +2138,57 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>1000001</v>
+        <v>62001</v>
       </c>
       <c r="B60" t="s">
         <v>112</v>
       </c>
-      <c r="C60" t="s">
-        <v>113</v>
-      </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>15</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B61" t="s">
+        <v>113</v>
+      </c>
+      <c r="C61" t="s">
+        <v>114</v>
+      </c>
+      <c r="D61" t="s">
         <v>115</v>
-      </c>
-      <c r="C61" t="s">
-        <v>116</v>
-      </c>
-      <c r="D61" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
         <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="D63" t="s">
         <v>119</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B64" t="s">
         <v>120</v>
@@ -2196,16 +2199,26 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="B65" t="s">
         <v>121</v>
       </c>
       <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66">
+        <v>3000001</v>
+      </c>
+      <c r="B66" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="98" ht="12" customHeight="1"/>
+      <c r="D66" t="s">
+        <v>123</v>
+      </c>
+    </row>
     <row r="99" ht="12" customHeight="1"/>
     <row r="100" ht="12" customHeight="1"/>
     <row r="101" ht="12" customHeight="1"/>
@@ -2240,9 +2253,10 @@
     <row r="130" ht="12" customHeight="1"/>
     <row r="131" ht="12" customHeight="1"/>
     <row r="132" ht="12" customHeight="1"/>
-    <row r="133" customHeight="1"/>
-    <row r="184" ht="12" customHeight="1"/>
+    <row r="133" ht="12" customHeight="1"/>
+    <row r="134" customHeight="1"/>
     <row r="185" ht="12" customHeight="1"/>
+    <row r="186" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -233,6 +233,9 @@
     <t>阵容</t>
   </si>
   <si>
+    <t>Lineup</t>
+  </si>
+  <si>
     <t>核心界面</t>
   </si>
   <si>
@@ -242,7 +245,10 @@
     <t>魔物</t>
   </si>
   <si>
-    <t>商店</t>
+    <t>研究</t>
+  </si>
+  <si>
+    <t>Research</t>
   </si>
   <si>
     <t>稀</t>
@@ -1368,8 +1374,8 @@
   <sheetPr/>
   <dimension ref="A1:D186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1804,8 +1810,11 @@
       <c r="B33" t="s">
         <v>67</v>
       </c>
+      <c r="C33" t="s">
+        <v>68</v>
+      </c>
       <c r="D33" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1813,7 +1822,7 @@
         <v>20002</v>
       </c>
       <c r="B34" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>15</v>
@@ -1824,7 +1833,7 @@
         <v>20003</v>
       </c>
       <c r="B35" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D35" t="s">
         <v>15</v>
@@ -1835,7 +1844,10 @@
         <v>20004</v>
       </c>
       <c r="B36" t="s">
-        <v>71</v>
+        <v>72</v>
+      </c>
+      <c r="C36" t="s">
+        <v>73</v>
       </c>
       <c r="D36" t="s">
         <v>15</v>
@@ -1846,13 +1858,13 @@
         <v>30001</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:4">
@@ -1860,10 +1872,10 @@
         <v>30002</v>
       </c>
       <c r="B38" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D38" t="s">
         <v>15</v>
@@ -1874,10 +1886,10 @@
         <v>30003</v>
       </c>
       <c r="B39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D39" t="s">
         <v>15</v>
@@ -1888,10 +1900,10 @@
         <v>30004</v>
       </c>
       <c r="B40" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C40" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -1902,10 +1914,10 @@
         <v>40001</v>
       </c>
       <c r="B41" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>25</v>
@@ -1916,10 +1928,10 @@
         <v>40002</v>
       </c>
       <c r="B42" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -1930,10 +1942,10 @@
         <v>40003</v>
       </c>
       <c r="B43" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C43" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="D43" t="s">
         <v>15</v>
@@ -1944,7 +1956,7 @@
         <v>40998</v>
       </c>
       <c r="B44" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -1955,7 +1967,7 @@
         <v>40999</v>
       </c>
       <c r="B45" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -1966,10 +1978,10 @@
         <v>41001</v>
       </c>
       <c r="B46" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D46" t="s">
         <v>15</v>
@@ -1980,7 +1992,7 @@
         <v>42001</v>
       </c>
       <c r="B47" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D47" t="s">
         <v>15</v>
@@ -1991,7 +2003,7 @@
         <v>42002</v>
       </c>
       <c r="B48" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2002,7 +2014,7 @@
         <v>42003</v>
       </c>
       <c r="B49" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2013,10 +2025,10 @@
         <v>43001</v>
       </c>
       <c r="B50" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2027,10 +2039,10 @@
         <v>43002</v>
       </c>
       <c r="B51" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C51" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D51" t="s">
         <v>15</v>
@@ -2041,13 +2053,13 @@
         <v>50001</v>
       </c>
       <c r="B52" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4">
@@ -2055,10 +2067,10 @@
         <v>50002</v>
       </c>
       <c r="B53" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C53" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="D53" t="s">
         <v>15</v>
@@ -2069,10 +2081,10 @@
         <v>50003</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C54" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D54" t="s">
         <v>15</v>
@@ -2083,10 +2095,10 @@
         <v>50004</v>
       </c>
       <c r="B55" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2097,10 +2109,10 @@
         <v>60001</v>
       </c>
       <c r="B56" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D56" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -2108,7 +2120,7 @@
         <v>60002</v>
       </c>
       <c r="B57" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2119,7 +2131,7 @@
         <v>61001</v>
       </c>
       <c r="B58" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2130,7 +2142,7 @@
         <v>61002</v>
       </c>
       <c r="B59" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2141,7 +2153,7 @@
         <v>62001</v>
       </c>
       <c r="B60" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2152,13 +2164,13 @@
         <v>1000001</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:4">
@@ -2166,10 +2178,10 @@
         <v>1000002</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D62" t="s">
         <v>15</v>
@@ -2180,10 +2192,10 @@
         <v>2000001</v>
       </c>
       <c r="B63" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:4">
@@ -2191,7 +2203,7 @@
         <v>2000002</v>
       </c>
       <c r="B64" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D64" t="s">
         <v>15</v>
@@ -2202,7 +2214,7 @@
         <v>2000003</v>
       </c>
       <c r="B65" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D65" t="s">
         <v>15</v>
@@ -2213,10 +2225,10 @@
         <v>3000001</v>
       </c>
       <c r="B66" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D66" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="99" ht="12" customHeight="1"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
   <si>
     <t>id</t>
   </si>
@@ -372,6 +372,9 @@
   </si>
   <si>
     <t>是否开始献祭？当前成功率{0}</t>
+  </si>
+  <si>
+    <t>是否开启此项研究？花费x{0}魔晶</t>
   </si>
   <si>
     <t>确认</t>
@@ -1372,10 +1375,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D186"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2161,57 +2164,57 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>1000001</v>
+        <v>72001</v>
       </c>
       <c r="B61" t="s">
         <v>115</v>
       </c>
-      <c r="C61" t="s">
-        <v>116</v>
-      </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C62" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" t="s">
         <v>118</v>
-      </c>
-      <c r="C62" t="s">
-        <v>119</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" t="s">
         <v>120</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B64" t="s">
+        <v>121</v>
+      </c>
+      <c r="D64" t="s">
         <v>122</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
@@ -2222,16 +2225,26 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="B66" t="s">
         <v>124</v>
       </c>
       <c r="D66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67">
+        <v>3000001</v>
+      </c>
+      <c r="B67" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="99" ht="12" customHeight="1"/>
+      <c r="D67" t="s">
+        <v>126</v>
+      </c>
+    </row>
     <row r="100" ht="12" customHeight="1"/>
     <row r="101" ht="12" customHeight="1"/>
     <row r="102" ht="12" customHeight="1"/>
@@ -2266,9 +2279,10 @@
     <row r="131" ht="12" customHeight="1"/>
     <row r="132" ht="12" customHeight="1"/>
     <row r="133" ht="12" customHeight="1"/>
-    <row r="134" customHeight="1"/>
-    <row r="185" ht="12" customHeight="1"/>
+    <row r="134" ht="12" customHeight="1"/>
+    <row r="135" customHeight="1"/>
     <row r="186" ht="12" customHeight="1"/>
+    <row r="187" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -249,6 +249,12 @@
   </si>
   <si>
     <t>Research</t>
+  </si>
+  <si>
+    <t>蜕变</t>
+  </si>
+  <si>
+    <t>Ascend</t>
   </si>
   <si>
     <t>稀</t>
@@ -1375,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D187"/>
+  <dimension ref="A1:D188"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B59" sqref="B59"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1856,9 +1862,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" customFormat="1" spans="1:4">
       <c r="A37">
-        <v>30001</v>
+        <v>20005</v>
       </c>
       <c r="B37" t="s">
         <v>74</v>
@@ -1867,26 +1873,26 @@
         <v>75</v>
       </c>
       <c r="D37" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B38" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" t="s">
         <v>77</v>
       </c>
-      <c r="C38" t="s">
+      <c r="D38" t="s">
         <v>78</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B39" t="s">
         <v>79</v>
@@ -1900,7 +1906,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -1914,7 +1920,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="B41" t="s">
         <v>83</v>
@@ -1923,12 +1929,12 @@
         <v>84</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B42" t="s">
         <v>85</v>
@@ -1937,12 +1943,12 @@
         <v>86</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="43" customFormat="1" spans="1:4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B43" t="s">
         <v>87</v>
@@ -1956,21 +1962,24 @@
     </row>
     <row r="44" customFormat="1" spans="1:4">
       <c r="A44">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B44" t="s">
         <v>89</v>
       </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
       <c r="D44" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="D45" t="s">
         <v>15</v>
@@ -1978,12 +1987,9 @@
     </row>
     <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B46" t="s">
-        <v>91</v>
-      </c>
-      <c r="C46" t="s">
         <v>92</v>
       </c>
       <c r="D46" t="s">
@@ -1992,21 +1998,24 @@
     </row>
     <row r="47" customFormat="1" spans="1:4">
       <c r="A47">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
+      <c r="C47" t="s">
+        <v>94</v>
+      </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:4">
       <c r="A48">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B48" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2014,23 +2023,20 @@
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49">
+        <v>42002</v>
+      </c>
+      <c r="B49" t="s">
+        <v>96</v>
+      </c>
+      <c r="D49" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="50" customFormat="1" spans="1:4">
+      <c r="A50">
         <v>42003</v>
       </c>
-      <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="D49" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50">
-        <v>43001</v>
-      </c>
       <c r="B50" t="s">
-        <v>96</v>
-      </c>
-      <c r="C50" t="s">
         <v>97</v>
       </c>
       <c r="D50" t="s">
@@ -2039,7 +2045,7 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
@@ -2053,7 +2059,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B52" t="s">
         <v>100</v>
@@ -2062,26 +2068,26 @@
         <v>101</v>
       </c>
       <c r="D52" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
         <v>104</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B54" t="s">
         <v>105</v>
@@ -2095,7 +2101,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B55" t="s">
         <v>107</v>
@@ -2109,32 +2115,35 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>60001</v>
+        <v>50004</v>
       </c>
       <c r="B56" t="s">
         <v>109</v>
       </c>
+      <c r="C56" t="s">
+        <v>110</v>
+      </c>
       <c r="D56" t="s">
-        <v>110</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B57" t="s">
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
         <v>15</v>
@@ -2142,10 +2151,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2153,10 +2162,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2164,71 +2173,71 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>72001</v>
+        <v>62001</v>
       </c>
       <c r="B61" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>1000001</v>
+        <v>72001</v>
       </c>
       <c r="B62" t="s">
-        <v>116</v>
-      </c>
-      <c r="C62" t="s">
         <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>118</v>
+        <v>72</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B63" t="s">
+        <v>118</v>
+      </c>
+      <c r="C63" t="s">
         <v>119</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
         <v>120</v>
-      </c>
-      <c r="D63" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B64" t="s">
         <v>121</v>
       </c>
+      <c r="C64" t="s">
+        <v>122</v>
+      </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B65" t="s">
         <v>123</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B66" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D66" t="s">
         <v>15</v>
@@ -2236,16 +2245,26 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
+        <v>2000003</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68">
         <v>3000001</v>
       </c>
-      <c r="B67" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="100" ht="12" customHeight="1"/>
+      <c r="B68" t="s">
+        <v>127</v>
+      </c>
+      <c r="D68" t="s">
+        <v>128</v>
+      </c>
+    </row>
     <row r="101" ht="12" customHeight="1"/>
     <row r="102" ht="12" customHeight="1"/>
     <row r="103" ht="12" customHeight="1"/>
@@ -2280,9 +2299,10 @@
     <row r="132" ht="12" customHeight="1"/>
     <row r="133" ht="12" customHeight="1"/>
     <row r="134" ht="12" customHeight="1"/>
-    <row r="135" customHeight="1"/>
-    <row r="186" ht="12" customHeight="1"/>
+    <row r="135" ht="12" customHeight="1"/>
+    <row r="136" customHeight="1"/>
     <row r="187" ht="12" customHeight="1"/>
+    <row r="188" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="28050" windowHeight="17055"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
   <si>
     <t>id</t>
   </si>
@@ -251,7 +251,7 @@
     <t>Research</t>
   </si>
   <si>
-    <t>蜕变</t>
+    <t>进阶</t>
   </si>
   <si>
     <t>Ascend</t>
@@ -362,7 +362,7 @@
     <t>Sustain</t>
   </si>
   <si>
-    <t>献祭</t>
+    <t>开始献祭</t>
   </si>
   <si>
     <t>生物献祭</t>
@@ -381,6 +381,27 @@
   </si>
   <si>
     <t>是否开启此项研究？花费x{0}魔晶</t>
+  </si>
+  <si>
+    <t>开始进阶</t>
+  </si>
+  <si>
+    <t>结束进阶</t>
+  </si>
+  <si>
+    <t>完成进阶</t>
+  </si>
+  <si>
+    <t>是否结束进阶？进阶消耗的材料不会返回</t>
+  </si>
+  <si>
+    <t>进度</t>
+  </si>
+  <si>
+    <t>选择进阶魔物</t>
+  </si>
+  <si>
+    <t>选择辅助魔物</t>
   </si>
   <si>
     <t>确认</t>
@@ -1381,10 +1402,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D188"/>
+  <dimension ref="A1:D195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2184,7 +2205,7 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>72001</v>
+        <v>62002</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
@@ -2195,83 +2216,153 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>1000001</v>
+        <v>80001</v>
       </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D63" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:4">
+      <c r="A64">
+        <v>80002</v>
+      </c>
+      <c r="B64" t="s">
         <v>119</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D64" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" customFormat="1" spans="1:4">
+      <c r="A65">
+        <v>80003</v>
+      </c>
+      <c r="B65" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
+      <c r="D65" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="66" customFormat="1" spans="1:4">
+      <c r="A66">
+        <v>80004</v>
+      </c>
+      <c r="B66" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="67" customFormat="1" spans="1:4">
+      <c r="A67">
+        <v>80005</v>
+      </c>
+      <c r="B67" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="68" customFormat="1" spans="1:4">
+      <c r="A68">
+        <v>80006</v>
+      </c>
+      <c r="B68" t="s">
+        <v>123</v>
+      </c>
+      <c r="D68" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="69" customFormat="1" spans="1:4">
+      <c r="A69">
+        <v>80007</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="D69" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>1000001</v>
+      </c>
+      <c r="B70" t="s">
+        <v>125</v>
+      </c>
+      <c r="C70" t="s">
+        <v>126</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
         <v>1000002</v>
       </c>
-      <c r="B64" t="s">
-        <v>121</v>
-      </c>
-      <c r="C64" t="s">
-        <v>122</v>
-      </c>
-      <c r="D64" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65">
+      <c r="B71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C71" t="s">
+        <v>129</v>
+      </c>
+      <c r="D71" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
         <v>2000001</v>
       </c>
-      <c r="B65" t="s">
-        <v>123</v>
-      </c>
-      <c r="D65" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66">
+      <c r="B72" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
         <v>2000002</v>
       </c>
-      <c r="B66" t="s">
-        <v>125</v>
-      </c>
-      <c r="D66" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67">
+      <c r="B73" t="s">
+        <v>132</v>
+      </c>
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
         <v>2000003</v>
       </c>
-      <c r="B67" t="s">
-        <v>126</v>
-      </c>
-      <c r="D67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68">
+      <c r="B74" t="s">
+        <v>133</v>
+      </c>
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
         <v>3000001</v>
       </c>
-      <c r="B68" t="s">
-        <v>127</v>
-      </c>
-      <c r="D68" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="101" ht="12" customHeight="1"/>
-    <row r="102" ht="12" customHeight="1"/>
-    <row r="103" ht="12" customHeight="1"/>
-    <row r="104" ht="12" customHeight="1"/>
-    <row r="105" ht="12" customHeight="1"/>
-    <row r="106" ht="12" customHeight="1"/>
-    <row r="107" ht="12" customHeight="1"/>
+      <c r="B75" t="s">
+        <v>134</v>
+      </c>
+      <c r="D75" t="s">
+        <v>135</v>
+      </c>
+    </row>
     <row r="108" ht="12" customHeight="1"/>
     <row r="109" ht="12" customHeight="1"/>
     <row r="110" ht="12" customHeight="1"/>
@@ -2300,9 +2391,16 @@
     <row r="133" ht="12" customHeight="1"/>
     <row r="134" ht="12" customHeight="1"/>
     <row r="135" ht="12" customHeight="1"/>
-    <row r="136" customHeight="1"/>
-    <row r="187" ht="12" customHeight="1"/>
-    <row r="188" ht="12" customHeight="1"/>
+    <row r="136" ht="12" customHeight="1"/>
+    <row r="137" ht="12" customHeight="1"/>
+    <row r="138" ht="12" customHeight="1"/>
+    <row r="139" ht="12" customHeight="1"/>
+    <row r="140" ht="12" customHeight="1"/>
+    <row r="141" ht="12" customHeight="1"/>
+    <row r="142" ht="12" customHeight="1"/>
+    <row r="143" customHeight="1"/>
+    <row r="194" ht="12" customHeight="1"/>
+    <row r="195" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28050" windowHeight="17055"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
   <si>
     <t>id</t>
   </si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>选择辅助魔物</t>
+  </si>
+  <si>
+    <t>还未选择魔物</t>
+  </si>
+  <si>
+    <t>加速进阶 x{0}</t>
   </si>
   <si>
     <t>确认</t>
@@ -1402,10 +1408,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D195"/>
+  <dimension ref="A1:D197"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="D61" sqref="D61"/>
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2291,29 +2297,23 @@
         <v>15</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" customFormat="1" spans="1:4">
       <c r="A70">
-        <v>1000001</v>
+        <v>80008</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
       </c>
-      <c r="C70" t="s">
+      <c r="D70" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="71" customFormat="1" spans="1:4">
+      <c r="A71">
+        <v>80009</v>
+      </c>
+      <c r="B71" t="s">
         <v>126</v>
-      </c>
-      <c r="D70" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71">
-        <v>1000002</v>
-      </c>
-      <c r="B71" t="s">
-        <v>128</v>
-      </c>
-      <c r="C71" t="s">
-        <v>129</v>
       </c>
       <c r="D71" t="s">
         <v>15</v>
@@ -2321,21 +2321,27 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B72" t="s">
-        <v>130</v>
+        <v>127</v>
+      </c>
+      <c r="C72" t="s">
+        <v>128</v>
       </c>
       <c r="D72" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>2000002</v>
+        <v>1000002</v>
       </c>
       <c r="B73" t="s">
-        <v>132</v>
+        <v>130</v>
+      </c>
+      <c r="C73" t="s">
+        <v>131</v>
       </c>
       <c r="D73" t="s">
         <v>15</v>
@@ -2343,28 +2349,48 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B74" t="s">
+        <v>132</v>
+      </c>
+      <c r="D74" t="s">
         <v>133</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>3000001</v>
+        <v>2000002</v>
       </c>
       <c r="B75" t="s">
         <v>134</v>
       </c>
       <c r="D75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76">
+        <v>2000003</v>
+      </c>
+      <c r="B76" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="108" ht="12" customHeight="1"/>
-    <row r="109" ht="12" customHeight="1"/>
+      <c r="D76" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77">
+        <v>3000001</v>
+      </c>
+      <c r="B77" t="s">
+        <v>136</v>
+      </c>
+      <c r="D77" t="s">
+        <v>137</v>
+      </c>
+    </row>
     <row r="110" ht="12" customHeight="1"/>
     <row r="111" ht="12" customHeight="1"/>
     <row r="112" ht="12" customHeight="1"/>
@@ -2398,9 +2424,11 @@
     <row r="140" ht="12" customHeight="1"/>
     <row r="141" ht="12" customHeight="1"/>
     <row r="142" ht="12" customHeight="1"/>
-    <row r="143" customHeight="1"/>
-    <row r="194" ht="12" customHeight="1"/>
-    <row r="195" ht="12" customHeight="1"/>
+    <row r="143" ht="12" customHeight="1"/>
+    <row r="144" ht="12" customHeight="1"/>
+    <row r="145" customHeight="1"/>
+    <row r="196" ht="12" customHeight="1"/>
+    <row r="197" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -167,6 +167,9 @@
     <t>基地传送</t>
   </si>
   <si>
+    <t>刷新</t>
+  </si>
+  <si>
     <t>是否退出当前征服之旅，并回到基地？（退出之后会损失所有进度）</t>
   </si>
   <si>
@@ -431,7 +434,7 @@
     <t>popup-地图</t>
   </si>
   <si>
-    <t>难度</t>
+    <t>线路数量</t>
   </si>
   <si>
     <t>关卡数</t>
@@ -1408,10 +1411,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D197"/>
+  <dimension ref="A1:D198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1689,65 +1692,62 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" customFormat="1" spans="1:4">
       <c r="A21">
-        <v>501</v>
+        <v>402</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="D21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>501</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="22" customFormat="1" spans="1:4">
-      <c r="A22">
+      <c r="D22" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" spans="1:4">
+      <c r="A23">
         <v>502</v>
-      </c>
-      <c r="B22" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23">
-        <v>1001</v>
       </c>
       <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C23" t="s">
-        <v>50</v>
-      </c>
       <c r="D23" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:4">
       <c r="A24">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" t="s">
         <v>52</v>
-      </c>
-      <c r="C24" t="s">
-        <v>53</v>
-      </c>
-      <c r="D24" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="B25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" t="s">
         <v>54</v>
-      </c>
-      <c r="C25" t="s">
-        <v>55</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1755,13 +1755,13 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
         <v>56</v>
-      </c>
-      <c r="C26" t="s">
-        <v>57</v>
       </c>
       <c r="D26" t="s">
         <v>15</v>
@@ -1769,13 +1769,13 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="B27" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" t="s">
         <v>58</v>
-      </c>
-      <c r="C27" t="s">
-        <v>59</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1783,13 +1783,13 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" t="s">
         <v>60</v>
-      </c>
-      <c r="C28" t="s">
-        <v>61</v>
       </c>
       <c r="D28" t="s">
         <v>15</v>
@@ -1797,29 +1797,32 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>10001</v>
+        <v>1006</v>
       </c>
       <c r="B29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C29" t="s">
         <v>62</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>15</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>10003</v>
+        <v>10001</v>
       </c>
       <c r="B30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
         <v>64</v>
-      </c>
-      <c r="D30" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>10004</v>
+        <v>10003</v>
       </c>
       <c r="B31" t="s">
         <v>65</v>
@@ -1830,7 +1833,7 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>10005</v>
+        <v>10004</v>
       </c>
       <c r="B32" t="s">
         <v>66</v>
@@ -1841,32 +1844,32 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>20001</v>
+        <v>10005</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
-      <c r="C33" t="s">
-        <v>68</v>
-      </c>
       <c r="D33" t="s">
-        <v>69</v>
+        <v>15</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
+        <v>20001</v>
+      </c>
+      <c r="B34" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" t="s">
+        <v>69</v>
+      </c>
+      <c r="D34" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35">
         <v>20002</v>
-      </c>
-      <c r="B34" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="35" customFormat="1" spans="1:4">
-      <c r="A35">
-        <v>20003</v>
       </c>
       <c r="B35" t="s">
         <v>71</v>
@@ -1877,69 +1880,66 @@
     </row>
     <row r="36" customFormat="1" spans="1:4">
       <c r="A36">
-        <v>20004</v>
+        <v>20003</v>
       </c>
       <c r="B36" t="s">
         <v>72</v>
       </c>
-      <c r="C36" t="s">
-        <v>73</v>
-      </c>
       <c r="D36" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="37" customFormat="1" spans="1:4">
       <c r="A37">
+        <v>20004</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+      <c r="C37" t="s">
+        <v>74</v>
+      </c>
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" customFormat="1" spans="1:4">
+      <c r="A38">
         <v>20005</v>
       </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="B38" t="s">
         <v>75</v>
       </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38">
-        <v>30001</v>
-      </c>
-      <c r="B38" t="s">
+      <c r="C38" t="s">
         <v>76</v>
       </c>
-      <c r="C38" t="s">
-        <v>77</v>
-      </c>
       <c r="D38" t="s">
-        <v>78</v>
+        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>30002</v>
+        <v>30001</v>
       </c>
       <c r="B39" t="s">
+        <v>77</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" t="s">
         <v>79</v>
-      </c>
-      <c r="C39" t="s">
-        <v>80</v>
-      </c>
-      <c r="D39" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>30003</v>
+        <v>30002</v>
       </c>
       <c r="B40" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" t="s">
         <v>81</v>
-      </c>
-      <c r="C40" t="s">
-        <v>82</v>
       </c>
       <c r="D40" t="s">
         <v>15</v>
@@ -1947,13 +1947,13 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>30004</v>
+        <v>30003</v>
       </c>
       <c r="B41" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" t="s">
         <v>83</v>
-      </c>
-      <c r="C41" t="s">
-        <v>84</v>
       </c>
       <c r="D41" t="s">
         <v>15</v>
@@ -1961,41 +1961,41 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="B42" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" t="s">
         <v>85</v>
       </c>
-      <c r="C42" t="s">
-        <v>86</v>
-      </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
+        <v>40001</v>
+      </c>
+      <c r="B43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" t="s">
+        <v>87</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44">
         <v>40002</v>
       </c>
-      <c r="B43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="B44" t="s">
         <v>88</v>
       </c>
-      <c r="D43" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:4">
-      <c r="A44">
-        <v>40003</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="C44" t="s">
         <v>89</v>
-      </c>
-      <c r="C44" t="s">
-        <v>90</v>
       </c>
       <c r="D44" t="s">
         <v>15</v>
@@ -2003,9 +2003,12 @@
     </row>
     <row r="45" customFormat="1" spans="1:4">
       <c r="A45">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B45" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" t="s">
         <v>91</v>
       </c>
       <c r="D45" t="s">
@@ -2014,7 +2017,7 @@
     </row>
     <row r="46" customFormat="1" spans="1:4">
       <c r="A46">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B46" t="s">
         <v>92</v>
@@ -2025,23 +2028,23 @@
     </row>
     <row r="47" customFormat="1" spans="1:4">
       <c r="A47">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B47" t="s">
         <v>93</v>
       </c>
-      <c r="C47" t="s">
-        <v>94</v>
-      </c>
       <c r="D47" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="48" customFormat="1" spans="1:4">
       <c r="A48">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B48" t="s">
+        <v>94</v>
+      </c>
+      <c r="C48" t="s">
         <v>95</v>
       </c>
       <c r="D48" t="s">
@@ -2050,7 +2053,7 @@
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B49" t="s">
         <v>96</v>
@@ -2061,7 +2064,7 @@
     </row>
     <row r="50" customFormat="1" spans="1:4">
       <c r="A50">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B50" t="s">
         <v>97</v>
@@ -2070,29 +2073,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" customFormat="1" spans="1:4">
       <c r="A51">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B51" t="s">
         <v>98</v>
       </c>
-      <c r="C51" t="s">
-        <v>99</v>
-      </c>
       <c r="D51" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
         <v>100</v>
-      </c>
-      <c r="C52" t="s">
-        <v>101</v>
       </c>
       <c r="D52" t="s">
         <v>15</v>
@@ -2100,41 +2100,41 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B53" t="s">
+        <v>101</v>
+      </c>
+      <c r="C53" t="s">
         <v>102</v>
       </c>
-      <c r="C53" t="s">
-        <v>103</v>
-      </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>15</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B54" t="s">
+        <v>103</v>
+      </c>
+      <c r="C54" t="s">
+        <v>104</v>
+      </c>
+      <c r="D54" t="s">
         <v>105</v>
-      </c>
-      <c r="C54" t="s">
-        <v>106</v>
-      </c>
-      <c r="D54" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B55" t="s">
+        <v>106</v>
+      </c>
+      <c r="C55" t="s">
         <v>107</v>
-      </c>
-      <c r="C55" t="s">
-        <v>108</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2142,13 +2142,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B56" t="s">
+        <v>108</v>
+      </c>
+      <c r="C56" t="s">
         <v>109</v>
-      </c>
-      <c r="C56" t="s">
-        <v>110</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2156,29 +2156,32 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>60001</v>
+        <v>50004</v>
       </c>
       <c r="B57" t="s">
+        <v>110</v>
+      </c>
+      <c r="C57" t="s">
         <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B58" t="s">
+        <v>112</v>
+      </c>
+      <c r="D58" t="s">
         <v>113</v>
-      </c>
-      <c r="D58" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B59" t="s">
         <v>114</v>
@@ -2189,7 +2192,7 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B60" t="s">
         <v>115</v>
@@ -2200,7 +2203,7 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B61" t="s">
         <v>116</v>
@@ -2211,40 +2214,40 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B62" t="s">
         <v>117</v>
       </c>
       <c r="D62" t="s">
-        <v>72</v>
+        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>80001</v>
+        <v>62002</v>
       </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" customFormat="1" spans="1:4">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64">
-        <v>80002</v>
+        <v>80001</v>
       </c>
       <c r="B64" t="s">
         <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" customFormat="1" spans="1:4">
       <c r="A65">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B65" t="s">
         <v>120</v>
@@ -2255,7 +2258,7 @@
     </row>
     <row r="66" customFormat="1" spans="1:4">
       <c r="A66">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B66" t="s">
         <v>121</v>
@@ -2266,7 +2269,7 @@
     </row>
     <row r="67" customFormat="1" spans="1:4">
       <c r="A67">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B67" t="s">
         <v>122</v>
@@ -2277,7 +2280,7 @@
     </row>
     <row r="68" customFormat="1" spans="1:4">
       <c r="A68">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
@@ -2288,7 +2291,7 @@
     </row>
     <row r="69" customFormat="1" spans="1:4">
       <c r="A69">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B69" t="s">
         <v>124</v>
@@ -2299,7 +2302,7 @@
     </row>
     <row r="70" customFormat="1" spans="1:4">
       <c r="A70">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
@@ -2310,7 +2313,7 @@
     </row>
     <row r="71" customFormat="1" spans="1:4">
       <c r="A71">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -2319,59 +2322,59 @@
         <v>15</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" customFormat="1" spans="1:4">
       <c r="A72">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B72" t="s">
         <v>127</v>
       </c>
-      <c r="C72" t="s">
-        <v>128</v>
-      </c>
       <c r="D72" t="s">
-        <v>129</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B73" t="s">
+        <v>128</v>
+      </c>
+      <c r="C73" t="s">
+        <v>129</v>
+      </c>
+      <c r="D73" t="s">
         <v>130</v>
-      </c>
-      <c r="C73" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B74" t="s">
+        <v>131</v>
+      </c>
+      <c r="C74" t="s">
         <v>132</v>
       </c>
       <c r="D74" t="s">
-        <v>133</v>
+        <v>15</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B75" t="s">
+        <v>133</v>
+      </c>
+      <c r="D75" t="s">
         <v>134</v>
-      </c>
-      <c r="D75" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B76" t="s">
         <v>135</v>
@@ -2382,16 +2385,26 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="B77" t="s">
         <v>136</v>
       </c>
       <c r="D77" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78">
+        <v>3000001</v>
+      </c>
+      <c r="B78" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="110" ht="12" customHeight="1"/>
+      <c r="D78" t="s">
+        <v>138</v>
+      </c>
+    </row>
     <row r="111" ht="12" customHeight="1"/>
     <row r="112" ht="12" customHeight="1"/>
     <row r="113" ht="12" customHeight="1"/>
@@ -2426,9 +2439,10 @@
     <row r="142" ht="12" customHeight="1"/>
     <row r="143" ht="12" customHeight="1"/>
     <row r="144" ht="12" customHeight="1"/>
-    <row r="145" customHeight="1"/>
-    <row r="196" ht="12" customHeight="1"/>
+    <row r="145" ht="12" customHeight="1"/>
+    <row r="146" customHeight="1"/>
     <row r="197" ht="12" customHeight="1"/>
+    <row r="198" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26475" windowHeight="12150"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
   <si>
     <t>id</t>
   </si>
@@ -170,6 +170,18 @@
     <t>刷新</t>
   </si>
   <si>
+    <t>难度 等级{0}</t>
+  </si>
+  <si>
+    <t>世界名字</t>
+  </si>
+  <si>
+    <t>线路数量</t>
+  </si>
+  <si>
+    <t>关卡数</t>
+  </si>
+  <si>
     <t>是否退出当前征服之旅，并回到基地？（退出之后会损失所有进度）</t>
   </si>
   <si>
@@ -428,16 +440,10 @@
     <t>Cancel</t>
   </si>
   <si>
-    <t>世界名字</t>
-  </si>
-  <si>
-    <t>popup-地图</t>
-  </si>
-  <si>
-    <t>线路数量</t>
-  </si>
-  <si>
-    <t>关卡数</t>
+    <t>提示</t>
+  </si>
+  <si>
+    <t>popup</t>
   </si>
   <si>
     <t>没有足够的魔晶</t>
@@ -1411,10 +1417,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D198"/>
+  <dimension ref="A1:D200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1692,7 +1698,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="21" customFormat="1" spans="1:4">
+    <row r="21" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A21">
         <v>402</v>
       </c>
@@ -1703,51 +1709,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A22">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="D22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" customFormat="1" ht="12" customHeight="1" spans="1:4">
+      <c r="A23">
+        <v>411</v>
+      </c>
+      <c r="B23" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="23" customFormat="1" spans="1:4">
-      <c r="A23">
-        <v>502</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" customFormat="1" ht="12" customHeight="1" spans="1:4">
+      <c r="A24">
+        <v>412</v>
+      </c>
+      <c r="B24" t="s">
         <v>49</v>
       </c>
-      <c r="D23" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24">
-        <v>1001</v>
-      </c>
-      <c r="B24" t="s">
+      <c r="D24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" customFormat="1" ht="12" customHeight="1" spans="1:4">
+      <c r="A25">
+        <v>413</v>
+      </c>
+      <c r="B25" t="s">
         <v>50</v>
-      </c>
-      <c r="C24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D24" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25">
-        <v>1002</v>
-      </c>
-      <c r="B25" t="s">
-        <v>53</v>
-      </c>
-      <c r="C25" t="s">
-        <v>54</v>
       </c>
       <c r="D25" t="s">
         <v>15</v>
@@ -1755,27 +1755,21 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
-        <v>1003</v>
+        <v>501</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" spans="1:4">
       <c r="A27">
-        <v>1004</v>
+        <v>502</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1783,27 +1777,27 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>15</v>
+        <v>56</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D29" t="s">
         <v>15</v>
@@ -1811,21 +1805,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>10001</v>
+        <v>1003</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>59</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
-        <v>10003</v>
+        <v>1004</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>61</v>
+      </c>
+      <c r="C31" t="s">
+        <v>62</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1833,10 +1833,13 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>10004</v>
+        <v>1005</v>
       </c>
       <c r="B32" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="C32" t="s">
+        <v>64</v>
       </c>
       <c r="D32" t="s">
         <v>15</v>
@@ -1844,10 +1847,13 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>10005</v>
+        <v>1006</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>66</v>
       </c>
       <c r="D33" t="s">
         <v>15</v>
@@ -1855,119 +1861,107 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" t="s">
         <v>68</v>
-      </c>
-      <c r="C34" t="s">
-        <v>69</v>
-      </c>
-      <c r="D34" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>20002</v>
+        <v>10003</v>
       </c>
       <c r="B35" t="s">
+        <v>69</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36">
+        <v>10004</v>
+      </c>
+      <c r="B36" t="s">
+        <v>70</v>
+      </c>
+      <c r="D36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37">
+        <v>10005</v>
+      </c>
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="D35" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="36" customFormat="1" spans="1:4">
-      <c r="A36">
-        <v>20003</v>
-      </c>
-      <c r="B36" t="s">
+      <c r="D37" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38">
+        <v>20001</v>
+      </c>
+      <c r="B38" t="s">
         <v>72</v>
       </c>
-      <c r="D36" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="37" customFormat="1" spans="1:4">
-      <c r="A37">
-        <v>20004</v>
-      </c>
-      <c r="B37" t="s">
+      <c r="C38" t="s">
         <v>73</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
         <v>74</v>
-      </c>
-      <c r="D37" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" customFormat="1" spans="1:4">
-      <c r="A38">
-        <v>20005</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-      <c r="C38" t="s">
-        <v>76</v>
-      </c>
-      <c r="D38" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B39" t="s">
+        <v>75</v>
+      </c>
+      <c r="D39" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="40" customFormat="1" spans="1:4">
+      <c r="A40">
+        <v>20003</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+      <c r="D40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" customFormat="1" spans="1:4">
+      <c r="A41">
+        <v>20004</v>
+      </c>
+      <c r="B41" t="s">
         <v>77</v>
       </c>
-      <c r="C39" t="s">
+      <c r="C41" t="s">
         <v>78</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" customFormat="1" spans="1:4">
+      <c r="A42">
+        <v>20005</v>
+      </c>
+      <c r="B42" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40">
-        <v>30002</v>
-      </c>
-      <c r="B40" t="s">
+      <c r="C42" t="s">
         <v>80</v>
-      </c>
-      <c r="C40" t="s">
-        <v>81</v>
-      </c>
-      <c r="D40" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41">
-        <v>30003</v>
-      </c>
-      <c r="B41" t="s">
-        <v>82</v>
-      </c>
-      <c r="C41" t="s">
-        <v>83</v>
-      </c>
-      <c r="D41" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42">
-        <v>30004</v>
-      </c>
-      <c r="B42" t="s">
-        <v>84</v>
-      </c>
-      <c r="C42" t="s">
-        <v>85</v>
       </c>
       <c r="D42" t="s">
         <v>15</v>
@@ -1975,77 +1969,83 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>40001</v>
+        <v>30001</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D43" t="s">
-        <v>25</v>
+        <v>83</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
+        <v>30002</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" t="s">
+        <v>85</v>
+      </c>
+      <c r="D44" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45">
+        <v>30003</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C45" t="s">
+        <v>87</v>
+      </c>
+      <c r="D45" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46">
+        <v>30004</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+      <c r="C46" t="s">
+        <v>89</v>
+      </c>
+      <c r="D46" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47">
+        <v>40001</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+      <c r="C47" t="s">
+        <v>91</v>
+      </c>
+      <c r="D47" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48">
         <v>40002</v>
       </c>
-      <c r="B44" t="s">
-        <v>88</v>
-      </c>
-      <c r="C44" t="s">
-        <v>89</v>
-      </c>
-      <c r="D44" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="45" customFormat="1" spans="1:4">
-      <c r="A45">
-        <v>40003</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
-      </c>
-      <c r="C45" t="s">
-        <v>91</v>
-      </c>
-      <c r="D45" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="46" customFormat="1" spans="1:4">
-      <c r="A46">
-        <v>40998</v>
-      </c>
-      <c r="B46" t="s">
+      <c r="B48" t="s">
         <v>92</v>
       </c>
-      <c r="D46" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="47" customFormat="1" spans="1:4">
-      <c r="A47">
-        <v>40999</v>
-      </c>
-      <c r="B47" t="s">
+      <c r="C48" t="s">
         <v>93</v>
-      </c>
-      <c r="D47" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" customFormat="1" spans="1:4">
-      <c r="A48">
-        <v>41001</v>
-      </c>
-      <c r="B48" t="s">
-        <v>94</v>
-      </c>
-      <c r="C48" t="s">
-        <v>95</v>
       </c>
       <c r="D48" t="s">
         <v>15</v>
@@ -2053,10 +2053,13 @@
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49">
-        <v>42001</v>
+        <v>40003</v>
       </c>
       <c r="B49" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
       </c>
       <c r="D49" t="s">
         <v>15</v>
@@ -2064,10 +2067,10 @@
     </row>
     <row r="50" customFormat="1" spans="1:4">
       <c r="A50">
-        <v>42002</v>
+        <v>40998</v>
       </c>
       <c r="B50" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D50" t="s">
         <v>15</v>
@@ -2075,66 +2078,57 @@
     </row>
     <row r="51" customFormat="1" spans="1:4">
       <c r="A51">
+        <v>40999</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+      <c r="D51" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="52" customFormat="1" spans="1:4">
+      <c r="A52">
+        <v>41001</v>
+      </c>
+      <c r="B52" t="s">
+        <v>98</v>
+      </c>
+      <c r="C52" t="s">
+        <v>99</v>
+      </c>
+      <c r="D52" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:4">
+      <c r="A53">
+        <v>42001</v>
+      </c>
+      <c r="B53" t="s">
+        <v>100</v>
+      </c>
+      <c r="D53" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:4">
+      <c r="A54">
+        <v>42002</v>
+      </c>
+      <c r="B54" t="s">
+        <v>101</v>
+      </c>
+      <c r="D54" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="55" customFormat="1" spans="1:4">
+      <c r="A55">
         <v>42003</v>
       </c>
-      <c r="B51" t="s">
-        <v>98</v>
-      </c>
-      <c r="D51" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52">
-        <v>43001</v>
-      </c>
-      <c r="B52" t="s">
-        <v>99</v>
-      </c>
-      <c r="C52" t="s">
-        <v>100</v>
-      </c>
-      <c r="D52" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>43002</v>
-      </c>
-      <c r="B53" t="s">
-        <v>101</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="B55" t="s">
         <v>102</v>
-      </c>
-      <c r="D53" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>50001</v>
-      </c>
-      <c r="B54" t="s">
-        <v>103</v>
-      </c>
-      <c r="C54" t="s">
-        <v>104</v>
-      </c>
-      <c r="D54" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55">
-        <v>50002</v>
-      </c>
-      <c r="B55" t="s">
-        <v>106</v>
-      </c>
-      <c r="C55" t="s">
-        <v>107</v>
       </c>
       <c r="D55" t="s">
         <v>15</v>
@@ -2142,13 +2136,13 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>50003</v>
+        <v>43001</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="C56" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D56" t="s">
         <v>15</v>
@@ -2156,13 +2150,13 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>50004</v>
+        <v>43002</v>
       </c>
       <c r="B57" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="C57" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D57" t="s">
         <v>15</v>
@@ -2170,21 +2164,27 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>60001</v>
+        <v>50001</v>
       </c>
       <c r="B58" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="C58" t="s">
+        <v>108</v>
       </c>
       <c r="D58" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>60002</v>
+        <v>50002</v>
       </c>
       <c r="B59" t="s">
-        <v>114</v>
+        <v>110</v>
+      </c>
+      <c r="C59" t="s">
+        <v>111</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2192,10 +2192,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>61001</v>
+        <v>50003</v>
       </c>
       <c r="B60" t="s">
-        <v>115</v>
+        <v>112</v>
+      </c>
+      <c r="C60" t="s">
+        <v>113</v>
       </c>
       <c r="D60" t="s">
         <v>15</v>
@@ -2203,10 +2206,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>61002</v>
+        <v>50004</v>
       </c>
       <c r="B61" t="s">
-        <v>116</v>
+        <v>114</v>
+      </c>
+      <c r="C61" t="s">
+        <v>115</v>
       </c>
       <c r="D61" t="s">
         <v>15</v>
@@ -2214,40 +2220,40 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>62001</v>
+        <v>60001</v>
       </c>
       <c r="B62" t="s">
+        <v>116</v>
+      </c>
+      <c r="D62" t="s">
         <v>117</v>
-      </c>
-      <c r="D62" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>62002</v>
+        <v>60002</v>
       </c>
       <c r="B63" t="s">
         <v>118</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>80001</v>
+        <v>61001</v>
       </c>
       <c r="B64" t="s">
         <v>119</v>
       </c>
       <c r="D64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" customFormat="1" spans="1:4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65">
-        <v>80002</v>
+        <v>61002</v>
       </c>
       <c r="B65" t="s">
         <v>120</v>
@@ -2256,9 +2262,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="66" customFormat="1" spans="1:4">
+    <row r="66" spans="1:4">
       <c r="A66">
-        <v>80003</v>
+        <v>62001</v>
       </c>
       <c r="B66" t="s">
         <v>121</v>
@@ -2267,31 +2273,31 @@
         <v>15</v>
       </c>
     </row>
-    <row r="67" customFormat="1" spans="1:4">
+    <row r="67" spans="1:4">
       <c r="A67">
-        <v>80004</v>
+        <v>62002</v>
       </c>
       <c r="B67" t="s">
         <v>122</v>
       </c>
       <c r="D67" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="68" customFormat="1" spans="1:4">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68">
-        <v>80005</v>
+        <v>80001</v>
       </c>
       <c r="B68" t="s">
         <v>123</v>
       </c>
       <c r="D68" t="s">
-        <v>15</v>
+        <v>79</v>
       </c>
     </row>
     <row r="69" customFormat="1" spans="1:4">
       <c r="A69">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="B69" t="s">
         <v>124</v>
@@ -2302,7 +2308,7 @@
     </row>
     <row r="70" customFormat="1" spans="1:4">
       <c r="A70">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="B70" t="s">
         <v>125</v>
@@ -2313,7 +2319,7 @@
     </row>
     <row r="71" customFormat="1" spans="1:4">
       <c r="A71">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="B71" t="s">
         <v>126</v>
@@ -2324,7 +2330,7 @@
     </row>
     <row r="72" customFormat="1" spans="1:4">
       <c r="A72">
-        <v>80009</v>
+        <v>80005</v>
       </c>
       <c r="B72" t="s">
         <v>127</v>
@@ -2333,51 +2339,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" customFormat="1" spans="1:4">
       <c r="A73">
-        <v>1000001</v>
+        <v>80006</v>
       </c>
       <c r="B73" t="s">
         <v>128</v>
       </c>
-      <c r="C73" t="s">
+      <c r="D73" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="74" customFormat="1" spans="1:4">
+      <c r="A74">
+        <v>80007</v>
+      </c>
+      <c r="B74" t="s">
         <v>129</v>
       </c>
-      <c r="D73" t="s">
+      <c r="D74" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="75" customFormat="1" spans="1:4">
+      <c r="A75">
+        <v>80008</v>
+      </c>
+      <c r="B75" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74">
-        <v>1000002</v>
-      </c>
-      <c r="B74" t="s">
+      <c r="D75" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="76" customFormat="1" spans="1:4">
+      <c r="A76">
+        <v>80009</v>
+      </c>
+      <c r="B76" t="s">
         <v>131</v>
-      </c>
-      <c r="C74" t="s">
-        <v>132</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75">
-        <v>2000001</v>
-      </c>
-      <c r="B75" t="s">
-        <v>133</v>
-      </c>
-      <c r="D75" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76">
-        <v>2000002</v>
-      </c>
-      <c r="B76" t="s">
-        <v>135</v>
       </c>
       <c r="D76" t="s">
         <v>15</v>
@@ -2385,28 +2385,54 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>2000003</v>
+        <v>1000001</v>
       </c>
       <c r="B77" t="s">
-        <v>136</v>
+        <v>132</v>
+      </c>
+      <c r="C77" t="s">
+        <v>133</v>
       </c>
       <c r="D77" t="s">
-        <v>15</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
+        <v>1000002</v>
+      </c>
+      <c r="B78" t="s">
+        <v>135</v>
+      </c>
+      <c r="C78" t="s">
+        <v>136</v>
+      </c>
+      <c r="D78" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>2000001</v>
+      </c>
+      <c r="B79" t="s">
+        <v>137</v>
+      </c>
+      <c r="D79" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
         <v>3000001</v>
       </c>
-      <c r="B78" t="s">
-        <v>137</v>
-      </c>
-      <c r="D78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="111" ht="12" customHeight="1"/>
-    <row r="112" ht="12" customHeight="1"/>
+      <c r="B80" t="s">
+        <v>139</v>
+      </c>
+      <c r="D80" t="s">
+        <v>140</v>
+      </c>
+    </row>
     <row r="113" ht="12" customHeight="1"/>
     <row r="114" ht="12" customHeight="1"/>
     <row r="115" ht="12" customHeight="1"/>
@@ -2440,9 +2466,11 @@
     <row r="143" ht="12" customHeight="1"/>
     <row r="144" ht="12" customHeight="1"/>
     <row r="145" ht="12" customHeight="1"/>
-    <row r="146" customHeight="1"/>
-    <row r="197" ht="12" customHeight="1"/>
-    <row r="198" ht="12" customHeight="1"/>
+    <row r="146" ht="12" customHeight="1"/>
+    <row r="147" ht="12" customHeight="1"/>
+    <row r="148" customHeight="1"/>
+    <row r="199" ht="12" customHeight="1"/>
+    <row r="200" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26475" windowHeight="12150"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,18 +27,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>content_cn</t>
-  </si>
-  <si>
-    <t>content_en</t>
-  </si>
-  <si>
-    <t>name</t>
+    <t>content_id</t>
+  </si>
+  <si>
+    <t>remark_content</t>
+  </si>
+  <si>
+    <t>remark</t>
   </si>
   <si>
     <t>long</t>
@@ -50,111 +50,72 @@
     <t>序号</t>
   </si>
   <si>
+    <t>内容id</t>
+  </si>
+  <si>
     <t>内容</t>
   </si>
   <si>
     <t>备注</t>
   </si>
   <si>
-    <t>用处</t>
-  </si>
-  <si>
     <t>魔王太嚣张</t>
   </si>
   <si>
-    <t>The Arrogant Demon King</t>
-  </si>
-  <si>
     <t>标题</t>
   </si>
   <si>
     <t>美术</t>
   </si>
   <si>
-    <t>Art</t>
-  </si>
-  <si>
     <t>|</t>
   </si>
   <si>
     <t>界面</t>
   </si>
   <si>
-    <t>UI</t>
-  </si>
-  <si>
     <t>策划</t>
   </si>
   <si>
-    <t>Designer</t>
-  </si>
-  <si>
     <t>程序</t>
   </si>
   <si>
-    <t>Program</t>
-  </si>
-  <si>
     <t>开始游戏</t>
   </si>
   <si>
-    <t>Start Game</t>
-  </si>
-  <si>
     <t>游戏开始</t>
   </si>
   <si>
     <t>游戏设置</t>
   </si>
   <si>
-    <t>Game Setting</t>
-  </si>
-  <si>
     <t>退出游戏</t>
   </si>
   <si>
-    <t>Exit Game</t>
-  </si>
-  <si>
     <t>进入游戏</t>
   </si>
   <si>
-    <t>Enter Game</t>
-  </si>
-  <si>
     <t>游戏加载</t>
   </si>
   <si>
     <t>生成魔王</t>
   </si>
   <si>
-    <t>Create Demon King</t>
-  </si>
-  <si>
     <t>是否湮灭{0}魔王</t>
   </si>
   <si>
     <t>确认创建</t>
   </si>
   <si>
-    <t>Create</t>
-  </si>
-  <si>
     <t>游戏创建</t>
   </si>
   <si>
     <t>输入名字...</t>
   </si>
   <si>
-    <t>Input Name...</t>
-  </si>
-  <si>
     <t>物种</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
     <t>是否生成{0}魔王</t>
   </si>
   <si>
@@ -194,42 +155,24 @@
     <t>头</t>
   </si>
   <si>
-    <t>Head</t>
-  </si>
-  <si>
     <t>枚举</t>
   </si>
   <si>
     <t>帽子</t>
   </si>
   <si>
-    <t>Hat</t>
-  </si>
-  <si>
     <t>发型</t>
   </si>
   <si>
-    <t>Hair</t>
-  </si>
-  <si>
     <t>身体</t>
   </si>
   <si>
-    <t>Body</t>
-  </si>
-  <si>
     <t>眼睛</t>
   </si>
   <si>
-    <t>Eye</t>
-  </si>
-  <si>
     <t>嘴巴</t>
   </si>
   <si>
-    <t>Mouth</t>
-  </si>
-  <si>
     <t>购买</t>
   </si>
   <si>
@@ -248,9 +191,6 @@
     <t>阵容</t>
   </si>
   <si>
-    <t>Lineup</t>
-  </si>
-  <si>
     <t>核心界面</t>
   </si>
   <si>
@@ -263,60 +203,33 @@
     <t>研究</t>
   </si>
   <si>
-    <t>Research</t>
-  </si>
-  <si>
     <t>进阶</t>
   </si>
   <si>
-    <t>Ascend</t>
-  </si>
-  <si>
     <t>稀</t>
   </si>
   <si>
-    <t>R</t>
-  </si>
-  <si>
     <t>阵容管理</t>
   </si>
   <si>
     <t>级</t>
   </si>
   <si>
-    <t>Lv</t>
-  </si>
-  <si>
     <t>阵</t>
   </si>
   <si>
-    <t>T</t>
-  </si>
-  <si>
     <t>名</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>游戏</t>
   </si>
   <si>
-    <t>Game</t>
-  </si>
-  <si>
     <t>画面</t>
   </si>
   <si>
-    <t>Display</t>
-  </si>
-  <si>
     <t>音频</t>
   </si>
   <si>
-    <t>Audio</t>
-  </si>
-  <si>
     <t>已开启</t>
   </si>
   <si>
@@ -326,9 +239,6 @@
     <t>语言</t>
   </si>
   <si>
-    <t>Language</t>
-  </si>
-  <si>
     <t>屏幕分辨率</t>
   </si>
   <si>
@@ -341,40 +251,43 @@
     <t>音乐音量</t>
   </si>
   <si>
-    <t>Music Volume</t>
-  </si>
-  <si>
     <t>音效音量</t>
   </si>
   <si>
-    <t>Sound Volume</t>
+    <t>游戏系统</t>
+  </si>
+  <si>
+    <t>返回主界面</t>
   </si>
   <si>
     <t>伤害</t>
   </si>
   <si>
-    <t>Damage</t>
-  </si>
-  <si>
     <t>战斗结算界面</t>
   </si>
   <si>
     <t>击杀</t>
   </si>
   <si>
-    <t>Kill</t>
-  </si>
-  <si>
     <t>经验</t>
   </si>
   <si>
-    <t>EXP</t>
-  </si>
-  <si>
     <t>承伤</t>
   </si>
   <si>
-    <t>Sustain</t>
+    <t>继续</t>
+  </si>
+  <si>
+    <t>深渊馈赠</t>
+  </si>
+  <si>
+    <t>战斗深渊馈赠</t>
+  </si>
+  <si>
+    <t>选择一个深渊馈赠</t>
+  </si>
+  <si>
+    <t>跳过</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -428,16 +341,10 @@
     <t>确认</t>
   </si>
   <si>
-    <t>Confirm</t>
-  </si>
-  <si>
     <t>弹窗</t>
   </si>
   <si>
     <t>取消</t>
-  </si>
-  <si>
-    <t>Cancel</t>
   </si>
   <si>
     <t>提示</t>
@@ -1417,16 +1324,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D200"/>
+  <dimension ref="A1:D207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="2" max="2" width="65.5" customWidth="1"/>
-    <col min="3" max="3" width="42.875" customWidth="1"/>
+    <col min="2" max="2" width="47.625" customWidth="1"/>
+    <col min="3" max="3" width="65.5" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1449,7 +1356,7 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
         <v>5</v>
@@ -1476,970 +1383,1178 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5">
         <v>11</v>
       </c>
-      <c r="B5" t="s">
-        <v>13</v>
+      <c r="B5">
+        <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6">
         <v>12</v>
       </c>
-      <c r="B6" t="s">
-        <v>16</v>
+      <c r="B6">
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7">
         <v>13</v>
       </c>
-      <c r="B7" t="s">
-        <v>18</v>
+      <c r="B7">
+        <v>13</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
         <v>14</v>
       </c>
-      <c r="B8" t="s">
-        <v>20</v>
+      <c r="B8">
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9">
         <v>101</v>
       </c>
-      <c r="B9" t="s">
-        <v>22</v>
+      <c r="B9">
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10">
         <v>102</v>
       </c>
-      <c r="B10" t="s">
-        <v>25</v>
+      <c r="B10">
+        <v>102</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11">
         <v>103</v>
       </c>
-      <c r="B11" t="s">
-        <v>27</v>
+      <c r="B11">
+        <v>103</v>
       </c>
       <c r="C11" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12">
         <v>201</v>
       </c>
-      <c r="B12" t="s">
-        <v>29</v>
+      <c r="B12">
+        <v>201</v>
       </c>
       <c r="C12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="D12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13">
         <v>202</v>
       </c>
-      <c r="B13" t="s">
-        <v>32</v>
+      <c r="B13">
+        <v>202</v>
       </c>
       <c r="C13" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14">
         <v>203</v>
       </c>
-      <c r="B14" t="s">
-        <v>34</v>
+      <c r="B14">
+        <v>203</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
       </c>
       <c r="D14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
         <v>301</v>
       </c>
-      <c r="B15" t="s">
-        <v>35</v>
+      <c r="B15">
+        <v>301</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
         <v>302</v>
       </c>
-      <c r="B16" t="s">
-        <v>38</v>
+      <c r="B16">
+        <v>302</v>
       </c>
       <c r="C16" t="s">
-        <v>39</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
         <v>303</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
+      <c r="B17">
+        <v>303</v>
       </c>
       <c r="C17" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="D17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
         <v>304</v>
       </c>
-      <c r="B18" t="s">
-        <v>42</v>
+      <c r="B18">
+        <v>304</v>
+      </c>
+      <c r="C18" t="s">
+        <v>29</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
         <v>305</v>
       </c>
-      <c r="B19" t="s">
-        <v>43</v>
+      <c r="B19">
+        <v>305</v>
+      </c>
+      <c r="C19" t="s">
+        <v>30</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
         <v>401</v>
       </c>
-      <c r="B20" t="s">
-        <v>44</v>
+      <c r="B20">
+        <v>401</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A21">
         <v>402</v>
       </c>
-      <c r="B21" t="s">
-        <v>46</v>
+      <c r="B21">
+        <v>402</v>
+      </c>
+      <c r="C21" t="s">
+        <v>33</v>
       </c>
       <c r="D21" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A22">
         <v>403</v>
       </c>
-      <c r="B22" t="s">
-        <v>47</v>
+      <c r="B22">
+        <v>403</v>
+      </c>
+      <c r="C22" t="s">
+        <v>34</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A23">
         <v>411</v>
       </c>
-      <c r="B23" t="s">
-        <v>48</v>
+      <c r="B23">
+        <v>411</v>
+      </c>
+      <c r="C23" t="s">
+        <v>35</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A24">
         <v>412</v>
       </c>
-      <c r="B24" t="s">
-        <v>49</v>
+      <c r="B24">
+        <v>412</v>
+      </c>
+      <c r="C24" t="s">
+        <v>36</v>
       </c>
       <c r="D24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A25">
         <v>413</v>
       </c>
-      <c r="B25" t="s">
-        <v>50</v>
+      <c r="B25">
+        <v>413</v>
+      </c>
+      <c r="C25" t="s">
+        <v>37</v>
       </c>
       <c r="D25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:4">
       <c r="A26">
         <v>501</v>
       </c>
-      <c r="B26" t="s">
-        <v>51</v>
+      <c r="B26">
+        <v>501</v>
+      </c>
+      <c r="C26" t="s">
+        <v>38</v>
       </c>
       <c r="D26" t="s">
-        <v>52</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" customFormat="1" spans="1:4">
       <c r="A27">
         <v>502</v>
       </c>
-      <c r="B27" t="s">
-        <v>53</v>
+      <c r="B27">
+        <v>502</v>
+      </c>
+      <c r="C27" t="s">
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28">
         <v>1001</v>
       </c>
-      <c r="B28" t="s">
-        <v>54</v>
+      <c r="B28">
+        <v>1001</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29">
         <v>1002</v>
       </c>
-      <c r="B29" t="s">
-        <v>57</v>
+      <c r="B29">
+        <v>1002</v>
       </c>
       <c r="C29" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
         <v>1003</v>
       </c>
-      <c r="B30" t="s">
-        <v>59</v>
+      <c r="B30">
+        <v>1003</v>
       </c>
       <c r="C30" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31">
         <v>1004</v>
       </c>
-      <c r="B31" t="s">
-        <v>61</v>
+      <c r="B31">
+        <v>1004</v>
       </c>
       <c r="C31" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
         <v>1005</v>
       </c>
-      <c r="B32" t="s">
-        <v>63</v>
+      <c r="B32">
+        <v>1005</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>46</v>
       </c>
       <c r="D32" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
         <v>1006</v>
       </c>
-      <c r="B33" t="s">
-        <v>65</v>
+      <c r="B33">
+        <v>1006</v>
       </c>
       <c r="C33" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
         <v>10001</v>
       </c>
-      <c r="B34" t="s">
-        <v>67</v>
+      <c r="B34">
+        <v>10001</v>
+      </c>
+      <c r="C34" t="s">
+        <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
         <v>10003</v>
       </c>
-      <c r="B35" t="s">
-        <v>69</v>
+      <c r="B35">
+        <v>10003</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
         <v>10004</v>
       </c>
-      <c r="B36" t="s">
-        <v>70</v>
+      <c r="B36">
+        <v>10004</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
         <v>10005</v>
       </c>
-      <c r="B37" t="s">
-        <v>71</v>
+      <c r="B37">
+        <v>10005</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
         <v>20001</v>
       </c>
-      <c r="B38" t="s">
-        <v>72</v>
+      <c r="B38">
+        <v>20001</v>
       </c>
       <c r="C38" t="s">
-        <v>73</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>74</v>
+        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
         <v>20002</v>
       </c>
-      <c r="B39" t="s">
-        <v>75</v>
+      <c r="B39">
+        <v>20002</v>
+      </c>
+      <c r="C39" t="s">
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" customFormat="1" spans="1:4">
       <c r="A40">
         <v>20003</v>
       </c>
-      <c r="B40" t="s">
-        <v>76</v>
+      <c r="B40">
+        <v>20003</v>
+      </c>
+      <c r="C40" t="s">
+        <v>56</v>
       </c>
       <c r="D40" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="41" customFormat="1" spans="1:4">
       <c r="A41">
         <v>20004</v>
       </c>
-      <c r="B41" t="s">
-        <v>77</v>
+      <c r="B41">
+        <v>20004</v>
       </c>
       <c r="C41" t="s">
-        <v>78</v>
+        <v>57</v>
       </c>
       <c r="D41" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" customFormat="1" spans="1:4">
       <c r="A42">
         <v>20005</v>
       </c>
-      <c r="B42" t="s">
-        <v>79</v>
+      <c r="B42">
+        <v>20005</v>
       </c>
       <c r="C42" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="D42" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
         <v>30001</v>
       </c>
-      <c r="B43" t="s">
-        <v>81</v>
+      <c r="B43">
+        <v>30001</v>
       </c>
       <c r="C43" t="s">
-        <v>82</v>
+        <v>59</v>
       </c>
       <c r="D43" t="s">
-        <v>83</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44">
         <v>30002</v>
       </c>
-      <c r="B44" t="s">
-        <v>84</v>
+      <c r="B44">
+        <v>30002</v>
       </c>
       <c r="C44" t="s">
-        <v>85</v>
+        <v>61</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45">
         <v>30003</v>
       </c>
-      <c r="B45" t="s">
-        <v>86</v>
+      <c r="B45">
+        <v>30003</v>
       </c>
       <c r="C45" t="s">
-        <v>87</v>
+        <v>62</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46">
         <v>30004</v>
       </c>
-      <c r="B46" t="s">
-        <v>88</v>
+      <c r="B46">
+        <v>30004</v>
       </c>
       <c r="C46" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
         <v>40001</v>
       </c>
-      <c r="B47" t="s">
-        <v>90</v>
+      <c r="B47">
+        <v>40001</v>
       </c>
       <c r="C47" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
         <v>40002</v>
       </c>
-      <c r="B48" t="s">
-        <v>92</v>
+      <c r="B48">
+        <v>40002</v>
       </c>
       <c r="C48" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" customFormat="1" spans="1:4">
       <c r="A49">
         <v>40003</v>
       </c>
-      <c r="B49" t="s">
-        <v>94</v>
+      <c r="B49">
+        <v>40003</v>
       </c>
       <c r="C49" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="D49" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="50" customFormat="1" spans="1:4">
       <c r="A50">
         <v>40998</v>
       </c>
-      <c r="B50" t="s">
-        <v>96</v>
+      <c r="B50">
+        <v>40998</v>
+      </c>
+      <c r="C50" t="s">
+        <v>67</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" customFormat="1" spans="1:4">
       <c r="A51">
         <v>40999</v>
       </c>
-      <c r="B51" t="s">
-        <v>97</v>
+      <c r="B51">
+        <v>40999</v>
+      </c>
+      <c r="C51" t="s">
+        <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" customFormat="1" spans="1:4">
       <c r="A52">
         <v>41001</v>
       </c>
-      <c r="B52" t="s">
-        <v>98</v>
+      <c r="B52">
+        <v>41001</v>
       </c>
       <c r="C52" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="53" customFormat="1" spans="1:4">
       <c r="A53">
         <v>42001</v>
       </c>
-      <c r="B53" t="s">
-        <v>100</v>
+      <c r="B53">
+        <v>42001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>70</v>
       </c>
       <c r="D53" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="54" customFormat="1" spans="1:4">
       <c r="A54">
         <v>42002</v>
       </c>
-      <c r="B54" t="s">
-        <v>101</v>
+      <c r="B54">
+        <v>42002</v>
+      </c>
+      <c r="C54" t="s">
+        <v>71</v>
       </c>
       <c r="D54" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="55" customFormat="1" spans="1:4">
       <c r="A55">
         <v>42003</v>
       </c>
-      <c r="B55" t="s">
-        <v>102</v>
+      <c r="B55">
+        <v>42003</v>
+      </c>
+      <c r="C55" t="s">
+        <v>72</v>
       </c>
       <c r="D55" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
         <v>43001</v>
       </c>
-      <c r="B56" t="s">
-        <v>103</v>
+      <c r="B56">
+        <v>43001</v>
       </c>
       <c r="C56" t="s">
-        <v>104</v>
+        <v>73</v>
       </c>
       <c r="D56" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
         <v>43002</v>
       </c>
-      <c r="B57" t="s">
-        <v>105</v>
+      <c r="B57">
+        <v>43002</v>
       </c>
       <c r="C57" t="s">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="D57" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58">
-        <v>50001</v>
-      </c>
-      <c r="B58" t="s">
-        <v>107</v>
+        <v>49001</v>
+      </c>
+      <c r="B58">
+        <v>49001</v>
       </c>
       <c r="C58" t="s">
-        <v>108</v>
+        <v>19</v>
       </c>
       <c r="D58" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>50002</v>
-      </c>
-      <c r="B59" t="s">
-        <v>110</v>
+        <v>49002</v>
+      </c>
+      <c r="B59">
+        <v>49002</v>
       </c>
       <c r="C59" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="D59" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>50003</v>
-      </c>
-      <c r="B60" t="s">
-        <v>112</v>
+        <v>49003</v>
+      </c>
+      <c r="B60">
+        <v>49003</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D60" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>50004</v>
-      </c>
-      <c r="B61" t="s">
-        <v>114</v>
+        <v>50001</v>
+      </c>
+      <c r="B61">
+        <v>50001</v>
       </c>
       <c r="C61" t="s">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="D61" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>60001</v>
-      </c>
-      <c r="B62" t="s">
-        <v>116</v>
+        <v>50002</v>
+      </c>
+      <c r="B62">
+        <v>50002</v>
+      </c>
+      <c r="C62" t="s">
+        <v>79</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>60002</v>
-      </c>
-      <c r="B63" t="s">
-        <v>118</v>
+        <v>50003</v>
+      </c>
+      <c r="B63">
+        <v>50003</v>
+      </c>
+      <c r="C63" t="s">
+        <v>80</v>
       </c>
       <c r="D63" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>61001</v>
-      </c>
-      <c r="B64" t="s">
-        <v>119</v>
+        <v>50004</v>
+      </c>
+      <c r="B64">
+        <v>50004</v>
+      </c>
+      <c r="C64" t="s">
+        <v>81</v>
       </c>
       <c r="D64" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>61002</v>
-      </c>
-      <c r="B65" t="s">
-        <v>120</v>
+        <v>50101</v>
+      </c>
+      <c r="B65">
+        <v>50101</v>
+      </c>
+      <c r="C65" t="s">
+        <v>82</v>
       </c>
       <c r="D65" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>62001</v>
-      </c>
-      <c r="B66" t="s">
-        <v>121</v>
+        <v>51001</v>
+      </c>
+      <c r="B66">
+        <v>51001</v>
+      </c>
+      <c r="C66" t="s">
+        <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>62002</v>
-      </c>
-      <c r="B67" t="s">
-        <v>122</v>
+        <v>51002</v>
+      </c>
+      <c r="B67">
+        <v>51002</v>
+      </c>
+      <c r="C67" t="s">
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>77</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
+        <v>51003</v>
+      </c>
+      <c r="B68">
+        <v>51003</v>
+      </c>
+      <c r="C68" t="s">
+        <v>86</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69">
+        <v>60001</v>
+      </c>
+      <c r="B69">
+        <v>60001</v>
+      </c>
+      <c r="C69" t="s">
+        <v>87</v>
+      </c>
+      <c r="D69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>60002</v>
+      </c>
+      <c r="B70">
+        <v>60002</v>
+      </c>
+      <c r="C70" t="s">
+        <v>89</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71">
+        <v>61001</v>
+      </c>
+      <c r="B71">
+        <v>61001</v>
+      </c>
+      <c r="C71" t="s">
+        <v>90</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72">
+        <v>61002</v>
+      </c>
+      <c r="B72">
+        <v>61002</v>
+      </c>
+      <c r="C72" t="s">
+        <v>91</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73">
+        <v>62001</v>
+      </c>
+      <c r="B73">
+        <v>62001</v>
+      </c>
+      <c r="C73" t="s">
+        <v>92</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>62002</v>
+      </c>
+      <c r="B74">
+        <v>62002</v>
+      </c>
+      <c r="C74" t="s">
+        <v>93</v>
+      </c>
+      <c r="D74" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75">
         <v>80001</v>
       </c>
-      <c r="B68" t="s">
-        <v>123</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="69" customFormat="1" spans="1:4">
-      <c r="A69">
-        <v>80002</v>
-      </c>
-      <c r="B69" t="s">
-        <v>124</v>
-      </c>
-      <c r="D69" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="70" customFormat="1" spans="1:4">
-      <c r="A70">
-        <v>80003</v>
-      </c>
-      <c r="B70" t="s">
-        <v>125</v>
-      </c>
-      <c r="D70" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="71" customFormat="1" spans="1:4">
-      <c r="A71">
-        <v>80004</v>
-      </c>
-      <c r="B71" t="s">
-        <v>126</v>
-      </c>
-      <c r="D71" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="72" customFormat="1" spans="1:4">
-      <c r="A72">
-        <v>80005</v>
-      </c>
-      <c r="B72" t="s">
-        <v>127</v>
-      </c>
-      <c r="D72" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="73" customFormat="1" spans="1:4">
-      <c r="A73">
-        <v>80006</v>
-      </c>
-      <c r="B73" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="74" customFormat="1" spans="1:4">
-      <c r="A74">
-        <v>80007</v>
-      </c>
-      <c r="B74" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="75" customFormat="1" spans="1:4">
-      <c r="A75">
-        <v>80008</v>
-      </c>
-      <c r="B75" t="s">
-        <v>130</v>
+      <c r="B75">
+        <v>80001</v>
+      </c>
+      <c r="C75" t="s">
+        <v>94</v>
       </c>
       <c r="D75" t="s">
-        <v>15</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" customFormat="1" spans="1:4">
       <c r="A76">
+        <v>80002</v>
+      </c>
+      <c r="B76">
+        <v>80002</v>
+      </c>
+      <c r="C76" t="s">
+        <v>95</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="77" customFormat="1" spans="1:4">
+      <c r="A77">
+        <v>80003</v>
+      </c>
+      <c r="B77">
+        <v>80003</v>
+      </c>
+      <c r="C77" t="s">
+        <v>96</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="78" customFormat="1" spans="1:4">
+      <c r="A78">
+        <v>80004</v>
+      </c>
+      <c r="B78">
+        <v>80004</v>
+      </c>
+      <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" customFormat="1" spans="1:4">
+      <c r="A79">
+        <v>80005</v>
+      </c>
+      <c r="B79">
+        <v>80005</v>
+      </c>
+      <c r="C79" t="s">
+        <v>98</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" customFormat="1" spans="1:4">
+      <c r="A80">
+        <v>80006</v>
+      </c>
+      <c r="B80">
+        <v>80006</v>
+      </c>
+      <c r="C80" t="s">
+        <v>99</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" customFormat="1" spans="1:4">
+      <c r="A81">
+        <v>80007</v>
+      </c>
+      <c r="B81">
+        <v>80007</v>
+      </c>
+      <c r="C81" t="s">
+        <v>100</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" customFormat="1" spans="1:4">
+      <c r="A82">
+        <v>80008</v>
+      </c>
+      <c r="B82">
+        <v>80008</v>
+      </c>
+      <c r="C82" t="s">
+        <v>101</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="83" customFormat="1" spans="1:4">
+      <c r="A83">
         <v>80009</v>
       </c>
-      <c r="B76" t="s">
-        <v>131</v>
-      </c>
-      <c r="D76" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77">
+      <c r="B83">
+        <v>80009</v>
+      </c>
+      <c r="C83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84">
         <v>1000001</v>
       </c>
-      <c r="B77" t="s">
-        <v>132</v>
-      </c>
-      <c r="C77" t="s">
-        <v>133</v>
-      </c>
-      <c r="D77" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78">
+      <c r="B84">
+        <v>1000001</v>
+      </c>
+      <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85">
         <v>1000002</v>
       </c>
-      <c r="B78" t="s">
-        <v>135</v>
-      </c>
-      <c r="C78" t="s">
-        <v>136</v>
-      </c>
-      <c r="D78" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
+      <c r="B85">
+        <v>1000002</v>
+      </c>
+      <c r="C85" t="s">
+        <v>105</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86">
         <v>2000001</v>
       </c>
-      <c r="B79" t="s">
-        <v>137</v>
-      </c>
-      <c r="D79" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
+      <c r="B86">
+        <v>2000001</v>
+      </c>
+      <c r="C86" t="s">
+        <v>106</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87">
         <v>3000001</v>
       </c>
-      <c r="B80" t="s">
-        <v>139</v>
-      </c>
-      <c r="D80" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="113" ht="12" customHeight="1"/>
-    <row r="114" ht="12" customHeight="1"/>
-    <row r="115" ht="12" customHeight="1"/>
-    <row r="116" ht="12" customHeight="1"/>
-    <row r="117" ht="12" customHeight="1"/>
-    <row r="118" ht="12" customHeight="1"/>
-    <row r="119" ht="12" customHeight="1"/>
+      <c r="B87">
+        <v>3000001</v>
+      </c>
+      <c r="C87" t="s">
+        <v>108</v>
+      </c>
+      <c r="D87" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="120" ht="12" customHeight="1"/>
     <row r="121" ht="12" customHeight="1"/>
     <row r="122" ht="12" customHeight="1"/>
@@ -2468,9 +2583,16 @@
     <row r="145" ht="12" customHeight="1"/>
     <row r="146" ht="12" customHeight="1"/>
     <row r="147" ht="12" customHeight="1"/>
-    <row r="148" customHeight="1"/>
-    <row r="199" ht="12" customHeight="1"/>
-    <row r="200" ht="12" customHeight="1"/>
+    <row r="148" ht="12" customHeight="1"/>
+    <row r="149" ht="12" customHeight="1"/>
+    <row r="150" ht="12" customHeight="1"/>
+    <row r="151" ht="12" customHeight="1"/>
+    <row r="152" ht="12" customHeight="1"/>
+    <row r="153" ht="12" customHeight="1"/>
+    <row r="154" ht="12" customHeight="1"/>
+    <row r="155" customHeight="1"/>
+    <row r="206" ht="12" customHeight="1"/>
+    <row r="207" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
   <si>
     <t>id</t>
   </si>
@@ -288,6 +288,15 @@
   </si>
   <si>
     <t>跳过</t>
+  </si>
+  <si>
+    <t>选择奖励</t>
+  </si>
+  <si>
+    <t>奖励选择</t>
+  </si>
+  <si>
+    <t>剩余可选择次数{0}/{1}</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -1324,10 +1333,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D207"/>
+  <dimension ref="A1:D210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2291,10 +2300,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>60001</v>
+        <v>52001</v>
       </c>
       <c r="B69">
-        <v>60001</v>
+        <v>52001</v>
       </c>
       <c r="C69" t="s">
         <v>87</v>
@@ -2305,13 +2314,13 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>60002</v>
+        <v>52002</v>
       </c>
       <c r="B70">
-        <v>60002</v>
+        <v>52002</v>
       </c>
       <c r="C70" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -2319,13 +2328,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>61001</v>
+        <v>52003</v>
       </c>
       <c r="B71">
-        <v>61001</v>
+        <v>52003</v>
       </c>
       <c r="C71" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2333,24 +2342,24 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="B72">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="C72" t="s">
+        <v>90</v>
+      </c>
+      <c r="D72" t="s">
         <v>91</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>62001</v>
+        <v>60002</v>
       </c>
       <c r="B73">
-        <v>62001</v>
+        <v>60002</v>
       </c>
       <c r="C73" t="s">
         <v>92</v>
@@ -2361,38 +2370,38 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>62002</v>
+        <v>61001</v>
       </c>
       <c r="B74">
-        <v>62002</v>
+        <v>61001</v>
       </c>
       <c r="C74" t="s">
         <v>93</v>
       </c>
       <c r="D74" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>80001</v>
+        <v>61002</v>
       </c>
       <c r="B75">
-        <v>80001</v>
+        <v>61002</v>
       </c>
       <c r="C75" t="s">
         <v>94</v>
       </c>
       <c r="D75" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="76" customFormat="1" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76">
-        <v>80002</v>
+        <v>62001</v>
       </c>
       <c r="B76">
-        <v>80002</v>
+        <v>62001</v>
       </c>
       <c r="C76" t="s">
         <v>95</v>
@@ -2401,40 +2410,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" customFormat="1" spans="1:4">
+    <row r="77" spans="1:4">
       <c r="A77">
-        <v>80003</v>
+        <v>62002</v>
       </c>
       <c r="B77">
-        <v>80003</v>
+        <v>62002</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" customFormat="1" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="B78">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="C78" t="s">
         <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="79" customFormat="1" spans="1:4">
       <c r="A79">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B79">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="C79" t="s">
         <v>98</v>
@@ -2445,10 +2454,10 @@
     </row>
     <row r="80" customFormat="1" spans="1:4">
       <c r="A80">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B80">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="C80" t="s">
         <v>99</v>
@@ -2459,10 +2468,10 @@
     </row>
     <row r="81" customFormat="1" spans="1:4">
       <c r="A81">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B81">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="C81" t="s">
         <v>100</v>
@@ -2473,10 +2482,10 @@
     </row>
     <row r="82" customFormat="1" spans="1:4">
       <c r="A82">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B82">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -2487,10 +2496,10 @@
     </row>
     <row r="83" customFormat="1" spans="1:4">
       <c r="A83">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B83">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="C83" t="s">
         <v>102</v>
@@ -2499,65 +2508,104 @@
         <v>13</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" customFormat="1" spans="1:4">
       <c r="A84">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B84">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="C84" t="s">
         <v>103</v>
       </c>
       <c r="D84" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" customFormat="1" spans="1:4">
+      <c r="A85">
+        <v>80008</v>
+      </c>
+      <c r="B85">
+        <v>80008</v>
+      </c>
+      <c r="C85" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85">
-        <v>1000002</v>
-      </c>
-      <c r="B85">
-        <v>1000002</v>
-      </c>
-      <c r="C85" t="s">
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="86" customFormat="1" spans="1:4">
+      <c r="A86">
+        <v>80009</v>
+      </c>
+      <c r="B86">
+        <v>80009</v>
+      </c>
+      <c r="C86" t="s">
         <v>105</v>
       </c>
-      <c r="D85" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86">
-        <v>2000001</v>
-      </c>
-      <c r="B86">
-        <v>2000001</v>
-      </c>
-      <c r="C86" t="s">
-        <v>106</v>
-      </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
+        <v>1000001</v>
+      </c>
+      <c r="B87">
+        <v>1000001</v>
+      </c>
+      <c r="C87" t="s">
+        <v>106</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88">
+        <v>1000002</v>
+      </c>
+      <c r="B88">
+        <v>1000002</v>
+      </c>
+      <c r="C88" t="s">
+        <v>108</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89">
+        <v>2000001</v>
+      </c>
+      <c r="B89">
+        <v>2000001</v>
+      </c>
+      <c r="C89" t="s">
+        <v>109</v>
+      </c>
+      <c r="D89" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90">
         <v>3000001</v>
       </c>
-      <c r="B87">
+      <c r="B90">
         <v>3000001</v>
       </c>
-      <c r="C87" t="s">
-        <v>108</v>
-      </c>
-      <c r="D87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="120" ht="12" customHeight="1"/>
-    <row r="121" ht="12" customHeight="1"/>
-    <row r="122" ht="12" customHeight="1"/>
+      <c r="C90" t="s">
+        <v>111</v>
+      </c>
+      <c r="D90" t="s">
+        <v>112</v>
+      </c>
+    </row>
     <row r="123" ht="12" customHeight="1"/>
     <row r="124" ht="12" customHeight="1"/>
     <row r="125" ht="12" customHeight="1"/>
@@ -2590,9 +2638,12 @@
     <row r="152" ht="12" customHeight="1"/>
     <row r="153" ht="12" customHeight="1"/>
     <row r="154" ht="12" customHeight="1"/>
-    <row r="155" customHeight="1"/>
-    <row r="206" ht="12" customHeight="1"/>
-    <row r="207" ht="12" customHeight="1"/>
+    <row r="155" ht="12" customHeight="1"/>
+    <row r="156" ht="12" customHeight="1"/>
+    <row r="157" ht="12" customHeight="1"/>
+    <row r="158" customHeight="1"/>
+    <row r="209" ht="12" customHeight="1"/>
+    <row r="210" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
   <si>
     <t>id</t>
   </si>
@@ -297,6 +297,12 @@
   </si>
   <si>
     <t>剩余可选择次数{0}/{1}</t>
+  </si>
+  <si>
+    <t>没有可选择次数</t>
+  </si>
+  <si>
+    <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -1333,10 +1339,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D210"/>
+  <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C64" sqref="C64"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2312,7 +2318,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" ht="12" customHeight="1" spans="1:4">
       <c r="A70">
         <v>52002</v>
       </c>
@@ -2342,27 +2348,27 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>60001</v>
+        <v>52004</v>
       </c>
       <c r="B72">
-        <v>60001</v>
+        <v>52004</v>
       </c>
       <c r="C72" t="s">
         <v>90</v>
       </c>
       <c r="D72" t="s">
-        <v>91</v>
+        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>60002</v>
+        <v>52005</v>
       </c>
       <c r="B73">
-        <v>60002</v>
+        <v>52005</v>
       </c>
       <c r="C73" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D73" t="s">
         <v>13</v>
@@ -2370,24 +2376,24 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>61001</v>
+        <v>60001</v>
       </c>
       <c r="B74">
-        <v>61001</v>
+        <v>60001</v>
       </c>
       <c r="C74" t="s">
+        <v>92</v>
+      </c>
+      <c r="D74" t="s">
         <v>93</v>
-      </c>
-      <c r="D74" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>61002</v>
+        <v>60002</v>
       </c>
       <c r="B75">
-        <v>61002</v>
+        <v>60002</v>
       </c>
       <c r="C75" t="s">
         <v>94</v>
@@ -2398,10 +2404,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="B76">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="C76" t="s">
         <v>95</v>
@@ -2412,66 +2418,66 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>62002</v>
+        <v>61002</v>
       </c>
       <c r="B77">
-        <v>62002</v>
+        <v>61002</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>80001</v>
+        <v>62001</v>
       </c>
       <c r="B78">
-        <v>80001</v>
+        <v>62001</v>
       </c>
       <c r="C78" t="s">
         <v>97</v>
       </c>
       <c r="D78" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="79" customFormat="1" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79">
-        <v>80002</v>
+        <v>62002</v>
       </c>
       <c r="B79">
-        <v>80002</v>
+        <v>62002</v>
       </c>
       <c r="C79" t="s">
         <v>98</v>
       </c>
       <c r="D79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" customFormat="1" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="B80">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="C80" t="s">
         <v>99</v>
       </c>
       <c r="D80" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="81" customFormat="1" spans="1:4">
       <c r="A81">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="B81">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="C81" t="s">
         <v>100</v>
@@ -2482,10 +2488,10 @@
     </row>
     <row r="82" customFormat="1" spans="1:4">
       <c r="A82">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="B82">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -2496,10 +2502,10 @@
     </row>
     <row r="83" customFormat="1" spans="1:4">
       <c r="A83">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="B83">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="C83" t="s">
         <v>102</v>
@@ -2510,10 +2516,10 @@
     </row>
     <row r="84" customFormat="1" spans="1:4">
       <c r="A84">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="B84">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="C84" t="s">
         <v>103</v>
@@ -2524,10 +2530,10 @@
     </row>
     <row r="85" customFormat="1" spans="1:4">
       <c r="A85">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="B85">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="C85" t="s">
         <v>104</v>
@@ -2538,10 +2544,10 @@
     </row>
     <row r="86" customFormat="1" spans="1:4">
       <c r="A86">
-        <v>80009</v>
+        <v>80007</v>
       </c>
       <c r="B86">
-        <v>80009</v>
+        <v>80007</v>
       </c>
       <c r="C86" t="s">
         <v>105</v>
@@ -2550,29 +2556,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" customFormat="1" spans="1:4">
       <c r="A87">
-        <v>1000001</v>
+        <v>80008</v>
       </c>
       <c r="B87">
-        <v>1000001</v>
+        <v>80008</v>
       </c>
       <c r="C87" t="s">
         <v>106</v>
       </c>
       <c r="D87" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="88" customFormat="1" spans="1:4">
+      <c r="A88">
+        <v>80009</v>
+      </c>
+      <c r="B88">
+        <v>80009</v>
+      </c>
+      <c r="C88" t="s">
         <v>107</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88">
-        <v>1000002</v>
-      </c>
-      <c r="B88">
-        <v>1000002</v>
-      </c>
-      <c r="C88" t="s">
-        <v>108</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -2580,34 +2586,60 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B89">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="C89" t="s">
+        <v>108</v>
+      </c>
+      <c r="D89" t="s">
         <v>109</v>
-      </c>
-      <c r="D89" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
+        <v>1000002</v>
+      </c>
+      <c r="B90">
+        <v>1000002</v>
+      </c>
+      <c r="C90" t="s">
+        <v>110</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91">
+        <v>2000001</v>
+      </c>
+      <c r="B91">
+        <v>2000001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
         <v>3000001</v>
       </c>
-      <c r="B90">
+      <c r="B92">
         <v>3000001</v>
       </c>
-      <c r="C90" t="s">
-        <v>111</v>
-      </c>
-      <c r="D90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="123" ht="12" customHeight="1"/>
-    <row r="124" ht="12" customHeight="1"/>
+      <c r="C92" t="s">
+        <v>113</v>
+      </c>
+      <c r="D92" t="s">
+        <v>114</v>
+      </c>
+    </row>
     <row r="125" ht="12" customHeight="1"/>
     <row r="126" ht="12" customHeight="1"/>
     <row r="127" ht="12" customHeight="1"/>
@@ -2641,9 +2673,11 @@
     <row r="155" ht="12" customHeight="1"/>
     <row r="156" ht="12" customHeight="1"/>
     <row r="157" ht="12" customHeight="1"/>
-    <row r="158" customHeight="1"/>
-    <row r="209" ht="12" customHeight="1"/>
-    <row r="210" ht="12" customHeight="1"/>
+    <row r="158" ht="12" customHeight="1"/>
+    <row r="159" ht="12" customHeight="1"/>
+    <row r="160" customHeight="1"/>
+    <row r="211" ht="12" customHeight="1"/>
+    <row r="212" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
     <t>id</t>
   </si>
   <si>
-    <t>content_id</t>
+    <t>content[language]</t>
   </si>
   <si>
     <t>remark_content</t>
@@ -1341,8 +1341,8 @@
   <sheetPr/>
   <dimension ref="A1:D212"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="26355" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
   <si>
     <t>id</t>
   </si>
@@ -305,6 +305,18 @@
     <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
+    <t>选择一个议案</t>
+  </si>
+  <si>
+    <t>终焉议会</t>
+  </si>
+  <si>
+    <t>是否提交议案《{0}》，并且前往终焉议会？</t>
+  </si>
+  <si>
+    <t>通过率   {0}%</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -372,6 +384,9 @@
   </si>
   <si>
     <t>Toast</t>
+  </si>
+  <si>
+    <t>没有足够的声望</t>
   </si>
 </sst>
 </file>
@@ -1339,10 +1354,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D212"/>
+  <dimension ref="A1:D215"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D94" sqref="D94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2376,10 +2391,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>60001</v>
+        <v>53001</v>
       </c>
       <c r="B74">
-        <v>60001</v>
+        <v>53001</v>
       </c>
       <c r="C74" t="s">
         <v>92</v>
@@ -2390,10 +2405,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>60002</v>
+        <v>53002</v>
       </c>
       <c r="B75">
-        <v>60002</v>
+        <v>53002</v>
       </c>
       <c r="C75" t="s">
         <v>94</v>
@@ -2404,10 +2419,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>61001</v>
+        <v>53003</v>
       </c>
       <c r="B76">
-        <v>61001</v>
+        <v>53003</v>
       </c>
       <c r="C76" t="s">
         <v>95</v>
@@ -2418,27 +2433,27 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="B77">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>13</v>
+        <v>97</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>62001</v>
+        <v>60002</v>
       </c>
       <c r="B78">
-        <v>62001</v>
+        <v>60002</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2446,83 +2461,83 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>62002</v>
+        <v>61001</v>
       </c>
       <c r="B79">
-        <v>62002</v>
+        <v>61001</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D79" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
+        <v>61002</v>
+      </c>
+      <c r="B80">
+        <v>61002</v>
+      </c>
+      <c r="C80" t="s">
+        <v>100</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>62001</v>
+      </c>
+      <c r="B81">
+        <v>62001</v>
+      </c>
+      <c r="C81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82">
+        <v>62002</v>
+      </c>
+      <c r="B82">
+        <v>62002</v>
+      </c>
+      <c r="C82" t="s">
+        <v>102</v>
+      </c>
+      <c r="D82" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83">
         <v>80001</v>
       </c>
-      <c r="B80">
+      <c r="B83">
         <v>80001</v>
       </c>
-      <c r="C80" t="s">
-        <v>99</v>
-      </c>
-      <c r="D80" t="s">
+      <c r="C83" t="s">
+        <v>103</v>
+      </c>
+      <c r="D83" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="81" customFormat="1" spans="1:4">
-      <c r="A81">
-        <v>80002</v>
-      </c>
-      <c r="B81">
-        <v>80002</v>
-      </c>
-      <c r="C81" t="s">
-        <v>100</v>
-      </c>
-      <c r="D81" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="82" customFormat="1" spans="1:4">
-      <c r="A82">
-        <v>80003</v>
-      </c>
-      <c r="B82">
-        <v>80003</v>
-      </c>
-      <c r="C82" t="s">
-        <v>101</v>
-      </c>
-      <c r="D82" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="83" customFormat="1" spans="1:4">
-      <c r="A83">
-        <v>80004</v>
-      </c>
-      <c r="B83">
-        <v>80004</v>
-      </c>
-      <c r="C83" t="s">
-        <v>102</v>
-      </c>
-      <c r="D83" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="84" customFormat="1" spans="1:4">
       <c r="A84">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B84">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -2530,13 +2545,13 @@
     </row>
     <row r="85" customFormat="1" spans="1:4">
       <c r="A85">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B85">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D85" t="s">
         <v>13</v>
@@ -2544,13 +2559,13 @@
     </row>
     <row r="86" customFormat="1" spans="1:4">
       <c r="A86">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B86">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="C86" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -2558,13 +2573,13 @@
     </row>
     <row r="87" customFormat="1" spans="1:4">
       <c r="A87">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B87">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -2572,38 +2587,38 @@
     </row>
     <row r="88" customFormat="1" spans="1:4">
       <c r="A88">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B88">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" customFormat="1" spans="1:4">
       <c r="A89">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B89">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="90" customFormat="1" spans="1:4">
       <c r="A90">
-        <v>1000002</v>
+        <v>80008</v>
       </c>
       <c r="B90">
-        <v>1000002</v>
+        <v>80008</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -2612,37 +2627,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" customFormat="1" spans="1:4">
       <c r="A91">
-        <v>2000001</v>
+        <v>80009</v>
       </c>
       <c r="B91">
-        <v>2000001</v>
+        <v>80009</v>
       </c>
       <c r="C91" t="s">
         <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
+        <v>1000001</v>
+      </c>
+      <c r="B92">
+        <v>1000001</v>
+      </c>
+      <c r="C92" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
+        <v>1000002</v>
+      </c>
+      <c r="B93">
+        <v>1000002</v>
+      </c>
+      <c r="C93" t="s">
+        <v>114</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>2000001</v>
+      </c>
+      <c r="B94">
+        <v>2000001</v>
+      </c>
+      <c r="C94" t="s">
+        <v>115</v>
+      </c>
+      <c r="D94" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
         <v>3000001</v>
       </c>
-      <c r="B92">
+      <c r="B95">
         <v>3000001</v>
       </c>
-      <c r="C92" t="s">
-        <v>113</v>
-      </c>
-      <c r="D92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="125" ht="12" customHeight="1"/>
-    <row r="126" ht="12" customHeight="1"/>
-    <row r="127" ht="12" customHeight="1"/>
+      <c r="C95" t="s">
+        <v>117</v>
+      </c>
+      <c r="D95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>3000002</v>
+      </c>
+      <c r="B96">
+        <v>3000002</v>
+      </c>
+      <c r="C96" t="s">
+        <v>119</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="128" ht="12" customHeight="1"/>
     <row r="129" ht="12" customHeight="1"/>
     <row r="130" ht="12" customHeight="1"/>
@@ -2675,9 +2743,12 @@
     <row r="157" ht="12" customHeight="1"/>
     <row r="158" ht="12" customHeight="1"/>
     <row r="159" ht="12" customHeight="1"/>
-    <row r="160" customHeight="1"/>
-    <row r="211" ht="12" customHeight="1"/>
-    <row r="212" ht="12" customHeight="1"/>
+    <row r="160" ht="12" customHeight="1"/>
+    <row r="161" ht="12" customHeight="1"/>
+    <row r="162" ht="12" customHeight="1"/>
+    <row r="163" customHeight="1"/>
+    <row r="214" ht="12" customHeight="1"/>
+    <row r="215" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
   <si>
     <t>id</t>
   </si>
@@ -315,6 +315,24 @@
   </si>
   <si>
     <t>通过率   {0}%</t>
+  </si>
+  <si>
+    <t>开始表决</t>
+  </si>
+  <si>
+    <t>离开议会</t>
+  </si>
+  <si>
+    <t>赞成</t>
+  </si>
+  <si>
+    <t>反对</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>否决</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -1354,10 +1372,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D215"/>
+  <dimension ref="A1:D221"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="D94" sqref="D94"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C82" sqref="B79:C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2433,27 +2451,27 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>60001</v>
+        <v>53004</v>
       </c>
       <c r="B77">
-        <v>60001</v>
+        <v>53004</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
       </c>
       <c r="D77" t="s">
-        <v>97</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>60002</v>
+        <v>53005</v>
       </c>
       <c r="B78">
-        <v>60002</v>
+        <v>53005</v>
       </c>
       <c r="C78" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2461,13 +2479,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>61001</v>
+        <v>53006</v>
       </c>
       <c r="B79">
-        <v>61001</v>
+        <v>53006</v>
       </c>
       <c r="C79" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -2475,13 +2493,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>61002</v>
+        <v>53007</v>
       </c>
       <c r="B80">
-        <v>61002</v>
+        <v>53007</v>
       </c>
       <c r="C80" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2489,13 +2507,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>62001</v>
+        <v>53008</v>
       </c>
       <c r="B81">
-        <v>62001</v>
+        <v>53008</v>
       </c>
       <c r="C81" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -2503,38 +2521,38 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>62002</v>
+        <v>53009</v>
       </c>
       <c r="B82">
-        <v>62002</v>
+        <v>53009</v>
       </c>
       <c r="C82" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>80001</v>
+        <v>60001</v>
       </c>
       <c r="B83">
-        <v>80001</v>
+        <v>60001</v>
       </c>
       <c r="C83" t="s">
+        <v>102</v>
+      </c>
+      <c r="D83" t="s">
         <v>103</v>
       </c>
-      <c r="D83" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="84" customFormat="1" spans="1:4">
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84">
-        <v>80002</v>
+        <v>60002</v>
       </c>
       <c r="B84">
-        <v>80002</v>
+        <v>60002</v>
       </c>
       <c r="C84" t="s">
         <v>104</v>
@@ -2543,12 +2561,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="85" customFormat="1" spans="1:4">
+    <row r="85" spans="1:4">
       <c r="A85">
-        <v>80003</v>
+        <v>61001</v>
       </c>
       <c r="B85">
-        <v>80003</v>
+        <v>61001</v>
       </c>
       <c r="C85" t="s">
         <v>105</v>
@@ -2557,12 +2575,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="86" customFormat="1" spans="1:4">
+    <row r="86" spans="1:4">
       <c r="A86">
-        <v>80004</v>
+        <v>61002</v>
       </c>
       <c r="B86">
-        <v>80004</v>
+        <v>61002</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
@@ -2571,12 +2589,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="87" customFormat="1" spans="1:4">
+    <row r="87" spans="1:4">
       <c r="A87">
-        <v>80005</v>
+        <v>62001</v>
       </c>
       <c r="B87">
-        <v>80005</v>
+        <v>62001</v>
       </c>
       <c r="C87" t="s">
         <v>107</v>
@@ -2585,40 +2603,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="88" customFormat="1" spans="1:4">
+    <row r="88" spans="1:4">
       <c r="A88">
-        <v>80006</v>
+        <v>62002</v>
       </c>
       <c r="B88">
-        <v>80006</v>
+        <v>62002</v>
       </c>
       <c r="C88" t="s">
         <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" customFormat="1" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89">
-        <v>80007</v>
+        <v>80001</v>
       </c>
       <c r="B89">
-        <v>80007</v>
+        <v>80001</v>
       </c>
       <c r="C89" t="s">
         <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" customFormat="1" spans="1:4">
       <c r="A90">
-        <v>80008</v>
+        <v>80002</v>
       </c>
       <c r="B90">
-        <v>80008</v>
+        <v>80002</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
@@ -2629,10 +2647,10 @@
     </row>
     <row r="91" customFormat="1" spans="1:4">
       <c r="A91">
-        <v>80009</v>
+        <v>80003</v>
       </c>
       <c r="B91">
-        <v>80009</v>
+        <v>80003</v>
       </c>
       <c r="C91" t="s">
         <v>111</v>
@@ -2641,82 +2659,160 @@
         <v>13</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" customFormat="1" spans="1:4">
       <c r="A92">
-        <v>1000001</v>
+        <v>80004</v>
       </c>
       <c r="B92">
-        <v>1000001</v>
+        <v>80004</v>
       </c>
       <c r="C92" t="s">
         <v>112</v>
       </c>
       <c r="D92" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="93" customFormat="1" spans="1:4">
+      <c r="A93">
+        <v>80005</v>
+      </c>
+      <c r="B93">
+        <v>80005</v>
+      </c>
+      <c r="C93" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93">
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" customFormat="1" spans="1:4">
+      <c r="A94">
+        <v>80006</v>
+      </c>
+      <c r="B94">
+        <v>80006</v>
+      </c>
+      <c r="C94" t="s">
+        <v>114</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" customFormat="1" spans="1:4">
+      <c r="A95">
+        <v>80007</v>
+      </c>
+      <c r="B95">
+        <v>80007</v>
+      </c>
+      <c r="C95" t="s">
+        <v>115</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="96" customFormat="1" spans="1:4">
+      <c r="A96">
+        <v>80008</v>
+      </c>
+      <c r="B96">
+        <v>80008</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="97" customFormat="1" spans="1:4">
+      <c r="A97">
+        <v>80009</v>
+      </c>
+      <c r="B97">
+        <v>80009</v>
+      </c>
+      <c r="C97" t="s">
+        <v>117</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>1000001</v>
+      </c>
+      <c r="B98">
+        <v>1000001</v>
+      </c>
+      <c r="C98" t="s">
+        <v>118</v>
+      </c>
+      <c r="D98" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
         <v>1000002</v>
       </c>
-      <c r="B93">
+      <c r="B99">
         <v>1000002</v>
       </c>
-      <c r="C93" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94">
+      <c r="C99" t="s">
+        <v>120</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
         <v>2000001</v>
       </c>
-      <c r="B94">
+      <c r="B100">
         <v>2000001</v>
       </c>
-      <c r="C94" t="s">
-        <v>115</v>
-      </c>
-      <c r="D94" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95">
+      <c r="C100" t="s">
+        <v>121</v>
+      </c>
+      <c r="D100" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
         <v>3000001</v>
       </c>
-      <c r="B95">
+      <c r="B101">
         <v>3000001</v>
       </c>
-      <c r="C95" t="s">
-        <v>117</v>
-      </c>
-      <c r="D95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96">
+      <c r="C101" t="s">
+        <v>123</v>
+      </c>
+      <c r="D101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
         <v>3000002</v>
       </c>
-      <c r="B96">
+      <c r="B102">
         <v>3000002</v>
       </c>
-      <c r="C96" t="s">
-        <v>119</v>
-      </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" ht="12" customHeight="1"/>
-    <row r="129" ht="12" customHeight="1"/>
-    <row r="130" ht="12" customHeight="1"/>
-    <row r="131" ht="12" customHeight="1"/>
-    <row r="132" ht="12" customHeight="1"/>
-    <row r="133" ht="12" customHeight="1"/>
+      <c r="C102" t="s">
+        <v>125</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="134" ht="12" customHeight="1"/>
     <row r="135" ht="12" customHeight="1"/>
     <row r="136" ht="12" customHeight="1"/>
@@ -2746,9 +2842,15 @@
     <row r="160" ht="12" customHeight="1"/>
     <row r="161" ht="12" customHeight="1"/>
     <row r="162" ht="12" customHeight="1"/>
-    <row r="163" customHeight="1"/>
-    <row r="214" ht="12" customHeight="1"/>
-    <row r="215" ht="12" customHeight="1"/>
+    <row r="163" ht="12" customHeight="1"/>
+    <row r="164" ht="12" customHeight="1"/>
+    <row r="165" ht="12" customHeight="1"/>
+    <row r="166" ht="12" customHeight="1"/>
+    <row r="167" ht="12" customHeight="1"/>
+    <row r="168" ht="12" customHeight="1"/>
+    <row r="169" customHeight="1"/>
+    <row r="220" ht="12" customHeight="1"/>
+    <row r="221" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26355" windowHeight="12045"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
   <si>
     <t>id</t>
   </si>
@@ -317,7 +317,7 @@
     <t>通过率   {0}%</t>
   </si>
   <si>
-    <t>开始表决</t>
+    <t>开始投票</t>
   </si>
   <si>
     <t>离开议会</t>
@@ -335,6 +335,9 @@
     <t>否决</t>
   </si>
   <si>
+    <t>暴力说服</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -354,6 +357,12 @@
   </si>
   <si>
     <t>是否开启此项研究？花费x{0}魔晶</t>
+  </si>
+  <si>
+    <t>贿赂</t>
+  </si>
+  <si>
+    <t>对话</t>
   </si>
   <si>
     <t>开始进阶</t>
@@ -1372,10 +1381,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D221"/>
+  <dimension ref="A1:D223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C82" sqref="B79:C82"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2535,38 +2544,38 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>60001</v>
+        <v>53010</v>
       </c>
       <c r="B83">
-        <v>60001</v>
+        <v>53010</v>
       </c>
       <c r="C83" t="s">
         <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B84">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C84" t="s">
+        <v>103</v>
+      </c>
+      <c r="D84" t="s">
         <v>104</v>
-      </c>
-      <c r="D84" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B85">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C85" t="s">
         <v>105</v>
@@ -2577,10 +2586,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B86">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
@@ -2591,10 +2600,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B87">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="C87" t="s">
         <v>107</v>
@@ -2605,69 +2614,69 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B88">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="C88" t="s">
         <v>108</v>
       </c>
       <c r="D88" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>80001</v>
+        <v>62002</v>
       </c>
       <c r="B89">
-        <v>80001</v>
+        <v>62002</v>
       </c>
       <c r="C89" t="s">
         <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="90" customFormat="1" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90">
-        <v>80002</v>
+        <v>70001</v>
       </c>
       <c r="B90">
-        <v>80002</v>
+        <v>70001</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="91" customFormat="1" spans="1:4">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="B91">
-        <v>80003</v>
+        <v>80001</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D91" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="92" customFormat="1" spans="1:4">
       <c r="A92">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="B92">
-        <v>80004</v>
+        <v>80002</v>
       </c>
       <c r="C92" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -2675,13 +2684,13 @@
     </row>
     <row r="93" customFormat="1" spans="1:4">
       <c r="A93">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="B93">
-        <v>80005</v>
+        <v>80003</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -2689,13 +2698,13 @@
     </row>
     <row r="94" customFormat="1" spans="1:4">
       <c r="A94">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="B94">
-        <v>80006</v>
+        <v>80004</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -2703,13 +2712,13 @@
     </row>
     <row r="95" customFormat="1" spans="1:4">
       <c r="A95">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="B95">
-        <v>80007</v>
+        <v>80005</v>
       </c>
       <c r="C95" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -2717,13 +2726,13 @@
     </row>
     <row r="96" customFormat="1" spans="1:4">
       <c r="A96">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="B96">
-        <v>80008</v>
+        <v>80006</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -2731,38 +2740,38 @@
     </row>
     <row r="97" customFormat="1" spans="1:4">
       <c r="A97">
+        <v>80007</v>
+      </c>
+      <c r="B97">
+        <v>80007</v>
+      </c>
+      <c r="C97" t="s">
+        <v>118</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" customFormat="1" spans="1:4">
+      <c r="A98">
+        <v>80008</v>
+      </c>
+      <c r="B98">
+        <v>80008</v>
+      </c>
+      <c r="C98" t="s">
+        <v>119</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" customFormat="1" spans="1:4">
+      <c r="A99">
         <v>80009</v>
       </c>
-      <c r="B97">
+      <c r="B99">
         <v>80009</v>
-      </c>
-      <c r="C97" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98">
-        <v>1000001</v>
-      </c>
-      <c r="B98">
-        <v>1000001</v>
-      </c>
-      <c r="C98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99">
-        <v>1000002</v>
-      </c>
-      <c r="B99">
-        <v>1000002</v>
       </c>
       <c r="C99" t="s">
         <v>120</v>
@@ -2773,10 +2782,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B100">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="C100" t="s">
         <v>121</v>
@@ -2787,34 +2796,60 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="B101">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="C101" t="s">
         <v>123</v>
       </c>
       <c r="D101" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
+        <v>2000001</v>
+      </c>
+      <c r="B102">
+        <v>2000001</v>
+      </c>
+      <c r="C102" t="s">
+        <v>124</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>3000001</v>
+      </c>
+      <c r="B103">
+        <v>3000001</v>
+      </c>
+      <c r="C103" t="s">
+        <v>126</v>
+      </c>
+      <c r="D103" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
         <v>3000002</v>
       </c>
-      <c r="B102">
+      <c r="B104">
         <v>3000002</v>
       </c>
-      <c r="C102" t="s">
-        <v>125</v>
-      </c>
-      <c r="D102" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="134" ht="12" customHeight="1"/>
-    <row r="135" ht="12" customHeight="1"/>
+      <c r="C104" t="s">
+        <v>128</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="136" ht="12" customHeight="1"/>
     <row r="137" ht="12" customHeight="1"/>
     <row r="138" ht="12" customHeight="1"/>
@@ -2848,9 +2883,11 @@
     <row r="166" ht="12" customHeight="1"/>
     <row r="167" ht="12" customHeight="1"/>
     <row r="168" ht="12" customHeight="1"/>
-    <row r="169" customHeight="1"/>
-    <row r="220" ht="12" customHeight="1"/>
-    <row r="221" ht="12" customHeight="1"/>
+    <row r="169" ht="12" customHeight="1"/>
+    <row r="170" ht="12" customHeight="1"/>
+    <row r="171" customHeight="1"/>
+    <row r="222" ht="12" customHeight="1"/>
+    <row r="223" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
   <si>
     <t>id</t>
   </si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>暴力说服</t>
+  </si>
+  <si>
+    <t>自由活动</t>
   </si>
   <si>
     <t>开始献祭</t>
@@ -1381,10 +1384,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D223"/>
+  <dimension ref="A1:D224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2558,38 +2561,38 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B84">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="C84" t="s">
         <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>104</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B85">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C85" t="s">
+        <v>104</v>
+      </c>
+      <c r="D85" t="s">
         <v>105</v>
-      </c>
-      <c r="D85" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B86">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C86" t="s">
         <v>106</v>
@@ -2600,10 +2603,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B87">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C87" t="s">
         <v>107</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B88">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="C88" t="s">
         <v>108</v>
@@ -2628,66 +2631,66 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B89">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="C89" t="s">
         <v>109</v>
       </c>
       <c r="D89" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="B90">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="C90" t="s">
         <v>110</v>
       </c>
       <c r="D90" t="s">
-        <v>111</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
+        <v>70001</v>
+      </c>
+      <c r="B91">
+        <v>70001</v>
+      </c>
+      <c r="C91" t="s">
+        <v>111</v>
+      </c>
+      <c r="D91" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92">
         <v>80001</v>
       </c>
-      <c r="B91">
+      <c r="B92">
         <v>80001</v>
-      </c>
-      <c r="C91" t="s">
-        <v>112</v>
-      </c>
-      <c r="D91" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="92" customFormat="1" spans="1:4">
-      <c r="A92">
-        <v>80002</v>
-      </c>
-      <c r="B92">
-        <v>80002</v>
       </c>
       <c r="C92" t="s">
         <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>13</v>
+        <v>58</v>
       </c>
     </row>
     <row r="93" customFormat="1" spans="1:4">
       <c r="A93">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B93">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="C93" t="s">
         <v>114</v>
@@ -2698,10 +2701,10 @@
     </row>
     <row r="94" customFormat="1" spans="1:4">
       <c r="A94">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B94">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="C94" t="s">
         <v>115</v>
@@ -2712,10 +2715,10 @@
     </row>
     <row r="95" customFormat="1" spans="1:4">
       <c r="A95">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B95">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="C95" t="s">
         <v>116</v>
@@ -2726,10 +2729,10 @@
     </row>
     <row r="96" customFormat="1" spans="1:4">
       <c r="A96">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B96">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="C96" t="s">
         <v>117</v>
@@ -2740,10 +2743,10 @@
     </row>
     <row r="97" customFormat="1" spans="1:4">
       <c r="A97">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B97">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="C97" t="s">
         <v>118</v>
@@ -2754,10 +2757,10 @@
     </row>
     <row r="98" customFormat="1" spans="1:4">
       <c r="A98">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B98">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="C98" t="s">
         <v>119</v>
@@ -2768,10 +2771,10 @@
     </row>
     <row r="99" customFormat="1" spans="1:4">
       <c r="A99">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B99">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="C99" t="s">
         <v>120</v>
@@ -2780,77 +2783,90 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" customFormat="1" spans="1:4">
       <c r="A100">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B100">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="C100" t="s">
         <v>121</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B101">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="C101" t="s">
+        <v>122</v>
+      </c>
+      <c r="D101" t="s">
         <v>123</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B102">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="C102" t="s">
         <v>124</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="B103">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="C103" t="s">
+        <v>125</v>
+      </c>
+      <c r="D103" t="s">
         <v>126</v>
-      </c>
-      <c r="D103" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
+        <v>3000001</v>
+      </c>
+      <c r="B104">
+        <v>3000001</v>
+      </c>
+      <c r="C104" t="s">
+        <v>127</v>
+      </c>
+      <c r="D104" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
         <v>3000002</v>
       </c>
-      <c r="B104">
+      <c r="B105">
         <v>3000002</v>
       </c>
-      <c r="C104" t="s">
-        <v>128</v>
-      </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="136" ht="12" customHeight="1"/>
+      <c r="C105" t="s">
+        <v>129</v>
+      </c>
+      <c r="D105" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="137" ht="12" customHeight="1"/>
     <row r="138" ht="12" customHeight="1"/>
     <row r="139" ht="12" customHeight="1"/>
@@ -2885,9 +2901,10 @@
     <row r="168" ht="12" customHeight="1"/>
     <row r="169" ht="12" customHeight="1"/>
     <row r="170" ht="12" customHeight="1"/>
-    <row r="171" customHeight="1"/>
-    <row r="222" ht="12" customHeight="1"/>
+    <row r="171" ht="12" customHeight="1"/>
+    <row r="172" customHeight="1"/>
     <row r="223" ht="12" customHeight="1"/>
+    <row r="224" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="132">
   <si>
     <t>id</t>
   </si>
@@ -305,12 +305,12 @@
     <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
+    <t>终焉议会</t>
+  </si>
+  <si>
     <t>选择一个议案</t>
   </si>
   <si>
-    <t>终焉议会</t>
-  </si>
-  <si>
     <t>是否提交议案《{0}》，并且前往终焉议会？</t>
   </si>
   <si>
@@ -402,6 +402,12 @@
   </si>
   <si>
     <t>取消</t>
+  </si>
+  <si>
+    <t>等级.{0}</t>
+  </si>
+  <si>
+    <t>弹窗-卡片详情</t>
   </si>
   <si>
     <t>提示</t>
@@ -1384,14 +1390,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D224"/>
+  <dimension ref="A1:D226"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
+    <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="47.625" customWidth="1"/>
     <col min="3" max="3" width="65.5" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
@@ -2421,27 +2428,27 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="B74">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="C74" t="s">
         <v>92</v>
       </c>
       <c r="D74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="B75">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D75" t="s">
         <v>13</v>
@@ -2449,13 +2456,13 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="B76">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="C76" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -2463,13 +2470,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="B77">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="C77" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2477,13 +2484,13 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="B78">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2491,13 +2498,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="B79">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -2505,13 +2512,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="B80">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2519,13 +2526,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="B81">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -2533,13 +2540,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="B82">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="C82" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -2547,13 +2554,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="B83">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="C83" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D83" t="s">
         <v>13</v>
@@ -2561,13 +2568,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="B84">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -2575,41 +2582,41 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B85">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="C85" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D85" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B86">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>13</v>
+        <v>105</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B87">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -2617,13 +2624,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B88">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C88" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -2631,13 +2638,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B89">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="C89" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -2645,69 +2652,69 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B90">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="C90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D90" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="B91">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="C91" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
+        <v>70001</v>
+      </c>
+      <c r="B92">
+        <v>70001</v>
+      </c>
+      <c r="C92" t="s">
+        <v>111</v>
+      </c>
+      <c r="D92" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93">
         <v>80001</v>
       </c>
-      <c r="B92">
+      <c r="B93">
         <v>80001</v>
       </c>
-      <c r="C92" t="s">
+      <c r="C93" t="s">
         <v>113</v>
       </c>
-      <c r="D92" t="s">
+      <c r="D93" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="93" customFormat="1" spans="1:4">
-      <c r="A93">
-        <v>80002</v>
-      </c>
-      <c r="B93">
-        <v>80002</v>
-      </c>
-      <c r="C93" t="s">
-        <v>114</v>
-      </c>
-      <c r="D93" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="94" customFormat="1" spans="1:4">
       <c r="A94">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B94">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="C94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -2715,13 +2722,13 @@
     </row>
     <row r="95" customFormat="1" spans="1:4">
       <c r="A95">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B95">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D95" t="s">
         <v>13</v>
@@ -2729,13 +2736,13 @@
     </row>
     <row r="96" customFormat="1" spans="1:4">
       <c r="A96">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B96">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="C96" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D96" t="s">
         <v>13</v>
@@ -2743,13 +2750,13 @@
     </row>
     <row r="97" customFormat="1" spans="1:4">
       <c r="A97">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B97">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="C97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D97" t="s">
         <v>13</v>
@@ -2757,13 +2764,13 @@
     </row>
     <row r="98" customFormat="1" spans="1:4">
       <c r="A98">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B98">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="C98" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -2771,13 +2778,13 @@
     </row>
     <row r="99" customFormat="1" spans="1:4">
       <c r="A99">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B99">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="C99" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -2785,90 +2792,116 @@
     </row>
     <row r="100" customFormat="1" spans="1:4">
       <c r="A100">
+        <v>80008</v>
+      </c>
+      <c r="B100">
+        <v>80008</v>
+      </c>
+      <c r="C100" t="s">
+        <v>120</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="101" customFormat="1" spans="1:4">
+      <c r="A101">
         <v>80009</v>
       </c>
-      <c r="B100">
+      <c r="B101">
         <v>80009</v>
       </c>
-      <c r="C100" t="s">
+      <c r="C101" t="s">
         <v>121</v>
       </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101">
-        <v>1000001</v>
-      </c>
-      <c r="B101">
-        <v>1000001</v>
-      </c>
-      <c r="C101" t="s">
-        <v>122</v>
-      </c>
       <c r="D101" t="s">
-        <v>123</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B102">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="C102" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>123</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B103">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="C103" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D103" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>3000001</v>
+        <v>1001001</v>
       </c>
       <c r="B104">
-        <v>3000001</v>
+        <v>1001001</v>
       </c>
       <c r="C104" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D104" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
+        <v>2000001</v>
+      </c>
+      <c r="B105">
+        <v>2000001</v>
+      </c>
+      <c r="C105" t="s">
+        <v>127</v>
+      </c>
+      <c r="D105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
+        <v>3000001</v>
+      </c>
+      <c r="B106">
+        <v>3000001</v>
+      </c>
+      <c r="C106" t="s">
+        <v>129</v>
+      </c>
+      <c r="D106" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
         <v>3000002</v>
       </c>
-      <c r="B105">
+      <c r="B107">
         <v>3000002</v>
       </c>
-      <c r="C105" t="s">
-        <v>129</v>
-      </c>
-      <c r="D105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="137" ht="12" customHeight="1"/>
-    <row r="138" ht="12" customHeight="1"/>
+      <c r="C107" t="s">
+        <v>131</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="139" ht="12" customHeight="1"/>
     <row r="140" ht="12" customHeight="1"/>
     <row r="141" ht="12" customHeight="1"/>
@@ -2902,9 +2935,11 @@
     <row r="169" ht="12" customHeight="1"/>
     <row r="170" ht="12" customHeight="1"/>
     <row r="171" ht="12" customHeight="1"/>
-    <row r="172" customHeight="1"/>
-    <row r="223" ht="12" customHeight="1"/>
-    <row r="224" ht="12" customHeight="1"/>
+    <row r="172" ht="12" customHeight="1"/>
+    <row r="173" ht="12" customHeight="1"/>
+    <row r="174" customHeight="1"/>
+    <row r="225" ht="12" customHeight="1"/>
+    <row r="226" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="139">
   <si>
     <t>id</t>
   </si>
@@ -104,6 +104,18 @@
     <t>是否湮灭{0}魔王</t>
   </si>
   <si>
+    <t>数据损坏\n请联系作者</t>
+  </si>
+  <si>
+    <t>打开存档目录</t>
+  </si>
+  <si>
+    <t>使用备份存档</t>
+  </si>
+  <si>
+    <t>注意：使用备份存档会在下一次存档之后覆盖原存档，请谨慎使用！(备份存档不是最新数据)</t>
+  </si>
+  <si>
     <t>确认创建</t>
   </si>
   <si>
@@ -408,6 +420,15 @@
   </si>
   <si>
     <t>弹窗-卡片详情</t>
+  </si>
+  <si>
+    <t>赠送</t>
+  </si>
+  <si>
+    <t>弹窗-道具选择</t>
+  </si>
+  <si>
+    <t>丢弃</t>
   </si>
   <si>
     <t>提示</t>
@@ -1390,17 +1411,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D226"/>
+  <dimension ref="A1:D232"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="2" width="47.625" customWidth="1"/>
-    <col min="3" max="3" width="65.5" customWidth="1"/>
+    <col min="3" max="3" width="83.875" customWidth="1"/>
     <col min="4" max="4" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1602,27 +1623,27 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="B15">
-        <v>301</v>
+        <v>204</v>
       </c>
       <c r="C15" t="s">
         <v>25</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="B16">
-        <v>302</v>
+        <v>205</v>
       </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
         <v>13</v>
@@ -1630,13 +1651,13 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="B17">
-        <v>303</v>
+        <v>206</v>
       </c>
       <c r="C17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D17" t="s">
         <v>13</v>
@@ -1644,13 +1665,13 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="B18">
-        <v>304</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D18" t="s">
         <v>13</v>
@@ -1658,94 +1679,94 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="B19">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C19" t="s">
+        <v>29</v>
+      </c>
+      <c r="D19" t="s">
         <v>30</v>
-      </c>
-      <c r="D19" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="B20">
-        <v>401</v>
+        <v>302</v>
       </c>
       <c r="C20" t="s">
         <v>31</v>
       </c>
       <c r="D20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>303</v>
+      </c>
+      <c r="B21">
+        <v>303</v>
+      </c>
+      <c r="C21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" customFormat="1" ht="12" customHeight="1" spans="1:4">
-      <c r="A21">
-        <v>402</v>
-      </c>
-      <c r="B21">
-        <v>402</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>304</v>
+      </c>
+      <c r="B22">
+        <v>304</v>
+      </c>
+      <c r="C22" t="s">
         <v>33</v>
       </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="22" customFormat="1" ht="12" customHeight="1" spans="1:4">
-      <c r="A22">
-        <v>403</v>
-      </c>
-      <c r="B22">
-        <v>403</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23">
+        <v>305</v>
+      </c>
+      <c r="B23">
+        <v>305</v>
+      </c>
+      <c r="C23" t="s">
         <v>34</v>
       </c>
-      <c r="D22" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" customFormat="1" ht="12" customHeight="1" spans="1:4">
-      <c r="A23">
-        <v>411</v>
-      </c>
-      <c r="B23">
-        <v>411</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24">
+        <v>401</v>
+      </c>
+      <c r="B24">
+        <v>401</v>
+      </c>
+      <c r="C24" t="s">
         <v>35</v>
       </c>
-      <c r="D23" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="24" customFormat="1" ht="12" customHeight="1" spans="1:4">
-      <c r="A24">
-        <v>412</v>
-      </c>
-      <c r="B24">
-        <v>412</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D24" t="s">
         <v>36</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="25" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A25">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="B25">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="C25" t="s">
         <v>37</v>
@@ -1754,57 +1775,57 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" customFormat="1" ht="12" customHeight="1" spans="1:4">
       <c r="A26">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="B26">
-        <v>501</v>
+        <v>403</v>
       </c>
       <c r="C26" t="s">
         <v>38</v>
       </c>
       <c r="D26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" customFormat="1" ht="12" customHeight="1" spans="1:4">
+      <c r="A27">
+        <v>411</v>
+      </c>
+      <c r="B27">
+        <v>411</v>
+      </c>
+      <c r="C27" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="27" customFormat="1" spans="1:4">
-      <c r="A27">
-        <v>502</v>
-      </c>
-      <c r="B27">
-        <v>502</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" customFormat="1" ht="12" customHeight="1" spans="1:4">
+      <c r="A28">
+        <v>412</v>
+      </c>
+      <c r="B28">
+        <v>412</v>
+      </c>
+      <c r="C28" t="s">
         <v>40</v>
       </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28">
-        <v>1001</v>
-      </c>
-      <c r="B28">
-        <v>1001</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" customFormat="1" ht="12" customHeight="1" spans="1:4">
+      <c r="A29">
+        <v>413</v>
+      </c>
+      <c r="B29">
+        <v>413</v>
+      </c>
+      <c r="C29" t="s">
         <v>41</v>
-      </c>
-      <c r="D28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29">
-        <v>1002</v>
-      </c>
-      <c r="B29">
-        <v>1002</v>
-      </c>
-      <c r="C29" t="s">
-        <v>43</v>
       </c>
       <c r="D29" t="s">
         <v>13</v>
@@ -1812,27 +1833,27 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30">
-        <v>1003</v>
+        <v>501</v>
       </c>
       <c r="B30">
-        <v>1003</v>
+        <v>501</v>
       </c>
       <c r="C30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="31" customFormat="1" spans="1:4">
+      <c r="A31">
+        <v>502</v>
+      </c>
+      <c r="B31">
+        <v>502</v>
+      </c>
+      <c r="C31" t="s">
         <v>44</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31">
-        <v>1004</v>
-      </c>
-      <c r="B31">
-        <v>1004</v>
-      </c>
-      <c r="C31" t="s">
-        <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>13</v>
@@ -1840,24 +1861,24 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="B32">
-        <v>1005</v>
+        <v>1001</v>
       </c>
       <c r="C32" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
         <v>46</v>
-      </c>
-      <c r="D32" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="B33">
-        <v>1006</v>
+        <v>1002</v>
       </c>
       <c r="C33" t="s">
         <v>47</v>
@@ -1868,27 +1889,27 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34">
-        <v>10001</v>
+        <v>1003</v>
       </c>
       <c r="B34">
-        <v>10001</v>
+        <v>1003</v>
       </c>
       <c r="C34" t="s">
         <v>48</v>
       </c>
       <c r="D34" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35">
-        <v>10003</v>
+        <v>1004</v>
       </c>
       <c r="B35">
-        <v>10003</v>
+        <v>1004</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>13</v>
@@ -1896,13 +1917,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36">
-        <v>10004</v>
+        <v>1005</v>
       </c>
       <c r="B36">
-        <v>10004</v>
+        <v>1005</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D36" t="s">
         <v>13</v>
@@ -1910,13 +1931,13 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37">
-        <v>10005</v>
+        <v>1006</v>
       </c>
       <c r="B37">
-        <v>10005</v>
+        <v>1006</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
         <v>13</v>
@@ -1924,125 +1945,125 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="B38">
-        <v>20001</v>
+        <v>10001</v>
       </c>
       <c r="C38" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" t="s">
         <v>53</v>
-      </c>
-      <c r="D38" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>20002</v>
+        <v>10003</v>
       </c>
       <c r="B39">
-        <v>20002</v>
+        <v>10003</v>
       </c>
       <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40">
+        <v>10004</v>
+      </c>
+      <c r="B40">
+        <v>10004</v>
+      </c>
+      <c r="C40" t="s">
         <v>55</v>
       </c>
-      <c r="D39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" spans="1:4">
-      <c r="A40">
-        <v>20003</v>
-      </c>
-      <c r="B40">
-        <v>20003</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41">
+        <v>10005</v>
+      </c>
+      <c r="B41">
+        <v>10005</v>
+      </c>
+      <c r="C41" t="s">
         <v>56</v>
       </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" customFormat="1" spans="1:4">
-      <c r="A41">
-        <v>20004</v>
-      </c>
-      <c r="B41">
-        <v>20004</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42">
+        <v>20001</v>
+      </c>
+      <c r="B42">
+        <v>20001</v>
+      </c>
+      <c r="C42" t="s">
         <v>57</v>
       </c>
-      <c r="D41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="42" customFormat="1" spans="1:4">
-      <c r="A42">
-        <v>20005</v>
-      </c>
-      <c r="B42">
-        <v>20005</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D42" t="s">
         <v>58</v>
-      </c>
-      <c r="D42" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="B43">
-        <v>30001</v>
+        <v>20002</v>
       </c>
       <c r="C43" t="s">
         <v>59</v>
       </c>
       <c r="D43" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" customFormat="1" spans="1:4">
+      <c r="A44">
+        <v>20003</v>
+      </c>
+      <c r="B44">
+        <v>20003</v>
+      </c>
+      <c r="C44" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44">
-        <v>30002</v>
-      </c>
-      <c r="B44">
-        <v>30002</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="45" customFormat="1" spans="1:4">
+      <c r="A45">
+        <v>20004</v>
+      </c>
+      <c r="B45">
+        <v>20004</v>
+      </c>
+      <c r="C45" t="s">
         <v>61</v>
       </c>
-      <c r="D44" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45">
-        <v>30003</v>
-      </c>
-      <c r="B45">
-        <v>30003</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46" customFormat="1" spans="1:4">
+      <c r="A46">
+        <v>20005</v>
+      </c>
+      <c r="B46">
+        <v>20005</v>
+      </c>
+      <c r="C46" t="s">
         <v>62</v>
-      </c>
-      <c r="D45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46">
-        <v>30004</v>
-      </c>
-      <c r="B46">
-        <v>30004</v>
-      </c>
-      <c r="C46" t="s">
-        <v>63</v>
       </c>
       <c r="D46" t="s">
         <v>13</v>
@@ -2050,24 +2071,24 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>40001</v>
+        <v>30001</v>
       </c>
       <c r="B47">
-        <v>40001</v>
+        <v>30001</v>
       </c>
       <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47" t="s">
         <v>64</v>
-      </c>
-      <c r="D47" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>40002</v>
+        <v>30002</v>
       </c>
       <c r="B48">
-        <v>40002</v>
+        <v>30002</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -2076,12 +2097,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" customFormat="1" spans="1:4">
+    <row r="49" spans="1:4">
       <c r="A49">
-        <v>40003</v>
+        <v>30003</v>
       </c>
       <c r="B49">
-        <v>40003</v>
+        <v>30003</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -2090,12 +2111,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" customFormat="1" spans="1:4">
+    <row r="50" spans="1:4">
       <c r="A50">
-        <v>40998</v>
+        <v>30004</v>
       </c>
       <c r="B50">
-        <v>40998</v>
+        <v>30004</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -2104,26 +2125,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" customFormat="1" spans="1:4">
+    <row r="51" spans="1:4">
       <c r="A51">
-        <v>40999</v>
+        <v>40001</v>
       </c>
       <c r="B51">
-        <v>40999</v>
+        <v>40001</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" customFormat="1" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52">
-        <v>41001</v>
+        <v>40002</v>
       </c>
       <c r="B52">
-        <v>41001</v>
+        <v>40002</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
@@ -2134,10 +2155,10 @@
     </row>
     <row r="53" customFormat="1" spans="1:4">
       <c r="A53">
-        <v>42001</v>
+        <v>40003</v>
       </c>
       <c r="B53">
-        <v>42001</v>
+        <v>40003</v>
       </c>
       <c r="C53" t="s">
         <v>70</v>
@@ -2148,10 +2169,10 @@
     </row>
     <row r="54" customFormat="1" spans="1:4">
       <c r="A54">
-        <v>42002</v>
+        <v>40998</v>
       </c>
       <c r="B54">
-        <v>42002</v>
+        <v>40998</v>
       </c>
       <c r="C54" t="s">
         <v>71</v>
@@ -2162,10 +2183,10 @@
     </row>
     <row r="55" customFormat="1" spans="1:4">
       <c r="A55">
-        <v>42003</v>
+        <v>40999</v>
       </c>
       <c r="B55">
-        <v>42003</v>
+        <v>40999</v>
       </c>
       <c r="C55" t="s">
         <v>72</v>
@@ -2174,12 +2195,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" customFormat="1" spans="1:4">
       <c r="A56">
-        <v>43001</v>
+        <v>41001</v>
       </c>
       <c r="B56">
-        <v>43001</v>
+        <v>41001</v>
       </c>
       <c r="C56" t="s">
         <v>73</v>
@@ -2188,12 +2209,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" customFormat="1" spans="1:4">
       <c r="A57">
-        <v>43002</v>
+        <v>42001</v>
       </c>
       <c r="B57">
-        <v>43002</v>
+        <v>42001</v>
       </c>
       <c r="C57" t="s">
         <v>74</v>
@@ -2202,26 +2223,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" customFormat="1" spans="1:4">
       <c r="A58">
-        <v>49001</v>
+        <v>42002</v>
       </c>
       <c r="B58">
-        <v>49001</v>
+        <v>42002</v>
       </c>
       <c r="C58" t="s">
-        <v>19</v>
+        <v>75</v>
       </c>
       <c r="D58" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="59" customFormat="1" spans="1:4">
       <c r="A59">
-        <v>49002</v>
+        <v>42003</v>
       </c>
       <c r="B59">
-        <v>49002</v>
+        <v>42003</v>
       </c>
       <c r="C59" t="s">
         <v>76</v>
@@ -2232,13 +2253,13 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60">
-        <v>49003</v>
+        <v>43001</v>
       </c>
       <c r="B60">
-        <v>49003</v>
+        <v>43001</v>
       </c>
       <c r="C60" t="s">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D60" t="s">
         <v>13</v>
@@ -2246,38 +2267,38 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="B61">
-        <v>50001</v>
+        <v>43002</v>
       </c>
       <c r="C61" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D61" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62">
-        <v>50002</v>
+        <v>49001</v>
       </c>
       <c r="B62">
-        <v>50002</v>
+        <v>49001</v>
       </c>
       <c r="C62" t="s">
+        <v>19</v>
+      </c>
+      <c r="D62" t="s">
         <v>79</v>
-      </c>
-      <c r="D62" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63">
-        <v>50003</v>
+        <v>49002</v>
       </c>
       <c r="B63">
-        <v>50003</v>
+        <v>49002</v>
       </c>
       <c r="C63" t="s">
         <v>80</v>
@@ -2288,13 +2309,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64">
-        <v>50004</v>
+        <v>49003</v>
       </c>
       <c r="B64">
-        <v>50004</v>
+        <v>49003</v>
       </c>
       <c r="C64" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -2302,41 +2323,41 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>50101</v>
+        <v>50001</v>
       </c>
       <c r="B65">
-        <v>50101</v>
+        <v>50001</v>
       </c>
       <c r="C65" t="s">
+        <v>81</v>
+      </c>
+      <c r="D65" t="s">
         <v>82</v>
-      </c>
-      <c r="D65" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>51001</v>
+        <v>50002</v>
       </c>
       <c r="B66">
-        <v>51001</v>
+        <v>50002</v>
       </c>
       <c r="C66" t="s">
         <v>83</v>
       </c>
       <c r="D66" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>51002</v>
+        <v>50003</v>
       </c>
       <c r="B67">
-        <v>51002</v>
+        <v>50003</v>
       </c>
       <c r="C67" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D67" t="s">
         <v>13</v>
@@ -2344,13 +2365,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>51003</v>
+        <v>50004</v>
       </c>
       <c r="B68">
-        <v>51003</v>
+        <v>50004</v>
       </c>
       <c r="C68" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -2358,38 +2379,38 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>52001</v>
+        <v>50101</v>
       </c>
       <c r="B69">
-        <v>52001</v>
+        <v>50101</v>
       </c>
       <c r="C69" t="s">
+        <v>86</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70">
+        <v>51001</v>
+      </c>
+      <c r="B70">
+        <v>51001</v>
+      </c>
+      <c r="C70" t="s">
         <v>87</v>
       </c>
-      <c r="D69" t="s">
+      <c r="D70" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="70" ht="12" customHeight="1" spans="1:4">
-      <c r="A70">
-        <v>52002</v>
-      </c>
-      <c r="B70">
-        <v>52002</v>
-      </c>
-      <c r="C70" t="s">
-        <v>86</v>
-      </c>
-      <c r="D70" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>52003</v>
+        <v>51002</v>
       </c>
       <c r="B71">
-        <v>52003</v>
+        <v>51002</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -2400,10 +2421,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>52004</v>
+        <v>51003</v>
       </c>
       <c r="B72">
-        <v>52004</v>
+        <v>51003</v>
       </c>
       <c r="C72" t="s">
         <v>90</v>
@@ -2414,38 +2435,38 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>52005</v>
+        <v>52001</v>
       </c>
       <c r="B73">
-        <v>52005</v>
+        <v>52001</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
       </c>
       <c r="D73" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="74" ht="12" customHeight="1" spans="1:4">
       <c r="A74">
-        <v>53000</v>
+        <v>52002</v>
       </c>
       <c r="B74">
-        <v>53000</v>
+        <v>52002</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D74" t="s">
-        <v>92</v>
+        <v>13</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>53001</v>
+        <v>52003</v>
       </c>
       <c r="B75">
-        <v>53001</v>
+        <v>52003</v>
       </c>
       <c r="C75" t="s">
         <v>93</v>
@@ -2456,10 +2477,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>53002</v>
+        <v>52004</v>
       </c>
       <c r="B76">
-        <v>53002</v>
+        <v>52004</v>
       </c>
       <c r="C76" t="s">
         <v>94</v>
@@ -2470,10 +2491,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>53003</v>
+        <v>52005</v>
       </c>
       <c r="B77">
-        <v>53003</v>
+        <v>52005</v>
       </c>
       <c r="C77" t="s">
         <v>95</v>
@@ -2484,24 +2505,24 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>53004</v>
+        <v>53000</v>
       </c>
       <c r="B78">
-        <v>53004</v>
+        <v>53000</v>
       </c>
       <c r="C78" t="s">
         <v>96</v>
       </c>
       <c r="D78" t="s">
-        <v>13</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>53005</v>
+        <v>53001</v>
       </c>
       <c r="B79">
-        <v>53005</v>
+        <v>53001</v>
       </c>
       <c r="C79" t="s">
         <v>97</v>
@@ -2512,10 +2533,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>53006</v>
+        <v>53002</v>
       </c>
       <c r="B80">
-        <v>53006</v>
+        <v>53002</v>
       </c>
       <c r="C80" t="s">
         <v>98</v>
@@ -2526,10 +2547,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>53007</v>
+        <v>53003</v>
       </c>
       <c r="B81">
-        <v>53007</v>
+        <v>53003</v>
       </c>
       <c r="C81" t="s">
         <v>99</v>
@@ -2540,10 +2561,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>53008</v>
+        <v>53004</v>
       </c>
       <c r="B82">
-        <v>53008</v>
+        <v>53004</v>
       </c>
       <c r="C82" t="s">
         <v>100</v>
@@ -2554,10 +2575,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53009</v>
+        <v>53005</v>
       </c>
       <c r="B83">
-        <v>53009</v>
+        <v>53005</v>
       </c>
       <c r="C83" t="s">
         <v>101</v>
@@ -2568,10 +2589,10 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53010</v>
+        <v>53006</v>
       </c>
       <c r="B84">
-        <v>53010</v>
+        <v>53006</v>
       </c>
       <c r="C84" t="s">
         <v>102</v>
@@ -2582,10 +2603,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53011</v>
+        <v>53007</v>
       </c>
       <c r="B85">
-        <v>53011</v>
+        <v>53007</v>
       </c>
       <c r="C85" t="s">
         <v>103</v>
@@ -2596,27 +2617,27 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>60001</v>
+        <v>53008</v>
       </c>
       <c r="B86">
-        <v>60001</v>
+        <v>53008</v>
       </c>
       <c r="C86" t="s">
         <v>104</v>
       </c>
       <c r="D86" t="s">
-        <v>105</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>60002</v>
+        <v>53009</v>
       </c>
       <c r="B87">
-        <v>60002</v>
+        <v>53009</v>
       </c>
       <c r="C87" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -2624,13 +2645,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>61001</v>
+        <v>53010</v>
       </c>
       <c r="B88">
-        <v>61001</v>
+        <v>53010</v>
       </c>
       <c r="C88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D88" t="s">
         <v>13</v>
@@ -2638,13 +2659,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>61002</v>
+        <v>53011</v>
       </c>
       <c r="B89">
-        <v>61002</v>
+        <v>53011</v>
       </c>
       <c r="C89" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D89" t="s">
         <v>13</v>
@@ -2652,122 +2673,122 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>62001</v>
+        <v>60001</v>
       </c>
       <c r="B90">
-        <v>62001</v>
+        <v>60001</v>
       </c>
       <c r="C90" t="s">
+        <v>108</v>
+      </c>
+      <c r="D90" t="s">
         <v>109</v>
-      </c>
-      <c r="D90" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>62002</v>
+        <v>60002</v>
       </c>
       <c r="B91">
-        <v>62002</v>
+        <v>60002</v>
       </c>
       <c r="C91" t="s">
         <v>110</v>
       </c>
       <c r="D91" t="s">
-        <v>57</v>
+        <v>13</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>70001</v>
+        <v>61001</v>
       </c>
       <c r="B92">
-        <v>70001</v>
+        <v>61001</v>
       </c>
       <c r="C92" t="s">
         <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
+        <v>61002</v>
+      </c>
+      <c r="B93">
+        <v>61002</v>
+      </c>
+      <c r="C93" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94">
+        <v>62001</v>
+      </c>
+      <c r="B94">
+        <v>62001</v>
+      </c>
+      <c r="C94" t="s">
+        <v>113</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95">
+        <v>62002</v>
+      </c>
+      <c r="B95">
+        <v>62002</v>
+      </c>
+      <c r="C95" t="s">
+        <v>114</v>
+      </c>
+      <c r="D95" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96">
+        <v>70001</v>
+      </c>
+      <c r="B96">
+        <v>70001</v>
+      </c>
+      <c r="C96" t="s">
+        <v>115</v>
+      </c>
+      <c r="D96" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97">
         <v>80001</v>
       </c>
-      <c r="B93">
+      <c r="B97">
         <v>80001</v>
-      </c>
-      <c r="C93" t="s">
-        <v>113</v>
-      </c>
-      <c r="D93" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="94" customFormat="1" spans="1:4">
-      <c r="A94">
-        <v>80002</v>
-      </c>
-      <c r="B94">
-        <v>80002</v>
-      </c>
-      <c r="C94" t="s">
-        <v>114</v>
-      </c>
-      <c r="D94" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="95" customFormat="1" spans="1:4">
-      <c r="A95">
-        <v>80003</v>
-      </c>
-      <c r="B95">
-        <v>80003</v>
-      </c>
-      <c r="C95" t="s">
-        <v>115</v>
-      </c>
-      <c r="D95" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="96" customFormat="1" spans="1:4">
-      <c r="A96">
-        <v>80004</v>
-      </c>
-      <c r="B96">
-        <v>80004</v>
-      </c>
-      <c r="C96" t="s">
-        <v>116</v>
-      </c>
-      <c r="D96" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="97" customFormat="1" spans="1:4">
-      <c r="A97">
-        <v>80005</v>
-      </c>
-      <c r="B97">
-        <v>80005</v>
       </c>
       <c r="C97" t="s">
         <v>117</v>
       </c>
       <c r="D97" t="s">
-        <v>13</v>
+        <v>62</v>
       </c>
     </row>
     <row r="98" customFormat="1" spans="1:4">
       <c r="A98">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="B98">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="C98" t="s">
         <v>118</v>
@@ -2778,10 +2799,10 @@
     </row>
     <row r="99" customFormat="1" spans="1:4">
       <c r="A99">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="B99">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="C99" t="s">
         <v>119</v>
@@ -2792,10 +2813,10 @@
     </row>
     <row r="100" customFormat="1" spans="1:4">
       <c r="A100">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="B100">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="C100" t="s">
         <v>120</v>
@@ -2806,10 +2827,10 @@
     </row>
     <row r="101" customFormat="1" spans="1:4">
       <c r="A101">
-        <v>80009</v>
+        <v>80005</v>
       </c>
       <c r="B101">
-        <v>80009</v>
+        <v>80005</v>
       </c>
       <c r="C101" t="s">
         <v>121</v>
@@ -2818,96 +2839,174 @@
         <v>13</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" customFormat="1" spans="1:4">
       <c r="A102">
-        <v>1000001</v>
+        <v>80006</v>
       </c>
       <c r="B102">
-        <v>1000001</v>
+        <v>80006</v>
       </c>
       <c r="C102" t="s">
         <v>122</v>
       </c>
       <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" customFormat="1" spans="1:4">
+      <c r="A103">
+        <v>80007</v>
+      </c>
+      <c r="B103">
+        <v>80007</v>
+      </c>
+      <c r="C103" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103">
-        <v>1000002</v>
-      </c>
-      <c r="B103">
-        <v>1000002</v>
-      </c>
-      <c r="C103" t="s">
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" customFormat="1" spans="1:4">
+      <c r="A104">
+        <v>80008</v>
+      </c>
+      <c r="B104">
+        <v>80008</v>
+      </c>
+      <c r="C104" t="s">
         <v>124</v>
       </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104">
-        <v>1001001</v>
-      </c>
-      <c r="B104">
-        <v>1001001</v>
-      </c>
-      <c r="C104" t="s">
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" customFormat="1" spans="1:4">
+      <c r="A105">
+        <v>80009</v>
+      </c>
+      <c r="B105">
+        <v>80009</v>
+      </c>
+      <c r="C105" t="s">
         <v>125</v>
       </c>
-      <c r="D104" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105">
-        <v>2000001</v>
-      </c>
-      <c r="B105">
-        <v>2000001</v>
-      </c>
-      <c r="C105" t="s">
-        <v>127</v>
-      </c>
       <c r="D105" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>3000001</v>
+        <v>1000001</v>
       </c>
       <c r="B106">
-        <v>3000001</v>
+        <v>1000001</v>
       </c>
       <c r="C106" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D106" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
+        <v>1000002</v>
+      </c>
+      <c r="B107">
+        <v>1000002</v>
+      </c>
+      <c r="C107" t="s">
+        <v>128</v>
+      </c>
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108">
+        <v>1001001</v>
+      </c>
+      <c r="B108">
+        <v>1001001</v>
+      </c>
+      <c r="C108" t="s">
+        <v>129</v>
+      </c>
+      <c r="D108" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>1002001</v>
+      </c>
+      <c r="B109">
+        <v>1002001</v>
+      </c>
+      <c r="C109" t="s">
+        <v>131</v>
+      </c>
+      <c r="D109" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110">
+        <v>1002002</v>
+      </c>
+      <c r="B110">
+        <v>1002002</v>
+      </c>
+      <c r="C110" t="s">
+        <v>133</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>2000001</v>
+      </c>
+      <c r="B111">
+        <v>2000001</v>
+      </c>
+      <c r="C111" t="s">
+        <v>134</v>
+      </c>
+      <c r="D111" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>3000001</v>
+      </c>
+      <c r="B112">
+        <v>3000001</v>
+      </c>
+      <c r="C112" t="s">
+        <v>136</v>
+      </c>
+      <c r="D112" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
         <v>3000002</v>
       </c>
-      <c r="B107">
+      <c r="B113">
         <v>3000002</v>
       </c>
-      <c r="C107" t="s">
-        <v>131</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="139" ht="12" customHeight="1"/>
-    <row r="140" ht="12" customHeight="1"/>
-    <row r="141" ht="12" customHeight="1"/>
-    <row r="142" ht="12" customHeight="1"/>
-    <row r="143" ht="12" customHeight="1"/>
-    <row r="144" ht="12" customHeight="1"/>
+      <c r="C113" t="s">
+        <v>138</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="145" ht="12" customHeight="1"/>
     <row r="146" ht="12" customHeight="1"/>
     <row r="147" ht="12" customHeight="1"/>
@@ -2937,9 +3036,15 @@
     <row r="171" ht="12" customHeight="1"/>
     <row r="172" ht="12" customHeight="1"/>
     <row r="173" ht="12" customHeight="1"/>
-    <row r="174" customHeight="1"/>
-    <row r="225" ht="12" customHeight="1"/>
-    <row r="226" ht="12" customHeight="1"/>
+    <row r="174" ht="12" customHeight="1"/>
+    <row r="175" ht="12" customHeight="1"/>
+    <row r="176" ht="12" customHeight="1"/>
+    <row r="177" ht="12" customHeight="1"/>
+    <row r="178" ht="12" customHeight="1"/>
+    <row r="179" ht="12" customHeight="1"/>
+    <row r="180" customHeight="1"/>
+    <row r="231" ht="12" customHeight="1"/>
+    <row r="232" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
   <si>
     <t>id</t>
   </si>
@@ -167,7 +167,7 @@
     <t>头</t>
   </si>
   <si>
-    <t>枚举</t>
+    <t>枚举皮肤</t>
   </si>
   <si>
     <t>帽子</t>
@@ -185,6 +185,24 @@
     <t>嘴巴</t>
   </si>
   <si>
+    <t>监视之塔</t>
+  </si>
+  <si>
+    <t>枚举交互类型</t>
+  </si>
+  <si>
+    <t>传送门</t>
+  </si>
+  <si>
+    <t>终焉议会</t>
+  </si>
+  <si>
+    <t>发言席</t>
+  </si>
+  <si>
+    <t>议员</t>
+  </si>
+  <si>
     <t>购买</t>
   </si>
   <si>
@@ -317,9 +335,6 @@
     <t>还有可选择次数，是否仍要结束选择奖励？</t>
   </si>
   <si>
-    <t>终焉议会</t>
-  </si>
-  <si>
     <t>选择一个议案</t>
   </si>
   <si>
@@ -435,6 +450,12 @@
   </si>
   <si>
     <t>popup</t>
+  </si>
+  <si>
+    <t>魔晶</t>
+  </si>
+  <si>
+    <t>声望</t>
   </si>
   <si>
     <t>没有足够的魔晶</t>
@@ -1411,10 +1432,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D232"/>
+  <dimension ref="A1:D239"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1945,10 +1966,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="B38">
-        <v>10001</v>
+        <v>2001</v>
       </c>
       <c r="C38" t="s">
         <v>52</v>
@@ -1959,10 +1980,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39">
-        <v>10003</v>
+        <v>2002</v>
       </c>
       <c r="B39">
-        <v>10003</v>
+        <v>2002</v>
       </c>
       <c r="C39" t="s">
         <v>54</v>
@@ -1973,10 +1994,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40">
-        <v>10004</v>
+        <v>2003</v>
       </c>
       <c r="B40">
-        <v>10004</v>
+        <v>2003</v>
       </c>
       <c r="C40" t="s">
         <v>55</v>
@@ -1987,10 +2008,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41">
-        <v>10005</v>
+        <v>2004</v>
       </c>
       <c r="B41">
-        <v>10005</v>
+        <v>2004</v>
       </c>
       <c r="C41" t="s">
         <v>56</v>
@@ -2001,38 +2022,38 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42">
-        <v>20001</v>
+        <v>2005</v>
       </c>
       <c r="B42">
-        <v>20001</v>
+        <v>2005</v>
       </c>
       <c r="C42" t="s">
         <v>57</v>
       </c>
       <c r="D42" t="s">
-        <v>58</v>
+        <v>13</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43">
-        <v>20002</v>
+        <v>10001</v>
       </c>
       <c r="B43">
-        <v>20002</v>
+        <v>10001</v>
       </c>
       <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
         <v>59</v>
       </c>
-      <c r="D43" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" customFormat="1" spans="1:4">
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44">
-        <v>20003</v>
+        <v>10003</v>
       </c>
       <c r="B44">
-        <v>20003</v>
+        <v>10003</v>
       </c>
       <c r="C44" t="s">
         <v>60</v>
@@ -2041,12 +2062,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="45" customFormat="1" spans="1:4">
+    <row r="45" spans="1:4">
       <c r="A45">
-        <v>20004</v>
+        <v>10004</v>
       </c>
       <c r="B45">
-        <v>20004</v>
+        <v>10004</v>
       </c>
       <c r="C45" t="s">
         <v>61</v>
@@ -2055,12 +2076,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" customFormat="1" spans="1:4">
+    <row r="46" spans="1:4">
       <c r="A46">
-        <v>20005</v>
+        <v>10005</v>
       </c>
       <c r="B46">
-        <v>20005</v>
+        <v>10005</v>
       </c>
       <c r="C46" t="s">
         <v>62</v>
@@ -2071,10 +2092,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="B47">
-        <v>30001</v>
+        <v>20001</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
@@ -2085,10 +2106,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
-        <v>30002</v>
+        <v>20002</v>
       </c>
       <c r="B48">
-        <v>30002</v>
+        <v>20002</v>
       </c>
       <c r="C48" t="s">
         <v>65</v>
@@ -2097,12 +2118,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" customFormat="1" spans="1:4">
       <c r="A49">
-        <v>30003</v>
+        <v>20003</v>
       </c>
       <c r="B49">
-        <v>30003</v>
+        <v>20003</v>
       </c>
       <c r="C49" t="s">
         <v>66</v>
@@ -2111,12 +2132,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" customFormat="1" spans="1:4">
       <c r="A50">
-        <v>30004</v>
+        <v>20004</v>
       </c>
       <c r="B50">
-        <v>30004</v>
+        <v>20004</v>
       </c>
       <c r="C50" t="s">
         <v>67</v>
@@ -2125,99 +2146,99 @@
         <v>13</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" customFormat="1" spans="1:4">
       <c r="A51">
-        <v>40001</v>
+        <v>20005</v>
       </c>
       <c r="B51">
-        <v>40001</v>
+        <v>20005</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
       </c>
       <c r="D51" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52">
-        <v>40002</v>
+        <v>30001</v>
       </c>
       <c r="B52">
-        <v>40002</v>
+        <v>30001</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
       </c>
       <c r="D52" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" customFormat="1" spans="1:4">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53">
-        <v>40003</v>
+        <v>30002</v>
       </c>
       <c r="B53">
-        <v>40003</v>
+        <v>30002</v>
       </c>
       <c r="C53" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D53" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" customFormat="1" spans="1:4">
+    <row r="54" spans="1:4">
       <c r="A54">
-        <v>40998</v>
+        <v>30003</v>
       </c>
       <c r="B54">
-        <v>40998</v>
+        <v>30003</v>
       </c>
       <c r="C54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="55" customFormat="1" spans="1:4">
+    <row r="55" spans="1:4">
       <c r="A55">
-        <v>40999</v>
+        <v>30004</v>
       </c>
       <c r="B55">
-        <v>40999</v>
+        <v>30004</v>
       </c>
       <c r="C55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" customFormat="1" spans="1:4">
+    <row r="56" spans="1:4">
       <c r="A56">
-        <v>41001</v>
+        <v>40001</v>
       </c>
       <c r="B56">
-        <v>41001</v>
+        <v>40001</v>
       </c>
       <c r="C56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="57" customFormat="1" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57">
-        <v>42001</v>
+        <v>40002</v>
       </c>
       <c r="B57">
-        <v>42001</v>
+        <v>40002</v>
       </c>
       <c r="C57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D57" t="s">
         <v>13</v>
@@ -2225,13 +2246,13 @@
     </row>
     <row r="58" customFormat="1" spans="1:4">
       <c r="A58">
-        <v>42002</v>
+        <v>40003</v>
       </c>
       <c r="B58">
-        <v>42002</v>
+        <v>40003</v>
       </c>
       <c r="C58" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D58" t="s">
         <v>13</v>
@@ -2239,83 +2260,83 @@
     </row>
     <row r="59" customFormat="1" spans="1:4">
       <c r="A59">
+        <v>40998</v>
+      </c>
+      <c r="B59">
+        <v>40998</v>
+      </c>
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" customFormat="1" spans="1:4">
+      <c r="A60">
+        <v>40999</v>
+      </c>
+      <c r="B60">
+        <v>40999</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="61" customFormat="1" spans="1:4">
+      <c r="A61">
+        <v>41001</v>
+      </c>
+      <c r="B61">
+        <v>41001</v>
+      </c>
+      <c r="C61" t="s">
+        <v>79</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" spans="1:4">
+      <c r="A62">
+        <v>42001</v>
+      </c>
+      <c r="B62">
+        <v>42001</v>
+      </c>
+      <c r="C62" t="s">
+        <v>80</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" spans="1:4">
+      <c r="A63">
+        <v>42002</v>
+      </c>
+      <c r="B63">
+        <v>42002</v>
+      </c>
+      <c r="C63" t="s">
+        <v>81</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="64" customFormat="1" spans="1:4">
+      <c r="A64">
         <v>42003</v>
       </c>
-      <c r="B59">
+      <c r="B64">
         <v>42003</v>
       </c>
-      <c r="C59" t="s">
-        <v>76</v>
-      </c>
-      <c r="D59" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60">
-        <v>43001</v>
-      </c>
-      <c r="B60">
-        <v>43001</v>
-      </c>
-      <c r="C60" t="s">
-        <v>77</v>
-      </c>
-      <c r="D60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61">
-        <v>43002</v>
-      </c>
-      <c r="B61">
-        <v>43002</v>
-      </c>
-      <c r="C61" t="s">
-        <v>78</v>
-      </c>
-      <c r="D61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62">
-        <v>49001</v>
-      </c>
-      <c r="B62">
-        <v>49001</v>
-      </c>
-      <c r="C62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63">
-        <v>49002</v>
-      </c>
-      <c r="B63">
-        <v>49002</v>
-      </c>
-      <c r="C63" t="s">
-        <v>80</v>
-      </c>
-      <c r="D63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64">
-        <v>49003</v>
-      </c>
-      <c r="B64">
-        <v>49003</v>
-      </c>
       <c r="C64" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="D64" t="s">
         <v>13</v>
@@ -2323,27 +2344,27 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65">
-        <v>50001</v>
+        <v>43001</v>
       </c>
       <c r="B65">
-        <v>50001</v>
+        <v>43001</v>
       </c>
       <c r="C65" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D65" t="s">
-        <v>82</v>
+        <v>13</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>50002</v>
+        <v>43002</v>
       </c>
       <c r="B66">
-        <v>50002</v>
+        <v>43002</v>
       </c>
       <c r="C66" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D66" t="s">
         <v>13</v>
@@ -2351,27 +2372,27 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>50003</v>
+        <v>49001</v>
       </c>
       <c r="B67">
-        <v>50003</v>
+        <v>49001</v>
       </c>
       <c r="C67" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="D67" t="s">
-        <v>13</v>
+        <v>85</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>50004</v>
+        <v>49002</v>
       </c>
       <c r="B68">
-        <v>50004</v>
+        <v>49002</v>
       </c>
       <c r="C68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
         <v>13</v>
@@ -2379,13 +2400,13 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>50101</v>
+        <v>49003</v>
       </c>
       <c r="B69">
-        <v>50101</v>
+        <v>49003</v>
       </c>
       <c r="C69" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -2393,10 +2414,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>51001</v>
+        <v>50001</v>
       </c>
       <c r="B70">
-        <v>51001</v>
+        <v>50001</v>
       </c>
       <c r="C70" t="s">
         <v>87</v>
@@ -2407,10 +2428,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>51002</v>
+        <v>50002</v>
       </c>
       <c r="B71">
-        <v>51002</v>
+        <v>50002</v>
       </c>
       <c r="C71" t="s">
         <v>89</v>
@@ -2421,10 +2442,10 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>51003</v>
+        <v>50003</v>
       </c>
       <c r="B72">
-        <v>51003</v>
+        <v>50003</v>
       </c>
       <c r="C72" t="s">
         <v>90</v>
@@ -2435,27 +2456,27 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>52001</v>
+        <v>50004</v>
       </c>
       <c r="B73">
-        <v>52001</v>
+        <v>50004</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
       </c>
       <c r="D73" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74">
+        <v>50101</v>
+      </c>
+      <c r="B74">
+        <v>50101</v>
+      </c>
+      <c r="C74" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="74" ht="12" customHeight="1" spans="1:4">
-      <c r="A74">
-        <v>52002</v>
-      </c>
-      <c r="B74">
-        <v>52002</v>
-      </c>
-      <c r="C74" t="s">
-        <v>90</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -2463,27 +2484,27 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>52003</v>
+        <v>51001</v>
       </c>
       <c r="B75">
-        <v>52003</v>
+        <v>51001</v>
       </c>
       <c r="C75" t="s">
         <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>52004</v>
+        <v>51002</v>
       </c>
       <c r="B76">
-        <v>52004</v>
+        <v>51002</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D76" t="s">
         <v>13</v>
@@ -2491,13 +2512,13 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>52005</v>
+        <v>51003</v>
       </c>
       <c r="B77">
-        <v>52005</v>
+        <v>51003</v>
       </c>
       <c r="C77" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>13</v>
@@ -2505,27 +2526,27 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>53000</v>
+        <v>52001</v>
       </c>
       <c r="B78">
-        <v>53000</v>
+        <v>52001</v>
       </c>
       <c r="C78" t="s">
+        <v>97</v>
+      </c>
+      <c r="D78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" ht="12" customHeight="1" spans="1:4">
+      <c r="A79">
+        <v>52002</v>
+      </c>
+      <c r="B79">
+        <v>52002</v>
+      </c>
+      <c r="C79" t="s">
         <v>96</v>
-      </c>
-      <c r="D78" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79">
-        <v>53001</v>
-      </c>
-      <c r="B79">
-        <v>53001</v>
-      </c>
-      <c r="C79" t="s">
-        <v>97</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -2533,13 +2554,13 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>53002</v>
+        <v>52003</v>
       </c>
       <c r="B80">
-        <v>53002</v>
+        <v>52003</v>
       </c>
       <c r="C80" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2547,13 +2568,13 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>53003</v>
+        <v>52004</v>
       </c>
       <c r="B81">
-        <v>53003</v>
+        <v>52004</v>
       </c>
       <c r="C81" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -2561,13 +2582,13 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>53004</v>
+        <v>52005</v>
       </c>
       <c r="B82">
-        <v>53004</v>
+        <v>52005</v>
       </c>
       <c r="C82" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D82" t="s">
         <v>13</v>
@@ -2575,24 +2596,24 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53005</v>
+        <v>53000</v>
       </c>
       <c r="B83">
-        <v>53005</v>
+        <v>53000</v>
       </c>
       <c r="C83" t="s">
-        <v>101</v>
+        <v>55</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53006</v>
+        <v>53001</v>
       </c>
       <c r="B84">
-        <v>53006</v>
+        <v>53001</v>
       </c>
       <c r="C84" t="s">
         <v>102</v>
@@ -2603,10 +2624,10 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53007</v>
+        <v>53002</v>
       </c>
       <c r="B85">
-        <v>53007</v>
+        <v>53002</v>
       </c>
       <c r="C85" t="s">
         <v>103</v>
@@ -2617,10 +2638,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53008</v>
+        <v>53003</v>
       </c>
       <c r="B86">
-        <v>53008</v>
+        <v>53003</v>
       </c>
       <c r="C86" t="s">
         <v>104</v>
@@ -2631,10 +2652,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53009</v>
+        <v>53004</v>
       </c>
       <c r="B87">
-        <v>53009</v>
+        <v>53004</v>
       </c>
       <c r="C87" t="s">
         <v>105</v>
@@ -2645,10 +2666,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53010</v>
+        <v>53005</v>
       </c>
       <c r="B88">
-        <v>53010</v>
+        <v>53005</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
@@ -2659,10 +2680,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53011</v>
+        <v>53006</v>
       </c>
       <c r="B89">
-        <v>53011</v>
+        <v>53006</v>
       </c>
       <c r="C89" t="s">
         <v>107</v>
@@ -2673,27 +2694,27 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>60001</v>
+        <v>53007</v>
       </c>
       <c r="B90">
-        <v>60001</v>
+        <v>53007</v>
       </c>
       <c r="C90" t="s">
         <v>108</v>
       </c>
       <c r="D90" t="s">
-        <v>109</v>
+        <v>13</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>60002</v>
+        <v>53008</v>
       </c>
       <c r="B91">
-        <v>60002</v>
+        <v>53008</v>
       </c>
       <c r="C91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D91" t="s">
         <v>13</v>
@@ -2701,13 +2722,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>61001</v>
+        <v>53009</v>
       </c>
       <c r="B92">
-        <v>61001</v>
+        <v>53009</v>
       </c>
       <c r="C92" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D92" t="s">
         <v>13</v>
@@ -2715,13 +2736,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>61002</v>
+        <v>53010</v>
       </c>
       <c r="B93">
-        <v>61002</v>
+        <v>53010</v>
       </c>
       <c r="C93" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
         <v>13</v>
@@ -2729,13 +2750,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>62001</v>
+        <v>53011</v>
       </c>
       <c r="B94">
-        <v>62001</v>
+        <v>53011</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D94" t="s">
         <v>13</v>
@@ -2743,122 +2764,122 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>62002</v>
+        <v>60001</v>
       </c>
       <c r="B95">
-        <v>62002</v>
+        <v>60001</v>
       </c>
       <c r="C95" t="s">
+        <v>113</v>
+      </c>
+      <c r="D95" t="s">
         <v>114</v>
-      </c>
-      <c r="D95" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>70001</v>
+        <v>60002</v>
       </c>
       <c r="B96">
-        <v>70001</v>
+        <v>60002</v>
       </c>
       <c r="C96" t="s">
         <v>115</v>
       </c>
       <c r="D96" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
+        <v>61001</v>
+      </c>
+      <c r="B97">
+        <v>61001</v>
+      </c>
+      <c r="C97" t="s">
+        <v>116</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98">
+        <v>61002</v>
+      </c>
+      <c r="B98">
+        <v>61002</v>
+      </c>
+      <c r="C98" t="s">
+        <v>117</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99">
+        <v>62001</v>
+      </c>
+      <c r="B99">
+        <v>62001</v>
+      </c>
+      <c r="C99" t="s">
+        <v>118</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100">
+        <v>62002</v>
+      </c>
+      <c r="B100">
+        <v>62002</v>
+      </c>
+      <c r="C100" t="s">
+        <v>119</v>
+      </c>
+      <c r="D100" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101">
+        <v>70001</v>
+      </c>
+      <c r="B101">
+        <v>70001</v>
+      </c>
+      <c r="C101" t="s">
+        <v>120</v>
+      </c>
+      <c r="D101" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102">
         <v>80001</v>
       </c>
-      <c r="B97">
+      <c r="B102">
         <v>80001</v>
-      </c>
-      <c r="C97" t="s">
-        <v>117</v>
-      </c>
-      <c r="D97" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="98" customFormat="1" spans="1:4">
-      <c r="A98">
-        <v>80002</v>
-      </c>
-      <c r="B98">
-        <v>80002</v>
-      </c>
-      <c r="C98" t="s">
-        <v>118</v>
-      </c>
-      <c r="D98" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="99" customFormat="1" spans="1:4">
-      <c r="A99">
-        <v>80003</v>
-      </c>
-      <c r="B99">
-        <v>80003</v>
-      </c>
-      <c r="C99" t="s">
-        <v>119</v>
-      </c>
-      <c r="D99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="100" customFormat="1" spans="1:4">
-      <c r="A100">
-        <v>80004</v>
-      </c>
-      <c r="B100">
-        <v>80004</v>
-      </c>
-      <c r="C100" t="s">
-        <v>120</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" customFormat="1" spans="1:4">
-      <c r="A101">
-        <v>80005</v>
-      </c>
-      <c r="B101">
-        <v>80005</v>
-      </c>
-      <c r="C101" t="s">
-        <v>121</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="102" customFormat="1" spans="1:4">
-      <c r="A102">
-        <v>80006</v>
-      </c>
-      <c r="B102">
-        <v>80006</v>
       </c>
       <c r="C102" t="s">
         <v>122</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="103" customFormat="1" spans="1:4">
       <c r="A103">
-        <v>80007</v>
+        <v>80002</v>
       </c>
       <c r="B103">
-        <v>80007</v>
+        <v>80002</v>
       </c>
       <c r="C103" t="s">
         <v>123</v>
@@ -2869,10 +2890,10 @@
     </row>
     <row r="104" customFormat="1" spans="1:4">
       <c r="A104">
-        <v>80008</v>
+        <v>80003</v>
       </c>
       <c r="B104">
-        <v>80008</v>
+        <v>80003</v>
       </c>
       <c r="C104" t="s">
         <v>124</v>
@@ -2883,10 +2904,10 @@
     </row>
     <row r="105" customFormat="1" spans="1:4">
       <c r="A105">
-        <v>80009</v>
+        <v>80004</v>
       </c>
       <c r="B105">
-        <v>80009</v>
+        <v>80004</v>
       </c>
       <c r="C105" t="s">
         <v>125</v>
@@ -2895,71 +2916,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" customFormat="1" spans="1:4">
       <c r="A106">
-        <v>1000001</v>
+        <v>80005</v>
       </c>
       <c r="B106">
-        <v>1000001</v>
+        <v>80005</v>
       </c>
       <c r="C106" t="s">
         <v>126</v>
       </c>
       <c r="D106" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="107" customFormat="1" spans="1:4">
+      <c r="A107">
+        <v>80006</v>
+      </c>
+      <c r="B107">
+        <v>80006</v>
+      </c>
+      <c r="C107" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107">
-        <v>1000002</v>
-      </c>
-      <c r="B107">
-        <v>1000002</v>
-      </c>
-      <c r="C107" t="s">
+      <c r="D107" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" customFormat="1" spans="1:4">
+      <c r="A108">
+        <v>80007</v>
+      </c>
+      <c r="B108">
+        <v>80007</v>
+      </c>
+      <c r="C108" t="s">
         <v>128</v>
       </c>
-      <c r="D107" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108">
-        <v>1001001</v>
-      </c>
-      <c r="B108">
-        <v>1001001</v>
-      </c>
-      <c r="C108" t="s">
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" customFormat="1" spans="1:4">
+      <c r="A109">
+        <v>80008</v>
+      </c>
+      <c r="B109">
+        <v>80008</v>
+      </c>
+      <c r="C109" t="s">
         <v>129</v>
       </c>
-      <c r="D108" t="s">
+      <c r="D109" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="110" customFormat="1" spans="1:4">
+      <c r="A110">
+        <v>80009</v>
+      </c>
+      <c r="B110">
+        <v>80009</v>
+      </c>
+      <c r="C110" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109">
-        <v>1002001</v>
-      </c>
-      <c r="B109">
-        <v>1002001</v>
-      </c>
-      <c r="C109" t="s">
-        <v>131</v>
-      </c>
-      <c r="D109" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110">
-        <v>1002002</v>
-      </c>
-      <c r="B110">
-        <v>1002002</v>
-      </c>
-      <c r="C110" t="s">
-        <v>133</v>
       </c>
       <c r="D110" t="s">
         <v>13</v>
@@ -2967,53 +2988,144 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="B111">
-        <v>2000001</v>
+        <v>1000001</v>
       </c>
       <c r="C111" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D111" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="B112">
-        <v>3000001</v>
+        <v>1000002</v>
       </c>
       <c r="C112" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D112" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
+        <v>1001001</v>
+      </c>
+      <c r="B113">
+        <v>1001001</v>
+      </c>
+      <c r="C113" t="s">
+        <v>134</v>
+      </c>
+      <c r="D113" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
+        <v>1002001</v>
+      </c>
+      <c r="B114">
+        <v>1002001</v>
+      </c>
+      <c r="C114" t="s">
+        <v>136</v>
+      </c>
+      <c r="D114" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
+        <v>1002002</v>
+      </c>
+      <c r="B115">
+        <v>1002002</v>
+      </c>
+      <c r="C115" t="s">
+        <v>138</v>
+      </c>
+      <c r="D115" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116">
+        <v>2000001</v>
+      </c>
+      <c r="B116">
+        <v>2000001</v>
+      </c>
+      <c r="C116" t="s">
+        <v>139</v>
+      </c>
+      <c r="D116" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117">
+        <v>2000002</v>
+      </c>
+      <c r="B117">
+        <v>2000002</v>
+      </c>
+      <c r="C117" t="s">
+        <v>141</v>
+      </c>
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118">
+        <v>2000003</v>
+      </c>
+      <c r="B118">
+        <v>2000003</v>
+      </c>
+      <c r="C118" t="s">
+        <v>142</v>
+      </c>
+      <c r="D118" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119">
+        <v>3000001</v>
+      </c>
+      <c r="B119">
+        <v>3000001</v>
+      </c>
+      <c r="C119" t="s">
+        <v>143</v>
+      </c>
+      <c r="D119" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120">
         <v>3000002</v>
       </c>
-      <c r="B113">
+      <c r="B120">
         <v>3000002</v>
       </c>
-      <c r="C113" t="s">
-        <v>138</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="145" ht="12" customHeight="1"/>
-    <row r="146" ht="12" customHeight="1"/>
-    <row r="147" ht="12" customHeight="1"/>
-    <row r="148" ht="12" customHeight="1"/>
-    <row r="149" ht="12" customHeight="1"/>
-    <row r="150" ht="12" customHeight="1"/>
-    <row r="151" ht="12" customHeight="1"/>
+      <c r="C120" t="s">
+        <v>145</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="152" ht="12" customHeight="1"/>
     <row r="153" ht="12" customHeight="1"/>
     <row r="154" ht="12" customHeight="1"/>
@@ -3042,9 +3154,16 @@
     <row r="177" ht="12" customHeight="1"/>
     <row r="178" ht="12" customHeight="1"/>
     <row r="179" ht="12" customHeight="1"/>
-    <row r="180" customHeight="1"/>
-    <row r="231" ht="12" customHeight="1"/>
-    <row r="232" ht="12" customHeight="1"/>
+    <row r="180" ht="12" customHeight="1"/>
+    <row r="181" ht="12" customHeight="1"/>
+    <row r="182" ht="12" customHeight="1"/>
+    <row r="183" ht="12" customHeight="1"/>
+    <row r="184" ht="12" customHeight="1"/>
+    <row r="185" ht="12" customHeight="1"/>
+    <row r="186" ht="12" customHeight="1"/>
+    <row r="187" customHeight="1"/>
+    <row r="238" ht="12" customHeight="1"/>
+    <row r="239" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
   <si>
     <t>id</t>
   </si>
@@ -251,6 +251,9 @@
     <t>名</t>
   </si>
   <si>
+    <t>阵容{0}</t>
+  </si>
+  <si>
     <t>游戏</t>
   </si>
   <si>
@@ -387,6 +390,12 @@
   </si>
   <si>
     <t>是否开启此项研究？花费x{0}魔晶</t>
+  </si>
+  <si>
+    <t>设施</t>
+  </si>
+  <si>
+    <t>强化</t>
   </si>
   <si>
     <t>贿赂</t>
@@ -1432,10 +1441,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D239"/>
+  <dimension ref="A1:D243"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="B102" sqref="B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2218,38 +2227,38 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>40001</v>
+        <v>30005</v>
       </c>
       <c r="B56">
-        <v>40001</v>
+        <v>30005</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
       </c>
       <c r="D56" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="57" ht="14" customHeight="1" spans="1:4">
       <c r="A57">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B57">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" customFormat="1" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B58">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
@@ -2260,10 +2269,10 @@
     </row>
     <row r="59" customFormat="1" spans="1:4">
       <c r="A59">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B59">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -2274,10 +2283,10 @@
     </row>
     <row r="60" customFormat="1" spans="1:4">
       <c r="A60">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B60">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -2288,10 +2297,10 @@
     </row>
     <row r="61" customFormat="1" spans="1:4">
       <c r="A61">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B61">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="C61" t="s">
         <v>79</v>
@@ -2302,10 +2311,10 @@
     </row>
     <row r="62" customFormat="1" spans="1:4">
       <c r="A62">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B62">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
@@ -2316,10 +2325,10 @@
     </row>
     <row r="63" customFormat="1" spans="1:4">
       <c r="A63">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B63">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
@@ -2330,10 +2339,10 @@
     </row>
     <row r="64" customFormat="1" spans="1:4">
       <c r="A64">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B64">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="C64" t="s">
         <v>82</v>
@@ -2342,12 +2351,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" customFormat="1" spans="1:4">
       <c r="A65">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B65">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="C65" t="s">
         <v>83</v>
@@ -2358,10 +2367,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B66">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
@@ -2372,41 +2381,41 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>49001</v>
+        <v>43002</v>
       </c>
       <c r="B67">
-        <v>49001</v>
+        <v>43002</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>85</v>
       </c>
       <c r="D67" t="s">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>49002</v>
+        <v>49001</v>
       </c>
       <c r="B68">
-        <v>49002</v>
+        <v>49001</v>
       </c>
       <c r="C68" t="s">
+        <v>19</v>
+      </c>
+      <c r="D68" t="s">
         <v>86</v>
-      </c>
-      <c r="D68" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>49003</v>
+        <v>49002</v>
       </c>
       <c r="B69">
-        <v>49003</v>
+        <v>49002</v>
       </c>
       <c r="C69" t="s">
-        <v>20</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
         <v>13</v>
@@ -2414,38 +2423,38 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>50001</v>
+        <v>49003</v>
       </c>
       <c r="B70">
-        <v>50001</v>
+        <v>49003</v>
       </c>
       <c r="C70" t="s">
-        <v>87</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>88</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B71">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="C71" t="s">
+        <v>88</v>
+      </c>
+      <c r="D71" t="s">
         <v>89</v>
-      </c>
-      <c r="D71" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B72">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="C72" t="s">
         <v>90</v>
@@ -2456,10 +2465,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B73">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
@@ -2470,10 +2479,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>50101</v>
+        <v>50004</v>
       </c>
       <c r="B74">
-        <v>50101</v>
+        <v>50004</v>
       </c>
       <c r="C74" t="s">
         <v>92</v>
@@ -2484,38 +2493,38 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>51001</v>
+        <v>50101</v>
       </c>
       <c r="B75">
-        <v>51001</v>
+        <v>50101</v>
       </c>
       <c r="C75" t="s">
         <v>93</v>
       </c>
       <c r="D75" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>51002</v>
+        <v>51001</v>
       </c>
       <c r="B76">
-        <v>51002</v>
+        <v>51001</v>
       </c>
       <c r="C76" t="s">
+        <v>94</v>
+      </c>
+      <c r="D76" t="s">
         <v>95</v>
-      </c>
-      <c r="D76" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="B77">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="C77" t="s">
         <v>96</v>
@@ -2526,41 +2535,41 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="B78">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="C78" t="s">
         <v>97</v>
       </c>
       <c r="D78" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79">
+        <v>52001</v>
+      </c>
+      <c r="B79">
+        <v>52001</v>
+      </c>
+      <c r="C79" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="79" ht="12" customHeight="1" spans="1:4">
-      <c r="A79">
+      <c r="D79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" ht="12" customHeight="1" spans="1:4">
+      <c r="A80">
         <v>52002</v>
       </c>
-      <c r="B79">
+      <c r="B80">
         <v>52002</v>
       </c>
-      <c r="C79" t="s">
-        <v>96</v>
-      </c>
-      <c r="D79" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80">
-        <v>52003</v>
-      </c>
-      <c r="B80">
-        <v>52003</v>
-      </c>
       <c r="C80" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D80" t="s">
         <v>13</v>
@@ -2568,10 +2577,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81">
-        <v>52004</v>
+        <v>52003</v>
       </c>
       <c r="B81">
-        <v>52004</v>
+        <v>52003</v>
       </c>
       <c r="C81" t="s">
         <v>100</v>
@@ -2582,10 +2591,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>52005</v>
+        <v>52004</v>
       </c>
       <c r="B82">
-        <v>52005</v>
+        <v>52004</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -2596,38 +2605,38 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>53000</v>
+        <v>52005</v>
       </c>
       <c r="B83">
-        <v>53000</v>
+        <v>52005</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="B84">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="C84" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="D84" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="B85">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="C85" t="s">
         <v>103</v>
@@ -2638,10 +2647,10 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="B86">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="C86" t="s">
         <v>104</v>
@@ -2652,10 +2661,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="B87">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="C87" t="s">
         <v>105</v>
@@ -2666,10 +2675,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="B88">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
@@ -2680,10 +2689,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="B89">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="C89" t="s">
         <v>107</v>
@@ -2694,10 +2703,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="B90">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="C90" t="s">
         <v>108</v>
@@ -2708,10 +2717,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="B91">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="C91" t="s">
         <v>109</v>
@@ -2722,10 +2731,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="B92">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="C92" t="s">
         <v>110</v>
@@ -2736,10 +2745,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="B93">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="C93" t="s">
         <v>111</v>
@@ -2750,10 +2759,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="B94">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="C94" t="s">
         <v>112</v>
@@ -2764,38 +2773,38 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B95">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="C95" t="s">
         <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>13</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B96">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C96" t="s">
+        <v>114</v>
+      </c>
+      <c r="D96" t="s">
         <v>115</v>
-      </c>
-      <c r="D96" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B97">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C97" t="s">
         <v>116</v>
@@ -2806,10 +2815,10 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B98">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C98" t="s">
         <v>117</v>
@@ -2820,10 +2829,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="B99">
-        <v>62001</v>
+        <v>61002</v>
       </c>
       <c r="C99" t="s">
         <v>118</v>
@@ -2834,111 +2843,111 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>62002</v>
+        <v>61003</v>
       </c>
       <c r="B100">
-        <v>62002</v>
+        <v>61003</v>
       </c>
       <c r="C100" t="s">
         <v>119</v>
       </c>
       <c r="D100" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>70001</v>
+        <v>62001</v>
       </c>
       <c r="B101">
-        <v>70001</v>
+        <v>62001</v>
       </c>
       <c r="C101" t="s">
         <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>121</v>
+        <v>67</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
+        <v>62002</v>
+      </c>
+      <c r="B102">
+        <v>62002</v>
+      </c>
+      <c r="C102" t="s">
+        <v>121</v>
+      </c>
+      <c r="D102" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103">
+        <v>62003</v>
+      </c>
+      <c r="B103">
+        <v>62003</v>
+      </c>
+      <c r="C103" t="s">
+        <v>122</v>
+      </c>
+      <c r="D103" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104">
+        <v>62004</v>
+      </c>
+      <c r="B104">
+        <v>62004</v>
+      </c>
+      <c r="C104" t="s">
+        <v>66</v>
+      </c>
+      <c r="D104" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105">
+        <v>70001</v>
+      </c>
+      <c r="B105">
+        <v>70001</v>
+      </c>
+      <c r="C105" t="s">
+        <v>123</v>
+      </c>
+      <c r="D105" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106">
         <v>80001</v>
       </c>
-      <c r="B102">
+      <c r="B106">
         <v>80001</v>
       </c>
-      <c r="C102" t="s">
-        <v>122</v>
-      </c>
-      <c r="D102" t="s">
+      <c r="C106" t="s">
+        <v>125</v>
+      </c>
+      <c r="D106" t="s">
         <v>68</v>
-      </c>
-    </row>
-    <row r="103" customFormat="1" spans="1:4">
-      <c r="A103">
-        <v>80002</v>
-      </c>
-      <c r="B103">
-        <v>80002</v>
-      </c>
-      <c r="C103" t="s">
-        <v>123</v>
-      </c>
-      <c r="D103" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="104" customFormat="1" spans="1:4">
-      <c r="A104">
-        <v>80003</v>
-      </c>
-      <c r="B104">
-        <v>80003</v>
-      </c>
-      <c r="C104" t="s">
-        <v>124</v>
-      </c>
-      <c r="D104" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="105" customFormat="1" spans="1:4">
-      <c r="A105">
-        <v>80004</v>
-      </c>
-      <c r="B105">
-        <v>80004</v>
-      </c>
-      <c r="C105" t="s">
-        <v>125</v>
-      </c>
-      <c r="D105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="106" customFormat="1" spans="1:4">
-      <c r="A106">
-        <v>80005</v>
-      </c>
-      <c r="B106">
-        <v>80005</v>
-      </c>
-      <c r="C106" t="s">
-        <v>126</v>
-      </c>
-      <c r="D106" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="107" customFormat="1" spans="1:4">
       <c r="A107">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="B107">
-        <v>80006</v>
+        <v>80002</v>
       </c>
       <c r="C107" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -2946,13 +2955,13 @@
     </row>
     <row r="108" customFormat="1" spans="1:4">
       <c r="A108">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="B108">
-        <v>80007</v>
+        <v>80003</v>
       </c>
       <c r="C108" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -2960,13 +2969,13 @@
     </row>
     <row r="109" customFormat="1" spans="1:4">
       <c r="A109">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="B109">
-        <v>80008</v>
+        <v>80004</v>
       </c>
       <c r="C109" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -2974,162 +2983,214 @@
     </row>
     <row r="110" customFormat="1" spans="1:4">
       <c r="A110">
+        <v>80005</v>
+      </c>
+      <c r="B110">
+        <v>80005</v>
+      </c>
+      <c r="C110" t="s">
+        <v>129</v>
+      </c>
+      <c r="D110" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" customFormat="1" spans="1:4">
+      <c r="A111">
+        <v>80006</v>
+      </c>
+      <c r="B111">
+        <v>80006</v>
+      </c>
+      <c r="C111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" customFormat="1" spans="1:4">
+      <c r="A112">
+        <v>80007</v>
+      </c>
+      <c r="B112">
+        <v>80007</v>
+      </c>
+      <c r="C112" t="s">
+        <v>131</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" customFormat="1" spans="1:4">
+      <c r="A113">
+        <v>80008</v>
+      </c>
+      <c r="B113">
+        <v>80008</v>
+      </c>
+      <c r="C113" t="s">
+        <v>132</v>
+      </c>
+      <c r="D113" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="114" customFormat="1" spans="1:4">
+      <c r="A114">
         <v>80009</v>
       </c>
-      <c r="B110">
+      <c r="B114">
         <v>80009</v>
       </c>
-      <c r="C110" t="s">
-        <v>130</v>
-      </c>
-      <c r="D110" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111">
-        <v>1000001</v>
-      </c>
-      <c r="B111">
-        <v>1000001</v>
-      </c>
-      <c r="C111" t="s">
-        <v>131</v>
-      </c>
-      <c r="D111" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112">
-        <v>1000002</v>
-      </c>
-      <c r="B112">
-        <v>1000002</v>
-      </c>
-      <c r="C112" t="s">
+      <c r="C114" t="s">
         <v>133</v>
       </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113">
-        <v>1001001</v>
-      </c>
-      <c r="B113">
-        <v>1001001</v>
-      </c>
-      <c r="C113" t="s">
-        <v>134</v>
-      </c>
-      <c r="D113" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114">
-        <v>1002001</v>
-      </c>
-      <c r="B114">
-        <v>1002001</v>
-      </c>
-      <c r="C114" t="s">
-        <v>136</v>
-      </c>
       <c r="D114" t="s">
-        <v>137</v>
+        <v>13</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115">
-        <v>1002002</v>
+        <v>1000001</v>
       </c>
       <c r="B115">
-        <v>1002002</v>
+        <v>1000001</v>
       </c>
       <c r="C115" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="B116">
-        <v>2000001</v>
+        <v>1000002</v>
       </c>
       <c r="C116" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D116" t="s">
-        <v>140</v>
+        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>2000002</v>
+        <v>1001001</v>
       </c>
       <c r="B117">
-        <v>2000002</v>
+        <v>1001001</v>
       </c>
       <c r="C117" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D117" t="s">
-        <v>13</v>
+        <v>138</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>2000003</v>
+        <v>1002001</v>
       </c>
       <c r="B118">
-        <v>2000003</v>
+        <v>1002001</v>
       </c>
       <c r="C118" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
-        <v>13</v>
+        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>3000001</v>
+        <v>1002002</v>
       </c>
       <c r="B119">
-        <v>3000001</v>
+        <v>1002002</v>
       </c>
       <c r="C119" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
-        <v>144</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
+        <v>2000001</v>
+      </c>
+      <c r="B120">
+        <v>2000001</v>
+      </c>
+      <c r="C120" t="s">
+        <v>142</v>
+      </c>
+      <c r="D120" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121">
+        <v>2000002</v>
+      </c>
+      <c r="B121">
+        <v>2000002</v>
+      </c>
+      <c r="C121" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122">
+        <v>2000003</v>
+      </c>
+      <c r="B122">
+        <v>2000003</v>
+      </c>
+      <c r="C122" t="s">
+        <v>145</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
+        <v>3000001</v>
+      </c>
+      <c r="B123">
+        <v>3000001</v>
+      </c>
+      <c r="C123" t="s">
+        <v>146</v>
+      </c>
+      <c r="D123" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
         <v>3000002</v>
       </c>
-      <c r="B120">
+      <c r="B124">
         <v>3000002</v>
       </c>
-      <c r="C120" t="s">
-        <v>145</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="152" ht="12" customHeight="1"/>
-    <row r="153" ht="12" customHeight="1"/>
-    <row r="154" ht="12" customHeight="1"/>
-    <row r="155" ht="12" customHeight="1"/>
+      <c r="C124" t="s">
+        <v>148</v>
+      </c>
+      <c r="D124" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="156" ht="12" customHeight="1"/>
     <row r="157" ht="12" customHeight="1"/>
     <row r="158" ht="12" customHeight="1"/>
@@ -3161,9 +3222,13 @@
     <row r="184" ht="12" customHeight="1"/>
     <row r="185" ht="12" customHeight="1"/>
     <row r="186" ht="12" customHeight="1"/>
-    <row r="187" customHeight="1"/>
-    <row r="238" ht="12" customHeight="1"/>
-    <row r="239" ht="12" customHeight="1"/>
+    <row r="187" ht="12" customHeight="1"/>
+    <row r="188" ht="12" customHeight="1"/>
+    <row r="189" ht="12" customHeight="1"/>
+    <row r="190" ht="12" customHeight="1"/>
+    <row r="191" customHeight="1"/>
+    <row r="242" ht="12" customHeight="1"/>
+    <row r="243" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="152">
   <si>
     <t>id</t>
   </si>
@@ -453,6 +453,15 @@
   </si>
   <si>
     <t>丢弃</t>
+  </si>
+  <si>
+    <t>研究等级.{0}</t>
+  </si>
+  <si>
+    <t>弹窗-研究详情</t>
+  </si>
+  <si>
+    <t>研究等级.最大</t>
   </si>
   <si>
     <t>提示</t>
@@ -1441,10 +1450,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D243"/>
+  <dimension ref="A1:D245"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="B102" sqref="B102"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B120" sqref="B120:C121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3123,10 +3132,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>2000001</v>
+        <v>1003001</v>
       </c>
       <c r="B120">
-        <v>2000001</v>
+        <v>1003001</v>
       </c>
       <c r="C120" t="s">
         <v>142</v>
@@ -3137,10 +3146,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>2000002</v>
+        <v>1003002</v>
       </c>
       <c r="B121">
-        <v>2000002</v>
+        <v>1003002</v>
       </c>
       <c r="C121" t="s">
         <v>144</v>
@@ -3151,38 +3160,38 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B122">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="C122" t="s">
         <v>145</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>3000001</v>
+        <v>2000002</v>
       </c>
       <c r="B123">
-        <v>3000001</v>
+        <v>2000002</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>3000002</v>
+        <v>2000003</v>
       </c>
       <c r="B124">
-        <v>3000002</v>
+        <v>2000003</v>
       </c>
       <c r="C124" t="s">
         <v>148</v>
@@ -3191,8 +3200,34 @@
         <v>13</v>
       </c>
     </row>
-    <row r="156" ht="12" customHeight="1"/>
-    <row r="157" ht="12" customHeight="1"/>
+    <row r="125" spans="1:4">
+      <c r="A125">
+        <v>3000001</v>
+      </c>
+      <c r="B125">
+        <v>3000001</v>
+      </c>
+      <c r="C125" t="s">
+        <v>149</v>
+      </c>
+      <c r="D125" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126">
+        <v>3000002</v>
+      </c>
+      <c r="B126">
+        <v>3000002</v>
+      </c>
+      <c r="C126" t="s">
+        <v>151</v>
+      </c>
+      <c r="D126" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="158" ht="12" customHeight="1"/>
     <row r="159" ht="12" customHeight="1"/>
     <row r="160" ht="12" customHeight="1"/>
@@ -3226,9 +3261,11 @@
     <row r="188" ht="12" customHeight="1"/>
     <row r="189" ht="12" customHeight="1"/>
     <row r="190" ht="12" customHeight="1"/>
-    <row r="191" customHeight="1"/>
-    <row r="242" ht="12" customHeight="1"/>
-    <row r="243" ht="12" customHeight="1"/>
+    <row r="191" ht="12" customHeight="1"/>
+    <row r="192" ht="12" customHeight="1"/>
+    <row r="193" customHeight="1"/>
+    <row r="244" ht="12" customHeight="1"/>
+    <row r="245" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="153">
   <si>
     <t>id</t>
   </si>
@@ -252,6 +252,9 @@
   </si>
   <si>
     <t>阵容{0}</t>
+  </si>
+  <si>
+    <t>超过阵容魔物上限！</t>
   </si>
   <si>
     <t>游戏</t>
@@ -1450,10 +1453,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D245"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B120" sqref="B120:C121"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2248,40 +2251,40 @@
         <v>13</v>
       </c>
     </row>
-    <row r="57" ht="14" customHeight="1" spans="1:4">
+    <row r="57" spans="1:4">
       <c r="A57">
-        <v>40001</v>
+        <v>30006</v>
       </c>
       <c r="B57">
-        <v>40001</v>
+        <v>30006</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
       </c>
       <c r="D57" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" ht="14" customHeight="1" spans="1:4">
       <c r="A58">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="B58">
-        <v>40002</v>
+        <v>40001</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" customFormat="1" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="B59">
-        <v>40003</v>
+        <v>40002</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -2292,10 +2295,10 @@
     </row>
     <row r="60" customFormat="1" spans="1:4">
       <c r="A60">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="B60">
-        <v>40998</v>
+        <v>40003</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -2306,10 +2309,10 @@
     </row>
     <row r="61" customFormat="1" spans="1:4">
       <c r="A61">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="B61">
-        <v>40999</v>
+        <v>40998</v>
       </c>
       <c r="C61" t="s">
         <v>79</v>
@@ -2320,10 +2323,10 @@
     </row>
     <row r="62" customFormat="1" spans="1:4">
       <c r="A62">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="B62">
-        <v>41001</v>
+        <v>40999</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
@@ -2334,10 +2337,10 @@
     </row>
     <row r="63" customFormat="1" spans="1:4">
       <c r="A63">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="B63">
-        <v>42001</v>
+        <v>41001</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
@@ -2348,10 +2351,10 @@
     </row>
     <row r="64" customFormat="1" spans="1:4">
       <c r="A64">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="B64">
-        <v>42002</v>
+        <v>42001</v>
       </c>
       <c r="C64" t="s">
         <v>82</v>
@@ -2362,10 +2365,10 @@
     </row>
     <row r="65" customFormat="1" spans="1:4">
       <c r="A65">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="B65">
-        <v>42003</v>
+        <v>42002</v>
       </c>
       <c r="C65" t="s">
         <v>83</v>
@@ -2374,12 +2377,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" customFormat="1" spans="1:4">
       <c r="A66">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="B66">
-        <v>43001</v>
+        <v>42003</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
@@ -2390,10 +2393,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="B67">
-        <v>43002</v>
+        <v>43001</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
@@ -2404,41 +2407,41 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68">
-        <v>49001</v>
+        <v>43002</v>
       </c>
       <c r="B68">
-        <v>49001</v>
+        <v>43002</v>
       </c>
       <c r="C68" t="s">
-        <v>19</v>
+        <v>86</v>
       </c>
       <c r="D68" t="s">
-        <v>86</v>
+        <v>13</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69">
-        <v>49002</v>
+        <v>49001</v>
       </c>
       <c r="B69">
-        <v>49002</v>
+        <v>49001</v>
       </c>
       <c r="C69" t="s">
+        <v>19</v>
+      </c>
+      <c r="D69" t="s">
         <v>87</v>
-      </c>
-      <c r="D69" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>49003</v>
+        <v>49002</v>
       </c>
       <c r="B70">
-        <v>49003</v>
+        <v>49002</v>
       </c>
       <c r="C70" t="s">
-        <v>20</v>
+        <v>88</v>
       </c>
       <c r="D70" t="s">
         <v>13</v>
@@ -2446,38 +2449,38 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>50001</v>
+        <v>49003</v>
       </c>
       <c r="B71">
-        <v>50001</v>
+        <v>49003</v>
       </c>
       <c r="C71" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="D71" t="s">
-        <v>89</v>
+        <v>13</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="B72">
-        <v>50002</v>
+        <v>50001</v>
       </c>
       <c r="C72" t="s">
+        <v>89</v>
+      </c>
+      <c r="D72" t="s">
         <v>90</v>
-      </c>
-      <c r="D72" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="B73">
-        <v>50003</v>
+        <v>50002</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
@@ -2488,10 +2491,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="B74">
-        <v>50004</v>
+        <v>50003</v>
       </c>
       <c r="C74" t="s">
         <v>92</v>
@@ -2502,10 +2505,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>50101</v>
+        <v>50004</v>
       </c>
       <c r="B75">
-        <v>50101</v>
+        <v>50004</v>
       </c>
       <c r="C75" t="s">
         <v>93</v>
@@ -2516,38 +2519,38 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>51001</v>
+        <v>50101</v>
       </c>
       <c r="B76">
-        <v>51001</v>
+        <v>50101</v>
       </c>
       <c r="C76" t="s">
         <v>94</v>
       </c>
       <c r="D76" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>51002</v>
+        <v>51001</v>
       </c>
       <c r="B77">
-        <v>51002</v>
+        <v>51001</v>
       </c>
       <c r="C77" t="s">
+        <v>95</v>
+      </c>
+      <c r="D77" t="s">
         <v>96</v>
-      </c>
-      <c r="D77" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="B78">
-        <v>51003</v>
+        <v>51002</v>
       </c>
       <c r="C78" t="s">
         <v>97</v>
@@ -2558,41 +2561,41 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="B79">
-        <v>52001</v>
+        <v>51003</v>
       </c>
       <c r="C79" t="s">
         <v>98</v>
       </c>
       <c r="D79" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80">
+        <v>52001</v>
+      </c>
+      <c r="B80">
+        <v>52001</v>
+      </c>
+      <c r="C80" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="80" ht="12" customHeight="1" spans="1:4">
-      <c r="A80">
+      <c r="D80" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="81" ht="12" customHeight="1" spans="1:4">
+      <c r="A81">
         <v>52002</v>
       </c>
-      <c r="B80">
+      <c r="B81">
         <v>52002</v>
       </c>
-      <c r="C80" t="s">
-        <v>97</v>
-      </c>
-      <c r="D80" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81">
-        <v>52003</v>
-      </c>
-      <c r="B81">
-        <v>52003</v>
-      </c>
       <c r="C81" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -2600,10 +2603,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>52004</v>
+        <v>52003</v>
       </c>
       <c r="B82">
-        <v>52004</v>
+        <v>52003</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -2614,10 +2617,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>52005</v>
+        <v>52004</v>
       </c>
       <c r="B83">
-        <v>52005</v>
+        <v>52004</v>
       </c>
       <c r="C83" t="s">
         <v>102</v>
@@ -2628,38 +2631,38 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84">
-        <v>53000</v>
+        <v>52005</v>
       </c>
       <c r="B84">
-        <v>53000</v>
+        <v>52005</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
       <c r="D84" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="B85">
-        <v>53001</v>
+        <v>53000</v>
       </c>
       <c r="C85" t="s">
-        <v>103</v>
+        <v>55</v>
       </c>
       <c r="D85" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="B86">
-        <v>53002</v>
+        <v>53001</v>
       </c>
       <c r="C86" t="s">
         <v>104</v>
@@ -2670,10 +2673,10 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="B87">
-        <v>53003</v>
+        <v>53002</v>
       </c>
       <c r="C87" t="s">
         <v>105</v>
@@ -2684,10 +2687,10 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="B88">
-        <v>53004</v>
+        <v>53003</v>
       </c>
       <c r="C88" t="s">
         <v>106</v>
@@ -2698,10 +2701,10 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="B89">
-        <v>53005</v>
+        <v>53004</v>
       </c>
       <c r="C89" t="s">
         <v>107</v>
@@ -2712,10 +2715,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="B90">
-        <v>53006</v>
+        <v>53005</v>
       </c>
       <c r="C90" t="s">
         <v>108</v>
@@ -2726,10 +2729,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="B91">
-        <v>53007</v>
+        <v>53006</v>
       </c>
       <c r="C91" t="s">
         <v>109</v>
@@ -2740,10 +2743,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="B92">
-        <v>53008</v>
+        <v>53007</v>
       </c>
       <c r="C92" t="s">
         <v>110</v>
@@ -2754,10 +2757,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="B93">
-        <v>53009</v>
+        <v>53008</v>
       </c>
       <c r="C93" t="s">
         <v>111</v>
@@ -2768,10 +2771,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="B94">
-        <v>53010</v>
+        <v>53009</v>
       </c>
       <c r="C94" t="s">
         <v>112</v>
@@ -2782,10 +2785,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="B95">
-        <v>53011</v>
+        <v>53010</v>
       </c>
       <c r="C95" t="s">
         <v>113</v>
@@ -2796,38 +2799,38 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="B96">
-        <v>60001</v>
+        <v>53011</v>
       </c>
       <c r="C96" t="s">
         <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>13</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B97">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C97" t="s">
+        <v>115</v>
+      </c>
+      <c r="D97" t="s">
         <v>116</v>
-      </c>
-      <c r="D97" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B98">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C98" t="s">
         <v>117</v>
@@ -2838,10 +2841,10 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B99">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C99" t="s">
         <v>118</v>
@@ -2852,10 +2855,10 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="B100">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="C100" t="s">
         <v>119</v>
@@ -2866,38 +2869,38 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="B101">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="C101" t="s">
         <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B102">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="C102" t="s">
         <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B103">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="C103" t="s">
         <v>122</v>
@@ -2908,13 +2911,13 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B104">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="C104" t="s">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="D104" t="s">
         <v>13</v>
@@ -2922,52 +2925,52 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>70001</v>
+        <v>62004</v>
       </c>
       <c r="B105">
-        <v>70001</v>
+        <v>62004</v>
       </c>
       <c r="C105" t="s">
-        <v>123</v>
+        <v>66</v>
       </c>
       <c r="D105" t="s">
-        <v>124</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
+        <v>70001</v>
+      </c>
+      <c r="B106">
+        <v>70001</v>
+      </c>
+      <c r="C106" t="s">
+        <v>124</v>
+      </c>
+      <c r="D106" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107">
         <v>80001</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>80001</v>
-      </c>
-      <c r="C106" t="s">
-        <v>125</v>
-      </c>
-      <c r="D106" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="107" customFormat="1" spans="1:4">
-      <c r="A107">
-        <v>80002</v>
-      </c>
-      <c r="B107">
-        <v>80002</v>
       </c>
       <c r="C107" t="s">
         <v>126</v>
       </c>
       <c r="D107" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
     </row>
     <row r="108" customFormat="1" spans="1:4">
       <c r="A108">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B108">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="C108" t="s">
         <v>127</v>
@@ -2978,10 +2981,10 @@
     </row>
     <row r="109" customFormat="1" spans="1:4">
       <c r="A109">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B109">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="C109" t="s">
         <v>128</v>
@@ -2992,10 +2995,10 @@
     </row>
     <row r="110" customFormat="1" spans="1:4">
       <c r="A110">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B110">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="C110" t="s">
         <v>129</v>
@@ -3006,10 +3009,10 @@
     </row>
     <row r="111" customFormat="1" spans="1:4">
       <c r="A111">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B111">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="C111" t="s">
         <v>130</v>
@@ -3020,10 +3023,10 @@
     </row>
     <row r="112" customFormat="1" spans="1:4">
       <c r="A112">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B112">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="C112" t="s">
         <v>131</v>
@@ -3034,10 +3037,10 @@
     </row>
     <row r="113" customFormat="1" spans="1:4">
       <c r="A113">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B113">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="C113" t="s">
         <v>132</v>
@@ -3048,10 +3051,10 @@
     </row>
     <row r="114" customFormat="1" spans="1:4">
       <c r="A114">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B114">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="C114" t="s">
         <v>133</v>
@@ -3060,138 +3063,138 @@
         <v>13</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" customFormat="1" spans="1:4">
       <c r="A115">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B115">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="C115" t="s">
         <v>134</v>
       </c>
       <c r="D115" t="s">
-        <v>135</v>
+        <v>13</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B116">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="C116" t="s">
+        <v>135</v>
+      </c>
+      <c r="D116" t="s">
         <v>136</v>
-      </c>
-      <c r="D116" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117">
-        <v>1001001</v>
+        <v>1000002</v>
       </c>
       <c r="B117">
-        <v>1001001</v>
+        <v>1000002</v>
       </c>
       <c r="C117" t="s">
         <v>137</v>
       </c>
       <c r="D117" t="s">
-        <v>138</v>
+        <v>13</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118">
-        <v>1002001</v>
+        <v>1001001</v>
       </c>
       <c r="B118">
-        <v>1002001</v>
+        <v>1001001</v>
       </c>
       <c r="C118" t="s">
+        <v>138</v>
+      </c>
+      <c r="D118" t="s">
         <v>139</v>
-      </c>
-      <c r="D118" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>1002002</v>
+        <v>1002001</v>
       </c>
       <c r="B119">
-        <v>1002002</v>
+        <v>1002001</v>
       </c>
       <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
         <v>141</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1003001</v>
+        <v>1002002</v>
       </c>
       <c r="B120">
-        <v>1003001</v>
+        <v>1002002</v>
       </c>
       <c r="C120" t="s">
         <v>142</v>
       </c>
       <c r="D120" t="s">
-        <v>143</v>
+        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1003002</v>
+        <v>1003001</v>
       </c>
       <c r="B121">
-        <v>1003002</v>
+        <v>1003001</v>
       </c>
       <c r="C121" t="s">
+        <v>143</v>
+      </c>
+      <c r="D121" t="s">
         <v>144</v>
-      </c>
-      <c r="D121" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>2000001</v>
+        <v>1003002</v>
       </c>
       <c r="B122">
-        <v>2000001</v>
+        <v>1003002</v>
       </c>
       <c r="C122" t="s">
         <v>145</v>
       </c>
       <c r="D122" t="s">
-        <v>146</v>
+        <v>13</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="B123">
-        <v>2000002</v>
+        <v>2000001</v>
       </c>
       <c r="C123" t="s">
+        <v>146</v>
+      </c>
+      <c r="D123" t="s">
         <v>147</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="B124">
-        <v>2000003</v>
+        <v>2000002</v>
       </c>
       <c r="C124" t="s">
         <v>148</v>
@@ -3202,33 +3205,46 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="B125">
-        <v>3000001</v>
+        <v>2000003</v>
       </c>
       <c r="C125" t="s">
         <v>149</v>
       </c>
       <c r="D125" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
+        <v>3000001</v>
+      </c>
+      <c r="B126">
+        <v>3000001</v>
+      </c>
+      <c r="C126" t="s">
+        <v>150</v>
+      </c>
+      <c r="D126" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127">
         <v>3000002</v>
       </c>
-      <c r="B126">
+      <c r="B127">
         <v>3000002</v>
       </c>
-      <c r="C126" t="s">
-        <v>151</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" ht="12" customHeight="1"/>
+      <c r="C127" t="s">
+        <v>152</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="159" ht="12" customHeight="1"/>
     <row r="160" ht="12" customHeight="1"/>
     <row r="161" ht="12" customHeight="1"/>
@@ -3263,9 +3279,10 @@
     <row r="190" ht="12" customHeight="1"/>
     <row r="191" ht="12" customHeight="1"/>
     <row r="192" ht="12" customHeight="1"/>
-    <row r="193" customHeight="1"/>
-    <row r="244" ht="12" customHeight="1"/>
+    <row r="193" ht="12" customHeight="1"/>
+    <row r="194" customHeight="1"/>
     <row r="245" ht="12" customHeight="1"/>
+    <row r="246" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="31725" windowHeight="12960"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
   <si>
     <t>id</t>
   </si>
@@ -216,6 +216,15 @@
   </si>
   <si>
     <t>再来一次</t>
+  </si>
+  <si>
+    <t>跳过所有</t>
+  </si>
+  <si>
+    <t>展示</t>
+  </si>
+  <si>
+    <t>重命名</t>
   </si>
   <si>
     <t>阵容</t>
@@ -1453,10 +1462,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D246"/>
+  <dimension ref="A1:D249"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2113,66 +2122,66 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47">
-        <v>20001</v>
+        <v>10006</v>
       </c>
       <c r="B47">
-        <v>20001</v>
+        <v>10006</v>
       </c>
       <c r="C47" t="s">
         <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>64</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48">
+        <v>10007</v>
+      </c>
+      <c r="B48">
+        <v>10007</v>
+      </c>
+      <c r="C48" t="s">
+        <v>64</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49">
+        <v>10008</v>
+      </c>
+      <c r="B49">
+        <v>10008</v>
+      </c>
+      <c r="C49" t="s">
+        <v>65</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50">
+        <v>20001</v>
+      </c>
+      <c r="B50">
+        <v>20001</v>
+      </c>
+      <c r="C50" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51">
         <v>20002</v>
       </c>
-      <c r="B48">
+      <c r="B51">
         <v>20002</v>
-      </c>
-      <c r="C48" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="49" customFormat="1" spans="1:4">
-      <c r="A49">
-        <v>20003</v>
-      </c>
-      <c r="B49">
-        <v>20003</v>
-      </c>
-      <c r="C49" t="s">
-        <v>66</v>
-      </c>
-      <c r="D49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" customFormat="1" spans="1:4">
-      <c r="A50">
-        <v>20004</v>
-      </c>
-      <c r="B50">
-        <v>20004</v>
-      </c>
-      <c r="C50" t="s">
-        <v>67</v>
-      </c>
-      <c r="D50" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="51" customFormat="1" spans="1:4">
-      <c r="A51">
-        <v>20005</v>
-      </c>
-      <c r="B51">
-        <v>20005</v>
       </c>
       <c r="C51" t="s">
         <v>68</v>
@@ -2181,43 +2190,43 @@
         <v>13</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" customFormat="1" spans="1:4">
       <c r="A52">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="B52">
-        <v>30001</v>
+        <v>20003</v>
       </c>
       <c r="C52" t="s">
         <v>69</v>
       </c>
       <c r="D52" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" spans="1:4">
+      <c r="A53">
+        <v>20004</v>
+      </c>
+      <c r="B53">
+        <v>20004</v>
+      </c>
+      <c r="C53" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53">
-        <v>30002</v>
-      </c>
-      <c r="B53">
-        <v>30002</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" spans="1:4">
+      <c r="A54">
+        <v>20005</v>
+      </c>
+      <c r="B54">
+        <v>20005</v>
+      </c>
+      <c r="C54" t="s">
         <v>71</v>
-      </c>
-      <c r="D53" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54">
-        <v>30003</v>
-      </c>
-      <c r="B54">
-        <v>30003</v>
-      </c>
-      <c r="C54" t="s">
-        <v>72</v>
       </c>
       <c r="D54" t="s">
         <v>13</v>
@@ -2225,24 +2234,24 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55">
-        <v>30004</v>
+        <v>30001</v>
       </c>
       <c r="B55">
-        <v>30004</v>
+        <v>30001</v>
       </c>
       <c r="C55" t="s">
+        <v>72</v>
+      </c>
+      <c r="D55" t="s">
         <v>73</v>
-      </c>
-      <c r="D55" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56">
-        <v>30005</v>
+        <v>30002</v>
       </c>
       <c r="B56">
-        <v>30005</v>
+        <v>30002</v>
       </c>
       <c r="C56" t="s">
         <v>74</v>
@@ -2253,10 +2262,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57">
-        <v>30006</v>
+        <v>30003</v>
       </c>
       <c r="B57">
-        <v>30006</v>
+        <v>30003</v>
       </c>
       <c r="C57" t="s">
         <v>75</v>
@@ -2265,26 +2274,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="58" ht="14" customHeight="1" spans="1:4">
+    <row r="58" spans="1:4">
       <c r="A58">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="B58">
-        <v>40001</v>
+        <v>30004</v>
       </c>
       <c r="C58" t="s">
         <v>76</v>
       </c>
       <c r="D58" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59">
-        <v>40002</v>
+        <v>30005</v>
       </c>
       <c r="B59">
-        <v>40002</v>
+        <v>30005</v>
       </c>
       <c r="C59" t="s">
         <v>77</v>
@@ -2293,12 +2302,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" customFormat="1" spans="1:4">
+    <row r="60" spans="1:4">
       <c r="A60">
-        <v>40003</v>
+        <v>30006</v>
       </c>
       <c r="B60">
-        <v>40003</v>
+        <v>30006</v>
       </c>
       <c r="C60" t="s">
         <v>78</v>
@@ -2307,26 +2316,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="61" customFormat="1" spans="1:4">
+    <row r="61" ht="14" customHeight="1" spans="1:4">
       <c r="A61">
-        <v>40998</v>
+        <v>40001</v>
       </c>
       <c r="B61">
-        <v>40998</v>
+        <v>40001</v>
       </c>
       <c r="C61" t="s">
         <v>79</v>
       </c>
       <c r="D61" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" customFormat="1" spans="1:4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62">
-        <v>40999</v>
+        <v>40002</v>
       </c>
       <c r="B62">
-        <v>40999</v>
+        <v>40002</v>
       </c>
       <c r="C62" t="s">
         <v>80</v>
@@ -2337,10 +2346,10 @@
     </row>
     <row r="63" customFormat="1" spans="1:4">
       <c r="A63">
-        <v>41001</v>
+        <v>40003</v>
       </c>
       <c r="B63">
-        <v>41001</v>
+        <v>40003</v>
       </c>
       <c r="C63" t="s">
         <v>81</v>
@@ -2351,10 +2360,10 @@
     </row>
     <row r="64" customFormat="1" spans="1:4">
       <c r="A64">
-        <v>42001</v>
+        <v>40998</v>
       </c>
       <c r="B64">
-        <v>42001</v>
+        <v>40998</v>
       </c>
       <c r="C64" t="s">
         <v>82</v>
@@ -2365,10 +2374,10 @@
     </row>
     <row r="65" customFormat="1" spans="1:4">
       <c r="A65">
-        <v>42002</v>
+        <v>40999</v>
       </c>
       <c r="B65">
-        <v>42002</v>
+        <v>40999</v>
       </c>
       <c r="C65" t="s">
         <v>83</v>
@@ -2379,10 +2388,10 @@
     </row>
     <row r="66" customFormat="1" spans="1:4">
       <c r="A66">
-        <v>42003</v>
+        <v>41001</v>
       </c>
       <c r="B66">
-        <v>42003</v>
+        <v>41001</v>
       </c>
       <c r="C66" t="s">
         <v>84</v>
@@ -2391,12 +2400,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" customFormat="1" spans="1:4">
       <c r="A67">
-        <v>43001</v>
+        <v>42001</v>
       </c>
       <c r="B67">
-        <v>43001</v>
+        <v>42001</v>
       </c>
       <c r="C67" t="s">
         <v>85</v>
@@ -2405,12 +2414,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" customFormat="1" spans="1:4">
       <c r="A68">
-        <v>43002</v>
+        <v>42002</v>
       </c>
       <c r="B68">
-        <v>43002</v>
+        <v>42002</v>
       </c>
       <c r="C68" t="s">
         <v>86</v>
@@ -2419,26 +2428,26 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" customFormat="1" spans="1:4">
       <c r="A69">
-        <v>49001</v>
+        <v>42003</v>
       </c>
       <c r="B69">
-        <v>49001</v>
+        <v>42003</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>87</v>
       </c>
       <c r="D69" t="s">
-        <v>87</v>
+        <v>13</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70">
-        <v>49002</v>
+        <v>43001</v>
       </c>
       <c r="B70">
-        <v>49002</v>
+        <v>43001</v>
       </c>
       <c r="C70" t="s">
         <v>88</v>
@@ -2449,13 +2458,13 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71">
-        <v>49003</v>
+        <v>43002</v>
       </c>
       <c r="B71">
-        <v>49003</v>
+        <v>43002</v>
       </c>
       <c r="C71" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="D71" t="s">
         <v>13</v>
@@ -2463,13 +2472,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72">
-        <v>50001</v>
+        <v>49001</v>
       </c>
       <c r="B72">
-        <v>50001</v>
+        <v>49001</v>
       </c>
       <c r="C72" t="s">
-        <v>89</v>
+        <v>19</v>
       </c>
       <c r="D72" t="s">
         <v>90</v>
@@ -2477,10 +2486,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73">
-        <v>50002</v>
+        <v>49002</v>
       </c>
       <c r="B73">
-        <v>50002</v>
+        <v>49002</v>
       </c>
       <c r="C73" t="s">
         <v>91</v>
@@ -2491,13 +2500,13 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74">
-        <v>50003</v>
+        <v>49003</v>
       </c>
       <c r="B74">
-        <v>50003</v>
+        <v>49003</v>
       </c>
       <c r="C74" t="s">
-        <v>92</v>
+        <v>20</v>
       </c>
       <c r="D74" t="s">
         <v>13</v>
@@ -2505,24 +2514,24 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75">
-        <v>50004</v>
+        <v>50001</v>
       </c>
       <c r="B75">
-        <v>50004</v>
+        <v>50001</v>
       </c>
       <c r="C75" t="s">
+        <v>92</v>
+      </c>
+      <c r="D75" t="s">
         <v>93</v>
-      </c>
-      <c r="D75" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76">
-        <v>50101</v>
+        <v>50002</v>
       </c>
       <c r="B76">
-        <v>50101</v>
+        <v>50002</v>
       </c>
       <c r="C76" t="s">
         <v>94</v>
@@ -2533,27 +2542,27 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77">
-        <v>51001</v>
+        <v>50003</v>
       </c>
       <c r="B77">
-        <v>51001</v>
+        <v>50003</v>
       </c>
       <c r="C77" t="s">
         <v>95</v>
       </c>
       <c r="D77" t="s">
-        <v>96</v>
+        <v>13</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78">
-        <v>51002</v>
+        <v>50004</v>
       </c>
       <c r="B78">
-        <v>51002</v>
+        <v>50004</v>
       </c>
       <c r="C78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D78" t="s">
         <v>13</v>
@@ -2561,13 +2570,13 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79">
-        <v>51003</v>
+        <v>50101</v>
       </c>
       <c r="B79">
-        <v>51003</v>
+        <v>50101</v>
       </c>
       <c r="C79" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D79" t="s">
         <v>13</v>
@@ -2575,27 +2584,27 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80">
-        <v>52001</v>
+        <v>51001</v>
       </c>
       <c r="B80">
-        <v>52001</v>
+        <v>51001</v>
       </c>
       <c r="C80" t="s">
+        <v>98</v>
+      </c>
+      <c r="D80" t="s">
         <v>99</v>
       </c>
-      <c r="D80" t="s">
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81">
+        <v>51002</v>
+      </c>
+      <c r="B81">
+        <v>51002</v>
+      </c>
+      <c r="C81" t="s">
         <v>100</v>
-      </c>
-    </row>
-    <row r="81" ht="12" customHeight="1" spans="1:4">
-      <c r="A81">
-        <v>52002</v>
-      </c>
-      <c r="B81">
-        <v>52002</v>
-      </c>
-      <c r="C81" t="s">
-        <v>98</v>
       </c>
       <c r="D81" t="s">
         <v>13</v>
@@ -2603,10 +2612,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82">
-        <v>52003</v>
+        <v>51003</v>
       </c>
       <c r="B82">
-        <v>52003</v>
+        <v>51003</v>
       </c>
       <c r="C82" t="s">
         <v>101</v>
@@ -2617,27 +2626,27 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83">
-        <v>52004</v>
+        <v>52001</v>
       </c>
       <c r="B83">
-        <v>52004</v>
+        <v>52001</v>
       </c>
       <c r="C83" t="s">
         <v>102</v>
       </c>
       <c r="D83" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="84" ht="12" customHeight="1" spans="1:4">
       <c r="A84">
-        <v>52005</v>
+        <v>52002</v>
       </c>
       <c r="B84">
-        <v>52005</v>
+        <v>52002</v>
       </c>
       <c r="C84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D84" t="s">
         <v>13</v>
@@ -2645,27 +2654,27 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85">
-        <v>53000</v>
+        <v>52003</v>
       </c>
       <c r="B85">
-        <v>53000</v>
+        <v>52003</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>104</v>
       </c>
       <c r="D85" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86">
-        <v>53001</v>
+        <v>52004</v>
       </c>
       <c r="B86">
-        <v>53001</v>
+        <v>52004</v>
       </c>
       <c r="C86" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="D86" t="s">
         <v>13</v>
@@ -2673,13 +2682,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87">
-        <v>53002</v>
+        <v>52005</v>
       </c>
       <c r="B87">
-        <v>53002</v>
+        <v>52005</v>
       </c>
       <c r="C87" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="D87" t="s">
         <v>13</v>
@@ -2687,24 +2696,24 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88">
-        <v>53003</v>
+        <v>53000</v>
       </c>
       <c r="B88">
-        <v>53003</v>
+        <v>53000</v>
       </c>
       <c r="C88" t="s">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="D88" t="s">
-        <v>13</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89">
-        <v>53004</v>
+        <v>53001</v>
       </c>
       <c r="B89">
-        <v>53004</v>
+        <v>53001</v>
       </c>
       <c r="C89" t="s">
         <v>107</v>
@@ -2715,10 +2724,10 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90">
-        <v>53005</v>
+        <v>53002</v>
       </c>
       <c r="B90">
-        <v>53005</v>
+        <v>53002</v>
       </c>
       <c r="C90" t="s">
         <v>108</v>
@@ -2729,10 +2738,10 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91">
-        <v>53006</v>
+        <v>53003</v>
       </c>
       <c r="B91">
-        <v>53006</v>
+        <v>53003</v>
       </c>
       <c r="C91" t="s">
         <v>109</v>
@@ -2743,10 +2752,10 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92">
-        <v>53007</v>
+        <v>53004</v>
       </c>
       <c r="B92">
-        <v>53007</v>
+        <v>53004</v>
       </c>
       <c r="C92" t="s">
         <v>110</v>
@@ -2757,10 +2766,10 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93">
-        <v>53008</v>
+        <v>53005</v>
       </c>
       <c r="B93">
-        <v>53008</v>
+        <v>53005</v>
       </c>
       <c r="C93" t="s">
         <v>111</v>
@@ -2771,10 +2780,10 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94">
-        <v>53009</v>
+        <v>53006</v>
       </c>
       <c r="B94">
-        <v>53009</v>
+        <v>53006</v>
       </c>
       <c r="C94" t="s">
         <v>112</v>
@@ -2785,10 +2794,10 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95">
-        <v>53010</v>
+        <v>53007</v>
       </c>
       <c r="B95">
-        <v>53010</v>
+        <v>53007</v>
       </c>
       <c r="C95" t="s">
         <v>113</v>
@@ -2799,10 +2808,10 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96">
-        <v>53011</v>
+        <v>53008</v>
       </c>
       <c r="B96">
-        <v>53011</v>
+        <v>53008</v>
       </c>
       <c r="C96" t="s">
         <v>114</v>
@@ -2813,27 +2822,27 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97">
-        <v>60001</v>
+        <v>53009</v>
       </c>
       <c r="B97">
-        <v>60001</v>
+        <v>53009</v>
       </c>
       <c r="C97" t="s">
         <v>115</v>
       </c>
       <c r="D97" t="s">
-        <v>116</v>
+        <v>13</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98">
-        <v>60002</v>
+        <v>53010</v>
       </c>
       <c r="B98">
-        <v>60002</v>
+        <v>53010</v>
       </c>
       <c r="C98" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D98" t="s">
         <v>13</v>
@@ -2841,13 +2850,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99">
-        <v>61001</v>
+        <v>53011</v>
       </c>
       <c r="B99">
-        <v>61001</v>
+        <v>53011</v>
       </c>
       <c r="C99" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D99" t="s">
         <v>13</v>
@@ -2855,24 +2864,24 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="B100">
-        <v>61002</v>
+        <v>60001</v>
       </c>
       <c r="C100" t="s">
+        <v>118</v>
+      </c>
+      <c r="D100" t="s">
         <v>119</v>
-      </c>
-      <c r="D100" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>61003</v>
+        <v>60002</v>
       </c>
       <c r="B101">
-        <v>61003</v>
+        <v>60002</v>
       </c>
       <c r="C101" t="s">
         <v>120</v>
@@ -2883,24 +2892,24 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="B102">
-        <v>62001</v>
+        <v>61001</v>
       </c>
       <c r="C102" t="s">
         <v>121</v>
       </c>
       <c r="D102" t="s">
-        <v>67</v>
+        <v>13</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>62002</v>
+        <v>61002</v>
       </c>
       <c r="B103">
-        <v>62002</v>
+        <v>61002</v>
       </c>
       <c r="C103" t="s">
         <v>122</v>
@@ -2911,10 +2920,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>62003</v>
+        <v>61003</v>
       </c>
       <c r="B104">
-        <v>62003</v>
+        <v>61003</v>
       </c>
       <c r="C104" t="s">
         <v>123</v>
@@ -2925,94 +2934,94 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>62004</v>
+        <v>62001</v>
       </c>
       <c r="B105">
-        <v>62004</v>
+        <v>62001</v>
       </c>
       <c r="C105" t="s">
-        <v>66</v>
+        <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="B106">
-        <v>70001</v>
+        <v>62002</v>
       </c>
       <c r="C106" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>80001</v>
+        <v>62003</v>
       </c>
       <c r="B107">
-        <v>80001</v>
+        <v>62003</v>
       </c>
       <c r="C107" t="s">
         <v>126</v>
       </c>
       <c r="D107" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="108" customFormat="1" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
       <c r="A108">
-        <v>80002</v>
+        <v>62004</v>
       </c>
       <c r="B108">
-        <v>80002</v>
+        <v>62004</v>
       </c>
       <c r="C108" t="s">
+        <v>69</v>
+      </c>
+      <c r="D108" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109">
+        <v>70001</v>
+      </c>
+      <c r="B109">
+        <v>70001</v>
+      </c>
+      <c r="C109" t="s">
         <v>127</v>
       </c>
-      <c r="D108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="109" customFormat="1" spans="1:4">
-      <c r="A109">
-        <v>80003</v>
-      </c>
-      <c r="B109">
-        <v>80003</v>
-      </c>
-      <c r="C109" t="s">
+      <c r="D109" t="s">
         <v>128</v>
       </c>
-      <c r="D109" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" customFormat="1" spans="1:4">
+    </row>
+    <row r="110" spans="1:4">
       <c r="A110">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="B110">
-        <v>80004</v>
+        <v>80001</v>
       </c>
       <c r="C110" t="s">
         <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" customFormat="1" spans="1:4">
       <c r="A111">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B111">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="C111" t="s">
         <v>130</v>
@@ -3023,10 +3032,10 @@
     </row>
     <row r="112" customFormat="1" spans="1:4">
       <c r="A112">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B112">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="C112" t="s">
         <v>131</v>
@@ -3037,10 +3046,10 @@
     </row>
     <row r="113" customFormat="1" spans="1:4">
       <c r="A113">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B113">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="C113" t="s">
         <v>132</v>
@@ -3051,10 +3060,10 @@
     </row>
     <row r="114" customFormat="1" spans="1:4">
       <c r="A114">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B114">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="C114" t="s">
         <v>133</v>
@@ -3065,10 +3074,10 @@
     </row>
     <row r="115" customFormat="1" spans="1:4">
       <c r="A115">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="B115">
-        <v>80009</v>
+        <v>80006</v>
       </c>
       <c r="C115" t="s">
         <v>134</v>
@@ -3077,71 +3086,71 @@
         <v>13</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" customFormat="1" spans="1:4">
       <c r="A116">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="B116">
-        <v>1000001</v>
+        <v>80007</v>
       </c>
       <c r="C116" t="s">
         <v>135</v>
       </c>
       <c r="D116" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="117" customFormat="1" spans="1:4">
+      <c r="A117">
+        <v>80008</v>
+      </c>
+      <c r="B117">
+        <v>80008</v>
+      </c>
+      <c r="C117" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117">
-        <v>1000002</v>
-      </c>
-      <c r="B117">
-        <v>1000002</v>
-      </c>
-      <c r="C117" t="s">
+      <c r="D117" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="118" customFormat="1" spans="1:4">
+      <c r="A118">
+        <v>80009</v>
+      </c>
+      <c r="B118">
+        <v>80009</v>
+      </c>
+      <c r="C118" t="s">
         <v>137</v>
       </c>
-      <c r="D117" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118">
-        <v>1001001</v>
-      </c>
-      <c r="B118">
-        <v>1001001</v>
-      </c>
-      <c r="C118" t="s">
-        <v>138</v>
-      </c>
       <c r="D118" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119">
-        <v>1002001</v>
+        <v>1000001</v>
       </c>
       <c r="B119">
-        <v>1002001</v>
+        <v>1000001</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1002002</v>
+        <v>1000002</v>
       </c>
       <c r="B120">
-        <v>1002002</v>
+        <v>1000002</v>
       </c>
       <c r="C120" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -3149,69 +3158,69 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1003001</v>
+        <v>1001001</v>
       </c>
       <c r="B121">
-        <v>1003001</v>
+        <v>1001001</v>
       </c>
       <c r="C121" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
-        <v>1003002</v>
+        <v>1002001</v>
       </c>
       <c r="B122">
-        <v>1003002</v>
+        <v>1002001</v>
       </c>
       <c r="C122" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D122" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123">
-        <v>2000001</v>
+        <v>1002002</v>
       </c>
       <c r="B123">
-        <v>2000001</v>
+        <v>1002002</v>
       </c>
       <c r="C123" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D123" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>2000002</v>
+        <v>1003001</v>
       </c>
       <c r="B124">
-        <v>2000002</v>
+        <v>1003001</v>
       </c>
       <c r="C124" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
-        <v>13</v>
+        <v>147</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>2000003</v>
+        <v>1003002</v>
       </c>
       <c r="B125">
-        <v>2000003</v>
+        <v>1003002</v>
       </c>
       <c r="C125" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D125" t="s">
         <v>13</v>
@@ -3219,35 +3228,74 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="B126">
-        <v>3000001</v>
+        <v>2000001</v>
       </c>
       <c r="C126" t="s">
+        <v>149</v>
+      </c>
+      <c r="D126" t="s">
         <v>150</v>
-      </c>
-      <c r="D126" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
+        <v>2000002</v>
+      </c>
+      <c r="B127">
+        <v>2000002</v>
+      </c>
+      <c r="C127" t="s">
+        <v>151</v>
+      </c>
+      <c r="D127" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>2000003</v>
+      </c>
+      <c r="B128">
+        <v>2000003</v>
+      </c>
+      <c r="C128" t="s">
+        <v>152</v>
+      </c>
+      <c r="D128" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129">
+        <v>3000001</v>
+      </c>
+      <c r="B129">
+        <v>3000001</v>
+      </c>
+      <c r="C129" t="s">
+        <v>153</v>
+      </c>
+      <c r="D129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130">
         <v>3000002</v>
       </c>
-      <c r="B127">
+      <c r="B130">
         <v>3000002</v>
       </c>
-      <c r="C127" t="s">
-        <v>152</v>
-      </c>
-      <c r="D127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="159" ht="12" customHeight="1"/>
-    <row r="160" ht="12" customHeight="1"/>
-    <row r="161" ht="12" customHeight="1"/>
+      <c r="C130" t="s">
+        <v>155</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="162" ht="12" customHeight="1"/>
     <row r="163" ht="12" customHeight="1"/>
     <row r="164" ht="12" customHeight="1"/>
@@ -3280,9 +3328,12 @@
     <row r="191" ht="12" customHeight="1"/>
     <row r="192" ht="12" customHeight="1"/>
     <row r="193" ht="12" customHeight="1"/>
-    <row r="194" customHeight="1"/>
-    <row r="245" ht="12" customHeight="1"/>
-    <row r="246" ht="12" customHeight="1"/>
+    <row r="194" ht="12" customHeight="1"/>
+    <row r="195" ht="12" customHeight="1"/>
+    <row r="196" ht="12" customHeight="1"/>
+    <row r="197" customHeight="1"/>
+    <row r="248" ht="12" customHeight="1"/>
+    <row r="249" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="31725" windowHeight="12960"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="165">
   <si>
     <t>id</t>
   </si>
@@ -383,6 +383,9 @@
     <t>自由活动</t>
   </si>
   <si>
+    <t>是否提交议案《{0}》？</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
@@ -476,6 +479,24 @@
     <t>研究等级.最大</t>
   </si>
   <si>
+    <t>取个新名字</t>
+  </si>
+  <si>
+    <t>弹窗-重命名</t>
+  </si>
+  <si>
+    <t>选择魔物</t>
+  </si>
+  <si>
+    <t>弹窗-生物选择</t>
+  </si>
+  <si>
+    <t>当前选择数量{0}/{1}</t>
+  </si>
+  <si>
+    <t>超过选择数量上限</t>
+  </si>
+  <si>
     <t>提示</t>
   </si>
   <si>
@@ -495,6 +516,12 @@
   </si>
   <si>
     <t>没有足够的声望</t>
+  </si>
+  <si>
+    <t>修改名字成功！</t>
+  </si>
+  <si>
+    <t>还未选择魔物！</t>
   </si>
 </sst>
 </file>
@@ -1462,10 +1489,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D249"/>
+  <dimension ref="A1:D255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B49" sqref="B49"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2864,38 +2891,38 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100">
-        <v>60001</v>
+        <v>53012</v>
       </c>
       <c r="B100">
-        <v>60001</v>
+        <v>53012</v>
       </c>
       <c r="C100" t="s">
         <v>118</v>
       </c>
       <c r="D100" t="s">
-        <v>119</v>
+        <v>13</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B101">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C101" t="s">
+        <v>119</v>
+      </c>
+      <c r="D101" t="s">
         <v>120</v>
-      </c>
-      <c r="D101" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B102">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C102" t="s">
         <v>121</v>
@@ -2906,10 +2933,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B103">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C103" t="s">
         <v>122</v>
@@ -2920,10 +2947,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="B104">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="C104" t="s">
         <v>123</v>
@@ -2934,38 +2961,38 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="B105">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="C105" t="s">
         <v>124</v>
       </c>
       <c r="D105" t="s">
-        <v>70</v>
+        <v>13</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B106">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="C106" t="s">
         <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B107">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="C107" t="s">
         <v>126</v>
@@ -2976,13 +3003,13 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B108">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="C108" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -2990,52 +3017,52 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>70001</v>
+        <v>62004</v>
       </c>
       <c r="B109">
-        <v>70001</v>
+        <v>62004</v>
       </c>
       <c r="C109" t="s">
-        <v>127</v>
+        <v>69</v>
       </c>
       <c r="D109" t="s">
-        <v>128</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
+        <v>70001</v>
+      </c>
+      <c r="B110">
+        <v>70001</v>
+      </c>
+      <c r="C110" t="s">
+        <v>128</v>
+      </c>
+      <c r="D110" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
         <v>80001</v>
       </c>
-      <c r="B110">
+      <c r="B111">
         <v>80001</v>
-      </c>
-      <c r="C110" t="s">
-        <v>129</v>
-      </c>
-      <c r="D110" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="111" customFormat="1" spans="1:4">
-      <c r="A111">
-        <v>80002</v>
-      </c>
-      <c r="B111">
-        <v>80002</v>
       </c>
       <c r="C111" t="s">
         <v>130</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" customFormat="1" spans="1:4">
       <c r="A112">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B112">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="C112" t="s">
         <v>131</v>
@@ -3046,10 +3073,10 @@
     </row>
     <row r="113" customFormat="1" spans="1:4">
       <c r="A113">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B113">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="C113" t="s">
         <v>132</v>
@@ -3060,10 +3087,10 @@
     </row>
     <row r="114" customFormat="1" spans="1:4">
       <c r="A114">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B114">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="C114" t="s">
         <v>133</v>
@@ -3074,10 +3101,10 @@
     </row>
     <row r="115" customFormat="1" spans="1:4">
       <c r="A115">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B115">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="C115" t="s">
         <v>134</v>
@@ -3088,10 +3115,10 @@
     </row>
     <row r="116" customFormat="1" spans="1:4">
       <c r="A116">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B116">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="C116" t="s">
         <v>135</v>
@@ -3102,10 +3129,10 @@
     </row>
     <row r="117" customFormat="1" spans="1:4">
       <c r="A117">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B117">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="C117" t="s">
         <v>136</v>
@@ -3116,10 +3143,10 @@
     </row>
     <row r="118" customFormat="1" spans="1:4">
       <c r="A118">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="B118">
-        <v>80009</v>
+        <v>80008</v>
       </c>
       <c r="C118" t="s">
         <v>137</v>
@@ -3128,141 +3155,141 @@
         <v>13</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" customFormat="1" spans="1:4">
       <c r="A119">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="B119">
-        <v>1000001</v>
+        <v>80009</v>
       </c>
       <c r="C119" t="s">
         <v>138</v>
       </c>
       <c r="D119" t="s">
-        <v>139</v>
+        <v>13</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="B120">
-        <v>1000002</v>
+        <v>1000001</v>
       </c>
       <c r="C120" t="s">
+        <v>139</v>
+      </c>
+      <c r="D120" t="s">
         <v>140</v>
-      </c>
-      <c r="D120" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="121" spans="1:4">
       <c r="A121">
-        <v>1001001</v>
+        <v>1000002</v>
       </c>
       <c r="B121">
-        <v>1001001</v>
+        <v>1000002</v>
       </c>
       <c r="C121" t="s">
         <v>141</v>
       </c>
       <c r="D121" t="s">
-        <v>142</v>
+        <v>13</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122">
+        <v>1001001</v>
+      </c>
+      <c r="B122">
+        <v>1001001</v>
+      </c>
+      <c r="C122" t="s">
+        <v>142</v>
+      </c>
+      <c r="D122" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="123" ht="12" customHeight="1" spans="1:4">
+      <c r="A123">
         <v>1002001</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>1002001</v>
       </c>
-      <c r="C122" t="s">
-        <v>143</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="C123" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123">
-        <v>1002002</v>
-      </c>
-      <c r="B123">
-        <v>1002002</v>
-      </c>
-      <c r="C123" t="s">
+      <c r="D123" t="s">
         <v>145</v>
-      </c>
-      <c r="D123" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>1003001</v>
+        <v>1002002</v>
       </c>
       <c r="B124">
-        <v>1003001</v>
+        <v>1002002</v>
       </c>
       <c r="C124" t="s">
         <v>146</v>
       </c>
       <c r="D124" t="s">
-        <v>147</v>
+        <v>13</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1003002</v>
+        <v>1003001</v>
       </c>
       <c r="B125">
-        <v>1003002</v>
+        <v>1003001</v>
       </c>
       <c r="C125" t="s">
+        <v>147</v>
+      </c>
+      <c r="D125" t="s">
         <v>148</v>
-      </c>
-      <c r="D125" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126">
-        <v>2000001</v>
+        <v>1003002</v>
       </c>
       <c r="B126">
-        <v>2000001</v>
+        <v>1003002</v>
       </c>
       <c r="C126" t="s">
         <v>149</v>
       </c>
       <c r="D126" t="s">
-        <v>150</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>2000002</v>
+        <v>1004001</v>
       </c>
       <c r="B127">
-        <v>2000002</v>
+        <v>1004001</v>
       </c>
       <c r="C127" t="s">
+        <v>150</v>
+      </c>
+      <c r="D127" t="s">
         <v>151</v>
-      </c>
-      <c r="D127" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>2000003</v>
+        <v>1004002</v>
       </c>
       <c r="B128">
-        <v>2000003</v>
+        <v>1004002</v>
       </c>
       <c r="C128" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="D128" t="s">
         <v>13</v>
@@ -3270,38 +3297,144 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>3000001</v>
+        <v>1005001</v>
       </c>
       <c r="B129">
-        <v>3000001</v>
+        <v>1005001</v>
       </c>
       <c r="C129" t="s">
+        <v>152</v>
+      </c>
+      <c r="D129" t="s">
         <v>153</v>
-      </c>
-      <c r="D129" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
+        <v>1005002</v>
+      </c>
+      <c r="B130">
+        <v>1005002</v>
+      </c>
+      <c r="C130" t="s">
+        <v>154</v>
+      </c>
+      <c r="D130" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131">
+        <v>1005003</v>
+      </c>
+      <c r="B131">
+        <v>1005003</v>
+      </c>
+      <c r="C131" t="s">
+        <v>155</v>
+      </c>
+      <c r="D131" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132">
+        <v>2000001</v>
+      </c>
+      <c r="B132">
+        <v>2000001</v>
+      </c>
+      <c r="C132" t="s">
+        <v>156</v>
+      </c>
+      <c r="D132" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133">
+        <v>2000002</v>
+      </c>
+      <c r="B133">
+        <v>2000002</v>
+      </c>
+      <c r="C133" t="s">
+        <v>158</v>
+      </c>
+      <c r="D133" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134">
+        <v>2000003</v>
+      </c>
+      <c r="B134">
+        <v>2000003</v>
+      </c>
+      <c r="C134" t="s">
+        <v>159</v>
+      </c>
+      <c r="D134" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135">
+        <v>3000001</v>
+      </c>
+      <c r="B135">
+        <v>3000001</v>
+      </c>
+      <c r="C135" t="s">
+        <v>160</v>
+      </c>
+      <c r="D135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136">
         <v>3000002</v>
       </c>
-      <c r="B130">
+      <c r="B136">
         <v>3000002</v>
       </c>
-      <c r="C130" t="s">
-        <v>155</v>
-      </c>
-      <c r="D130" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" ht="12" customHeight="1"/>
-    <row r="163" ht="12" customHeight="1"/>
-    <row r="164" ht="12" customHeight="1"/>
-    <row r="165" ht="12" customHeight="1"/>
-    <row r="166" ht="12" customHeight="1"/>
-    <row r="167" ht="12" customHeight="1"/>
+      <c r="C136" t="s">
+        <v>162</v>
+      </c>
+      <c r="D136" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137">
+        <v>3000003</v>
+      </c>
+      <c r="B137">
+        <v>3000003</v>
+      </c>
+      <c r="C137" t="s">
+        <v>163</v>
+      </c>
+      <c r="D137" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138">
+        <v>3000004</v>
+      </c>
+      <c r="B138">
+        <v>3000004</v>
+      </c>
+      <c r="C138" t="s">
+        <v>164</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="168" ht="12" customHeight="1"/>
     <row r="169" ht="12" customHeight="1"/>
     <row r="170" ht="12" customHeight="1"/>
@@ -3331,9 +3464,15 @@
     <row r="194" ht="12" customHeight="1"/>
     <row r="195" ht="12" customHeight="1"/>
     <row r="196" ht="12" customHeight="1"/>
-    <row r="197" customHeight="1"/>
-    <row r="248" ht="12" customHeight="1"/>
-    <row r="249" ht="12" customHeight="1"/>
+    <row r="197" ht="12" customHeight="1"/>
+    <row r="198" ht="12" customHeight="1"/>
+    <row r="199" ht="12" customHeight="1"/>
+    <row r="200" ht="12" customHeight="1"/>
+    <row r="201" ht="12" customHeight="1"/>
+    <row r="202" ht="12" customHeight="1"/>
+    <row r="203" customHeight="1"/>
+    <row r="254" ht="12" customHeight="1"/>
+    <row r="255" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17655"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
   <si>
     <t>id</t>
   </si>
@@ -507,6 +507,18 @@
   </si>
   <si>
     <t>声望</t>
+  </si>
+  <si>
+    <t>排序：稀有度</t>
+  </si>
+  <si>
+    <t>排序：等级</t>
+  </si>
+  <si>
+    <t>排序：阵容</t>
+  </si>
+  <si>
+    <t>排序：名字</t>
   </si>
   <si>
     <t>没有足够的魔晶</t>
@@ -1489,10 +1501,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138:C138"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="B135" sqref="B135:C138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -3381,27 +3393,27 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>3000001</v>
+        <v>2000004</v>
       </c>
       <c r="B135">
-        <v>3000001</v>
+        <v>2000004</v>
       </c>
       <c r="C135" t="s">
         <v>160</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>3000002</v>
+        <v>2000005</v>
       </c>
       <c r="B136">
-        <v>3000002</v>
+        <v>2000005</v>
       </c>
       <c r="C136" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
@@ -3409,13 +3421,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>3000003</v>
+        <v>2000006</v>
       </c>
       <c r="B137">
-        <v>3000003</v>
+        <v>2000006</v>
       </c>
       <c r="C137" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -3423,22 +3435,74 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
+        <v>2000007</v>
+      </c>
+      <c r="B138">
+        <v>2000007</v>
+      </c>
+      <c r="C138" t="s">
+        <v>163</v>
+      </c>
+      <c r="D138" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="139" ht="12" customHeight="1" spans="1:4">
+      <c r="A139">
+        <v>3000001</v>
+      </c>
+      <c r="B139">
+        <v>3000001</v>
+      </c>
+      <c r="C139" t="s">
+        <v>164</v>
+      </c>
+      <c r="D139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140">
+        <v>3000002</v>
+      </c>
+      <c r="B140">
+        <v>3000002</v>
+      </c>
+      <c r="C140" t="s">
+        <v>166</v>
+      </c>
+      <c r="D140" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141">
+        <v>3000003</v>
+      </c>
+      <c r="B141">
+        <v>3000003</v>
+      </c>
+      <c r="C141" t="s">
+        <v>167</v>
+      </c>
+      <c r="D141" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
         <v>3000004</v>
       </c>
-      <c r="B138">
+      <c r="B142">
         <v>3000004</v>
       </c>
-      <c r="C138" t="s">
-        <v>164</v>
-      </c>
-      <c r="D138" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" ht="12" customHeight="1"/>
-    <row r="169" ht="12" customHeight="1"/>
-    <row r="170" ht="12" customHeight="1"/>
-    <row r="171" ht="12" customHeight="1"/>
+      <c r="C142" t="s">
+        <v>168</v>
+      </c>
+      <c r="D142" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="172" ht="12" customHeight="1"/>
     <row r="173" ht="12" customHeight="1"/>
     <row r="174" ht="12" customHeight="1"/>
@@ -3470,9 +3534,13 @@
     <row r="200" ht="12" customHeight="1"/>
     <row r="201" ht="12" customHeight="1"/>
     <row r="202" ht="12" customHeight="1"/>
-    <row r="203" customHeight="1"/>
-    <row r="254" ht="12" customHeight="1"/>
-    <row r="255" ht="12" customHeight="1"/>
+    <row r="203" ht="12" customHeight="1"/>
+    <row r="204" ht="12" customHeight="1"/>
+    <row r="205" ht="12" customHeight="1"/>
+    <row r="206" ht="12" customHeight="1"/>
+    <row r="207" customHeight="1"/>
+    <row r="258" ht="12" customHeight="1"/>
+    <row r="259" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
   <si>
     <t>id</t>
   </si>
@@ -125,7 +125,7 @@
     <t>输入名字...</t>
   </si>
   <si>
-    <t>物种</t>
+    <t>种族</t>
   </si>
   <si>
     <t>是否生成{0}魔王</t>
@@ -407,12 +407,27 @@
     <t>是否开启此项研究？花费x{0}魔晶</t>
   </si>
   <si>
+    <t>生物研究</t>
+  </si>
+  <si>
     <t>设施</t>
   </si>
   <si>
     <t>强化</t>
   </si>
   <si>
+    <t>选择转生魔王外观</t>
+  </si>
+  <si>
+    <t>生物外貌修改</t>
+  </si>
+  <si>
+    <t>确认</t>
+  </si>
+  <si>
+    <t>是否以此外观完成转生？</t>
+  </si>
+  <si>
     <t>贿赂</t>
   </si>
   <si>
@@ -446,9 +461,6 @@
     <t>加速进阶 x{0}</t>
   </si>
   <si>
-    <t>确认</t>
-  </si>
-  <si>
     <t>弹窗</t>
   </si>
   <si>
@@ -534,6 +546,9 @@
   </si>
   <si>
     <t>还未选择魔物！</t>
+  </si>
+  <si>
+    <t>转生成功！</t>
   </si>
 </sst>
 </file>
@@ -1501,10 +1516,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D259"/>
+  <dimension ref="A1:D262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="B135" sqref="B135:C138"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2996,7 +3011,7 @@
         <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>70</v>
+        <v>126</v>
       </c>
     </row>
     <row r="107" spans="1:4">
@@ -3007,7 +3022,7 @@
         <v>62002</v>
       </c>
       <c r="C107" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D107" t="s">
         <v>13</v>
@@ -3021,7 +3036,7 @@
         <v>62003</v>
       </c>
       <c r="C108" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D108" t="s">
         <v>13</v>
@@ -3043,83 +3058,83 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>70001</v>
+        <v>63001</v>
       </c>
       <c r="B110">
-        <v>70001</v>
+        <v>63001</v>
       </c>
       <c r="C110" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D110" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
+        <v>63002</v>
+      </c>
+      <c r="B111">
+        <v>63002</v>
+      </c>
+      <c r="C111" t="s">
+        <v>131</v>
+      </c>
+      <c r="D111" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>63003</v>
+      </c>
+      <c r="B112">
+        <v>63003</v>
+      </c>
+      <c r="C112" t="s">
+        <v>132</v>
+      </c>
+      <c r="D112" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113">
+        <v>70001</v>
+      </c>
+      <c r="B113">
+        <v>70001</v>
+      </c>
+      <c r="C113" t="s">
+        <v>133</v>
+      </c>
+      <c r="D113" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114">
         <v>80001</v>
       </c>
-      <c r="B111">
+      <c r="B114">
         <v>80001</v>
       </c>
-      <c r="C111" t="s">
-        <v>130</v>
-      </c>
-      <c r="D111" t="s">
+      <c r="C114" t="s">
+        <v>135</v>
+      </c>
+      <c r="D114" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="112" customFormat="1" spans="1:4">
-      <c r="A112">
-        <v>80002</v>
-      </c>
-      <c r="B112">
-        <v>80002</v>
-      </c>
-      <c r="C112" t="s">
-        <v>131</v>
-      </c>
-      <c r="D112" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" customFormat="1" spans="1:4">
-      <c r="A113">
-        <v>80003</v>
-      </c>
-      <c r="B113">
-        <v>80003</v>
-      </c>
-      <c r="C113" t="s">
-        <v>132</v>
-      </c>
-      <c r="D113" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="114" customFormat="1" spans="1:4">
-      <c r="A114">
-        <v>80004</v>
-      </c>
-      <c r="B114">
-        <v>80004</v>
-      </c>
-      <c r="C114" t="s">
-        <v>133</v>
-      </c>
-      <c r="D114" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="115" customFormat="1" spans="1:4">
       <c r="A115">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="B115">
-        <v>80005</v>
+        <v>80002</v>
       </c>
       <c r="C115" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D115" t="s">
         <v>13</v>
@@ -3127,13 +3142,13 @@
     </row>
     <row r="116" customFormat="1" spans="1:4">
       <c r="A116">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="B116">
-        <v>80006</v>
+        <v>80003</v>
       </c>
       <c r="C116" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -3141,13 +3156,13 @@
     </row>
     <row r="117" customFormat="1" spans="1:4">
       <c r="A117">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="B117">
-        <v>80007</v>
+        <v>80004</v>
       </c>
       <c r="C117" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -3155,13 +3170,13 @@
     </row>
     <row r="118" customFormat="1" spans="1:4">
       <c r="A118">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="B118">
-        <v>80008</v>
+        <v>80005</v>
       </c>
       <c r="C118" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -3169,83 +3184,83 @@
     </row>
     <row r="119" customFormat="1" spans="1:4">
       <c r="A119">
+        <v>80006</v>
+      </c>
+      <c r="B119">
+        <v>80006</v>
+      </c>
+      <c r="C119" t="s">
+        <v>140</v>
+      </c>
+      <c r="D119" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="120" customFormat="1" spans="1:4">
+      <c r="A120">
+        <v>80007</v>
+      </c>
+      <c r="B120">
+        <v>80007</v>
+      </c>
+      <c r="C120" t="s">
+        <v>141</v>
+      </c>
+      <c r="D120" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="121" customFormat="1" spans="1:4">
+      <c r="A121">
+        <v>80008</v>
+      </c>
+      <c r="B121">
+        <v>80008</v>
+      </c>
+      <c r="C121" t="s">
+        <v>142</v>
+      </c>
+      <c r="D121" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="122" customFormat="1" spans="1:4">
+      <c r="A122">
         <v>80009</v>
       </c>
-      <c r="B119">
+      <c r="B122">
         <v>80009</v>
       </c>
-      <c r="C119" t="s">
-        <v>138</v>
-      </c>
-      <c r="D119" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120">
+      <c r="C122" t="s">
+        <v>143</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123">
         <v>1000001</v>
       </c>
-      <c r="B120">
+      <c r="B123">
         <v>1000001</v>
       </c>
-      <c r="C120" t="s">
-        <v>139</v>
-      </c>
-      <c r="D120" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121">
-        <v>1000002</v>
-      </c>
-      <c r="B121">
-        <v>1000002</v>
-      </c>
-      <c r="C121" t="s">
-        <v>141</v>
-      </c>
-      <c r="D121" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122">
-        <v>1001001</v>
-      </c>
-      <c r="B122">
-        <v>1001001</v>
-      </c>
-      <c r="C122" t="s">
-        <v>142</v>
-      </c>
-      <c r="D122" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="123" ht="12" customHeight="1" spans="1:4">
-      <c r="A123">
-        <v>1002001</v>
-      </c>
-      <c r="B123">
-        <v>1002001</v>
-      </c>
       <c r="C123" t="s">
+        <v>131</v>
+      </c>
+      <c r="D123" t="s">
         <v>144</v>
-      </c>
-      <c r="D123" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124">
-        <v>1002002</v>
+        <v>1000002</v>
       </c>
       <c r="B124">
-        <v>1002002</v>
+        <v>1000002</v>
       </c>
       <c r="C124" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -3253,97 +3268,97 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1003001</v>
+        <v>1001001</v>
       </c>
       <c r="B125">
-        <v>1003001</v>
+        <v>1001001</v>
       </c>
       <c r="C125" t="s">
+        <v>146</v>
+      </c>
+      <c r="D125" t="s">
         <v>147</v>
       </c>
-      <c r="D125" t="s">
+    </row>
+    <row r="126" ht="12" customHeight="1" spans="1:4">
+      <c r="A126">
+        <v>1002001</v>
+      </c>
+      <c r="B126">
+        <v>1002001</v>
+      </c>
+      <c r="C126" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="126" spans="1:4">
-      <c r="A126">
-        <v>1003002</v>
-      </c>
-      <c r="B126">
-        <v>1003002</v>
-      </c>
-      <c r="C126" t="s">
+      <c r="D126" t="s">
         <v>149</v>
-      </c>
-      <c r="D126" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>1004001</v>
+        <v>1002002</v>
       </c>
       <c r="B127">
-        <v>1004001</v>
+        <v>1002002</v>
       </c>
       <c r="C127" t="s">
         <v>150</v>
       </c>
       <c r="D127" t="s">
-        <v>151</v>
+        <v>13</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128">
-        <v>1004002</v>
+        <v>1003001</v>
       </c>
       <c r="B128">
-        <v>1004002</v>
+        <v>1003001</v>
       </c>
       <c r="C128" t="s">
-        <v>31</v>
+        <v>151</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>1005001</v>
+        <v>1003002</v>
       </c>
       <c r="B129">
-        <v>1005001</v>
+        <v>1003002</v>
       </c>
       <c r="C129" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D129" t="s">
-        <v>153</v>
+        <v>13</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>1005002</v>
+        <v>1004001</v>
       </c>
       <c r="B130">
-        <v>1005002</v>
+        <v>1004001</v>
       </c>
       <c r="C130" t="s">
         <v>154</v>
       </c>
       <c r="D130" t="s">
-        <v>13</v>
+        <v>155</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>1005003</v>
+        <v>1004002</v>
       </c>
       <c r="B131">
-        <v>1005003</v>
+        <v>1004002</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>31</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -3351,10 +3366,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>2000001</v>
+        <v>1005001</v>
       </c>
       <c r="B132">
-        <v>2000001</v>
+        <v>1005001</v>
       </c>
       <c r="C132" t="s">
         <v>156</v>
@@ -3365,10 +3380,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>2000002</v>
+        <v>1005002</v>
       </c>
       <c r="B133">
-        <v>2000002</v>
+        <v>1005002</v>
       </c>
       <c r="C133" t="s">
         <v>158</v>
@@ -3379,10 +3394,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>2000003</v>
+        <v>1005003</v>
       </c>
       <c r="B134">
-        <v>2000003</v>
+        <v>1005003</v>
       </c>
       <c r="C134" t="s">
         <v>159</v>
@@ -3393,27 +3408,27 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>2000004</v>
+        <v>2000001</v>
       </c>
       <c r="B135">
-        <v>2000004</v>
+        <v>2000001</v>
       </c>
       <c r="C135" t="s">
         <v>160</v>
       </c>
       <c r="D135" t="s">
-        <v>13</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>2000005</v>
+        <v>2000002</v>
       </c>
       <c r="B136">
-        <v>2000005</v>
+        <v>2000002</v>
       </c>
       <c r="C136" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D136" t="s">
         <v>13</v>
@@ -3421,13 +3436,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>2000006</v>
+        <v>2000003</v>
       </c>
       <c r="B137">
-        <v>2000006</v>
+        <v>2000003</v>
       </c>
       <c r="C137" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D137" t="s">
         <v>13</v>
@@ -3435,38 +3450,38 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>2000007</v>
+        <v>2000004</v>
       </c>
       <c r="B138">
-        <v>2000007</v>
+        <v>2000004</v>
       </c>
       <c r="C138" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="139" ht="12" customHeight="1" spans="1:4">
+    <row r="139" spans="1:4">
       <c r="A139">
-        <v>3000001</v>
+        <v>2000005</v>
       </c>
       <c r="B139">
-        <v>3000001</v>
+        <v>2000005</v>
       </c>
       <c r="C139" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D139" t="s">
-        <v>165</v>
+        <v>13</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>3000002</v>
+        <v>2000006</v>
       </c>
       <c r="B140">
-        <v>3000002</v>
+        <v>2000006</v>
       </c>
       <c r="C140" t="s">
         <v>166</v>
@@ -3477,10 +3492,10 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>3000003</v>
+        <v>2000007</v>
       </c>
       <c r="B141">
-        <v>3000003</v>
+        <v>2000007</v>
       </c>
       <c r="C141" t="s">
         <v>167</v>
@@ -3489,23 +3504,76 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" ht="12" customHeight="1" spans="1:4">
       <c r="A142">
-        <v>3000004</v>
+        <v>3000001</v>
       </c>
       <c r="B142">
-        <v>3000004</v>
+        <v>3000001</v>
       </c>
       <c r="C142" t="s">
         <v>168</v>
       </c>
       <c r="D142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="172" ht="12" customHeight="1"/>
-    <row r="173" ht="12" customHeight="1"/>
-    <row r="174" ht="12" customHeight="1"/>
+        <v>169</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143">
+        <v>3000002</v>
+      </c>
+      <c r="B143">
+        <v>3000002</v>
+      </c>
+      <c r="C143" t="s">
+        <v>170</v>
+      </c>
+      <c r="D143" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144">
+        <v>3000003</v>
+      </c>
+      <c r="B144">
+        <v>3000003</v>
+      </c>
+      <c r="C144" t="s">
+        <v>171</v>
+      </c>
+      <c r="D144" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145">
+        <v>3000004</v>
+      </c>
+      <c r="B145">
+        <v>3000004</v>
+      </c>
+      <c r="C145" t="s">
+        <v>172</v>
+      </c>
+      <c r="D145" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146">
+        <v>3000005</v>
+      </c>
+      <c r="B146">
+        <v>3000005</v>
+      </c>
+      <c r="C146" t="s">
+        <v>173</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="175" ht="12" customHeight="1"/>
     <row r="176" ht="12" customHeight="1"/>
     <row r="177" ht="12" customHeight="1"/>
@@ -3538,9 +3606,12 @@
     <row r="204" ht="12" customHeight="1"/>
     <row r="205" ht="12" customHeight="1"/>
     <row r="206" ht="12" customHeight="1"/>
-    <row r="207" customHeight="1"/>
-    <row r="258" ht="12" customHeight="1"/>
-    <row r="259" ht="12" customHeight="1"/>
+    <row r="207" ht="12" customHeight="1"/>
+    <row r="208" ht="12" customHeight="1"/>
+    <row r="209" ht="12" customHeight="1"/>
+    <row r="210" customHeight="1"/>
+    <row r="261" ht="12" customHeight="1"/>
+    <row r="262" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>

--- a/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
+++ b/Demon Lord Roguelike/Assets/Data/Excel/excel_ui_text[UI文本_FrameWork].xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowHeight="17655"/>
   </bookViews>
   <sheets>
     <sheet name="UIText" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="177">
   <si>
     <t>id</t>
   </si>
@@ -386,12 +386,15 @@
     <t>是否提交议案《{0}》？</t>
   </si>
   <si>
+    <t>献祭升级</t>
+  </si>
+  <si>
+    <t>生物献祭</t>
+  </si>
+  <si>
     <t>开始献祭</t>
   </si>
   <si>
-    <t>生物献祭</t>
-  </si>
-  <si>
     <t>成功率</t>
   </si>
   <si>
@@ -437,6 +440,9 @@
     <t>开始进阶</t>
   </si>
   <si>
+    <t>生物进阶</t>
+  </si>
+  <si>
     <t>结束进阶</t>
   </si>
   <si>
@@ -459,6 +465,9 @@
   </si>
   <si>
     <t>加速进阶 x{0}</t>
+  </si>
+  <si>
+    <t>是否溶解&lt;color=#FF6B6B&gt;{0}&lt;/color&gt;对&lt;color=#4ECDC4&gt;{1}&lt;/color&gt;进行进阶？溶解后的魔物将会消失</t>
   </si>
   <si>
     <t>弹窗</t>
@@ -1516,10 +1525,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D262"/>
+  <dimension ref="A1:D264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -2932,10 +2941,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="B101">
-        <v>60001</v>
+        <v>60000</v>
       </c>
       <c r="C101" t="s">
         <v>119</v>
@@ -2946,10 +2955,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="B102">
-        <v>60002</v>
+        <v>60001</v>
       </c>
       <c r="C102" t="s">
         <v>121</v>
@@ -2960,10 +2969,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="B103">
-        <v>61001</v>
+        <v>60002</v>
       </c>
       <c r="C103" t="s">
         <v>122</v>
@@ -2974,10 +2983,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="B104">
-        <v>61002</v>
+        <v>61001</v>
       </c>
       <c r="C104" t="s">
         <v>123</v>
@@ -2988,10 +2997,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="B105">
-        <v>61003</v>
+        <v>61002</v>
       </c>
       <c r="C105" t="s">
         <v>124</v>
@@ -3002,38 +3011,38 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="B106">
-        <v>62001</v>
+        <v>61003</v>
       </c>
       <c r="C106" t="s">
         <v>125</v>
       </c>
       <c r="D106" t="s">
-        <v>126</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="B107">
-        <v>62002</v>
+        <v>62001</v>
       </c>
       <c r="C107" t="s">
+        <v>126</v>
+      </c>
+      <c r="D107" t="s">
         <v>127</v>
-      </c>
-      <c r="D107" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="B108">
-        <v>62003</v>
+        <v>62002</v>
       </c>
       <c r="C108" t="s">
         <v>128</v>
@@ -3044,13 +3053,13 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="B109">
-        <v>62004</v>
+        <v>62003</v>
       </c>
       <c r="C109" t="s">
-        <v>69</v>
+        <v>129</v>
       </c>
       <c r="D109" t="s">
         <v>13</v>
@@ -3058,38 +3067,38 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110">
-        <v>63001</v>
+        <v>62004</v>
       </c>
       <c r="B110">
-        <v>63001</v>
+        <v>62004</v>
       </c>
       <c r="C110" t="s">
-        <v>129</v>
+        <v>69</v>
       </c>
       <c r="D110" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111">
-        <v>63002</v>
+        <v>63001</v>
       </c>
       <c r="B111">
-        <v>63002</v>
+        <v>63001</v>
       </c>
       <c r="C111" t="s">
+        <v>130</v>
+      </c>
+      <c r="D111" t="s">
         <v>131</v>
-      </c>
-      <c r="D111" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112">
-        <v>63003</v>
+        <v>63002</v>
       </c>
       <c r="B112">
-        <v>63003</v>
+        <v>63002</v>
       </c>
       <c r="C112" t="s">
         <v>132</v>
@@ -3100,55 +3109,55 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113">
-        <v>70001</v>
+        <v>63003</v>
       </c>
       <c r="B113">
-        <v>70001</v>
+        <v>63003</v>
       </c>
       <c r="C113" t="s">
         <v>133</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114">
+        <v>70001</v>
+      </c>
+      <c r="B114">
+        <v>70001</v>
+      </c>
+      <c r="C114" t="s">
+        <v>134</v>
+      </c>
+      <c r="D114" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115">
         <v>80001</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>80001</v>
-      </c>
-      <c r="C114" t="s">
-        <v>135</v>
-      </c>
-      <c r="D114" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="115" customFormat="1" spans="1:4">
-      <c r="A115">
-        <v>80002</v>
-      </c>
-      <c r="B115">
-        <v>80002</v>
       </c>
       <c r="C115" t="s">
         <v>136</v>
       </c>
       <c r="D115" t="s">
-        <v>13</v>
+        <v>137</v>
       </c>
     </row>
     <row r="116" customFormat="1" spans="1:4">
       <c r="A116">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="B116">
-        <v>80003</v>
+        <v>80002</v>
       </c>
       <c r="C116" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D116" t="s">
         <v>13</v>
@@ -3156,13 +3165,13 @@
     </row>
     <row r="117" customFormat="1" spans="1:4">
       <c r="A117">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="B117">
-        <v>80004</v>
+        <v>80003</v>
       </c>
       <c r="C117" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D117" t="s">
         <v>13</v>
@@ -3170,13 +3179,13 @@
     </row>
     <row r="118" customFormat="1" spans="1:4">
       <c r="A118">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="B118">
-        <v>80005</v>
+        <v>80004</v>
       </c>
       <c r="C118" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>13</v>
@@ -3184,13 +3193,13 @@
     </row>
     <row r="119" customFormat="1" spans="1:4">
       <c r="A119">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="B119">
-        <v>80006</v>
+        <v>80005</v>
       </c>
       <c r="C119" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D119" t="s">
         <v>13</v>
@@ -3198,13 +3207,13 @@
     </row>
     <row r="120" customFormat="1" spans="1:4">
       <c r="A120">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="B120">
-        <v>80007</v>
+        <v>80006</v>
       </c>
       <c r="C120" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
@@ -3212,13 +3221,13 @@
     </row>
     <row r="121" customFormat="1" spans="1:4">
       <c r="A121">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="B121">
-        <v>80008</v>
+        <v>80007</v>
       </c>
       <c r="C121" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D121" t="s">
         <v>13</v>
@@ -3226,41 +3235,41 @@
     </row>
     <row r="122" customFormat="1" spans="1:4">
       <c r="A122">
+        <v>80008</v>
+      </c>
+      <c r="B122">
+        <v>80008</v>
+      </c>
+      <c r="C122" t="s">
+        <v>144</v>
+      </c>
+      <c r="D122" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="123" customFormat="1" spans="1:4">
+      <c r="A123">
         <v>80009</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>80009</v>
       </c>
-      <c r="C122" t="s">
-        <v>143</v>
-      </c>
-      <c r="D122" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123">
-        <v>1000001</v>
-      </c>
-      <c r="B123">
-        <v>1000001</v>
-      </c>
       <c r="C123" t="s">
-        <v>131</v>
+        <v>145</v>
       </c>
       <c r="D123" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="124" customFormat="1" spans="1:4">
       <c r="A124">
-        <v>1000002</v>
+        <v>80010</v>
       </c>
       <c r="B124">
-        <v>1000002</v>
+        <v>80010</v>
       </c>
       <c r="C124" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D124" t="s">
         <v>13</v>
@@ -3268,52 +3277,52 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125">
-        <v>1001001</v>
+        <v>1000001</v>
       </c>
       <c r="B125">
-        <v>1001001</v>
+        <v>1000001</v>
       </c>
       <c r="C125" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="D125" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="126" ht="12" customHeight="1" spans="1:4">
+    <row r="126" spans="1:4">
       <c r="A126">
-        <v>1002001</v>
+        <v>1000002</v>
       </c>
       <c r="B126">
-        <v>1002001</v>
+        <v>1000002</v>
       </c>
       <c r="C126" t="s">
         <v>148</v>
       </c>
       <c r="D126" t="s">
-        <v>149</v>
+        <v>13</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127">
-        <v>1002002</v>
+        <v>1001001</v>
       </c>
       <c r="B127">
-        <v>1002002</v>
+        <v>1001001</v>
       </c>
       <c r="C127" t="s">
+        <v>149</v>
+      </c>
+      <c r="D127" t="s">
         <v>150</v>
       </c>
-      <c r="D127" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
+    </row>
+    <row r="128" ht="12" customHeight="1" spans="1:4">
       <c r="A128">
-        <v>1003001</v>
+        <v>1002001</v>
       </c>
       <c r="B128">
-        <v>1003001</v>
+        <v>1002001</v>
       </c>
       <c r="C128" t="s">
         <v>151</v>
@@ -3324,10 +3333,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129">
-        <v>1003002</v>
+        <v>1002002</v>
       </c>
       <c r="B129">
-        <v>1003002</v>
+        <v>1002002</v>
       </c>
       <c r="C129" t="s">
         <v>153</v>
@@ -3338,10 +3347,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130">
-        <v>1004001</v>
+        <v>1003001</v>
       </c>
       <c r="B130">
-        <v>1004001</v>
+        <v>1003001</v>
       </c>
       <c r="C130" t="s">
         <v>154</v>
@@ -3352,13 +3361,13 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131">
-        <v>1004002</v>
+        <v>1003002</v>
       </c>
       <c r="B131">
-        <v>1004002</v>
+        <v>1003002</v>
       </c>
       <c r="C131" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="D131" t="s">
         <v>13</v>
@@ -3366,27 +3375,27 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132">
-        <v>1005001</v>
+        <v>1004001</v>
       </c>
       <c r="B132">
-        <v>1005001</v>
+        <v>1004001</v>
       </c>
       <c r="C132" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D132" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133">
-        <v>1005002</v>
+        <v>1004002</v>
       </c>
       <c r="B133">
-        <v>1005002</v>
+        <v>1004002</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>31</v>
       </c>
       <c r="D133" t="s">
         <v>13</v>
@@ -3394,38 +3403,38 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134">
-        <v>1005003</v>
+        <v>1005001</v>
       </c>
       <c r="B134">
-        <v>1005003</v>
+        <v>1005001</v>
       </c>
       <c r="C134" t="s">
         <v>159</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>160</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135">
-        <v>2000001</v>
+        <v>1005002</v>
       </c>
       <c r="B135">
-        <v>2000001</v>
+        <v>1005002</v>
       </c>
       <c r="C135" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D135" t="s">
-        <v>161</v>
+        <v>13</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136">
-        <v>2000002</v>
+        <v>1005003</v>
       </c>
       <c r="B136">
-        <v>2000002</v>
+        <v>1005003</v>
       </c>
       <c r="C136" t="s">
         <v>162</v>
@@ -3436,27 +3445,27 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="B137">
-        <v>2000003</v>
+        <v>2000001</v>
       </c>
       <c r="C137" t="s">
         <v>163</v>
       </c>
       <c r="D137" t="s">
-        <v>13</v>
+        <v>164</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138">
-        <v>2000004</v>
+        <v>2000002</v>
       </c>
       <c r="B138">
-        <v>2000004</v>
+        <v>2000002</v>
       </c>
       <c r="C138" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D138" t="s">
         <v>13</v>
@@ -3464,13 +3473,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139">
-        <v>2000005</v>
+        <v>2000003</v>
       </c>
       <c r="B139">
-        <v>2000005</v>
+        <v>2000003</v>
       </c>
       <c r="C139" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D139" t="s">
         <v>13</v>
@@ -3478,13 +3487,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140">
-        <v>2000006</v>
+        <v>2000004</v>
       </c>
       <c r="B140">
-        <v>2000006</v>
+        <v>2000004</v>
       </c>
       <c r="C140" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D140" t="s">
         <v>13</v>
@@ -3492,38 +3501,38 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141">
-        <v>2000007</v>
+        <v>2000005</v>
       </c>
       <c r="B141">
-        <v>2000007</v>
+        <v>2000005</v>
       </c>
       <c r="C141" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D141" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="142" ht="12" customHeight="1" spans="1:4">
+    <row r="142" spans="1:4">
       <c r="A142">
-        <v>3000001</v>
+        <v>2000006</v>
       </c>
       <c r="B142">
-        <v>3000001</v>
+        <v>2000006</v>
       </c>
       <c r="C142" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="D142" t="s">
-        <v>169</v>
+        <v>13</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143">
-        <v>3000002</v>
+        <v>2000007</v>
       </c>
       <c r="B143">
-        <v>3000002</v>
+        <v>2000007</v>
       </c>
       <c r="C143" t="s">
         <v>170</v>
@@ -3532,29 +3541,29 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" ht="12" customHeight="1" spans="1:4">
       <c r="A144">
-        <v>3000003</v>
+        <v>3000001</v>
       </c>
       <c r="B144">
-        <v>3000003</v>
+        <v>3000001</v>
       </c>
       <c r="C144" t="s">
         <v>171</v>
       </c>
       <c r="D144" t="s">
-        <v>13</v>
+        <v>172</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145">
-        <v>3000004</v>
+        <v>3000002</v>
       </c>
       <c r="B145">
-        <v>3000004</v>
+        <v>3000002</v>
       </c>
       <c r="C145" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D145" t="s">
         <v>13</v>
@@ -3562,20 +3571,46 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146">
+        <v>3000003</v>
+      </c>
+      <c r="B146">
+        <v>3000003</v>
+      </c>
+      <c r="C146" t="s">
+        <v>174</v>
+      </c>
+      <c r="D146" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>3000004</v>
+      </c>
+      <c r="B147">
+        <v>3000004</v>
+      </c>
+      <c r="C147" t="s">
+        <v>175</v>
+      </c>
+      <c r="D147" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148">
         <v>3000005</v>
       </c>
-      <c r="B146">
+      <c r="B148">
         <v>3000005</v>
       </c>
-      <c r="C146" t="s">
-        <v>173</v>
-      </c>
-      <c r="D146" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="175" ht="12" customHeight="1"/>
-    <row r="176" ht="12" customHeight="1"/>
+      <c r="C148" t="s">
+        <v>176</v>
+      </c>
+      <c r="D148" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="177" ht="12" customHeight="1"/>
     <row r="178" ht="12" customHeight="1"/>
     <row r="179" ht="12" customHeight="1"/>
@@ -3609,9 +3644,11 @@
     <row r="207" ht="12" customHeight="1"/>
     <row r="208" ht="12" customHeight="1"/>
     <row r="209" ht="12" customHeight="1"/>
-    <row r="210" customHeight="1"/>
-    <row r="261" ht="12" customHeight="1"/>
-    <row r="262" ht="12" customHeight="1"/>
+    <row r="210" ht="12" customHeight="1"/>
+    <row r="211" ht="12" customHeight="1"/>
+    <row r="212" customHeight="1"/>
+    <row r="263" ht="12" customHeight="1"/>
+    <row r="264" ht="12" customHeight="1"/>
   </sheetData>
   <sortState ref="A4:D88">
     <sortCondition ref="A4"/>
